--- a/utils/report.xlsx
+++ b/utils/report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yungnik/Documents/GitHub/spouralExcel/utils/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steel\OneDrive\Документы\Github\spouralExcel\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3E1BB9-4E8E-AF4F-BC69-8205B79223C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354B1479-6D63-41AF-B6C9-D4E4D14326A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный лист" sheetId="8" r:id="rId1"/>
@@ -258,7 +258,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -317,16 +317,16 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -697,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -915,12 +915,63 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -936,57 +987,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1179,9 +1179,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1221,52 +1218,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1762,24 +1759,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BW53"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="AN13" sqref="AN13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="2.5" style="6" customWidth="1"/>
-    <col min="5" max="6" width="2.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="2.42578125" style="6" customWidth="1"/>
+    <col min="5" max="6" width="2.7109375" style="6" customWidth="1"/>
     <col min="7" max="9" width="3" style="6" customWidth="1"/>
-    <col min="10" max="36" width="2.6640625" style="6" customWidth="1"/>
-    <col min="37" max="37" width="2.5" style="6" customWidth="1"/>
-    <col min="38" max="75" width="2.6640625" style="6" customWidth="1"/>
-    <col min="76" max="16384" width="8.83203125" style="5"/>
+    <col min="10" max="36" width="2.7109375" style="6" customWidth="1"/>
+    <col min="37" max="37" width="2.42578125" style="6" customWidth="1"/>
+    <col min="38" max="75" width="2.7109375" style="6" customWidth="1"/>
+    <col min="76" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="15.75" customHeight="1">
+    <row r="1" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="35"/>
@@ -1858,7 +1855,7 @@
       <c r="BV1" s="1"/>
       <c r="BW1" s="1"/>
     </row>
-    <row r="2" spans="1:75" ht="15.75" customHeight="1">
+    <row r="2" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="37"/>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
@@ -1895,7 +1892,7 @@
       <c r="AJ2" s="72"/>
       <c r="AK2" s="73"/>
     </row>
-    <row r="3" spans="1:75" ht="15.75" customHeight="1">
+    <row r="3" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="37"/>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
@@ -1932,7 +1929,7 @@
       <c r="AJ3" s="72"/>
       <c r="AK3" s="73"/>
     </row>
-    <row r="4" spans="1:75" ht="15.75" customHeight="1">
+    <row r="4" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="39"/>
       <c r="D4" s="40"/>
       <c r="E4" s="38"/>
@@ -1969,7 +1966,7 @@
       <c r="AJ4" s="72"/>
       <c r="AK4" s="73"/>
     </row>
-    <row r="5" spans="1:75" ht="15.75" customHeight="1">
+    <row r="5" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="10"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -1977,7 +1974,7 @@
       <c r="AK5" s="12"/>
       <c r="AQ5" s="5"/>
     </row>
-    <row r="6" spans="1:75" ht="15.75" customHeight="1">
+    <row r="6" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="13"/>
       <c r="D6" s="78" t="s">
         <v>20</v>
@@ -2016,7 +2013,7 @@
       <c r="AJ6" s="78"/>
       <c r="AK6" s="15"/>
     </row>
-    <row r="7" spans="1:75" ht="15.75" customHeight="1">
+    <row r="7" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="16"/>
       <c r="D7" s="78"/>
       <c r="E7" s="78"/>
@@ -2053,11 +2050,11 @@
       <c r="AJ7" s="78"/>
       <c r="AK7" s="15"/>
     </row>
-    <row r="8" spans="1:75" ht="15.75" customHeight="1">
+    <row r="8" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="10"/>
       <c r="AK8" s="12"/>
     </row>
-    <row r="9" spans="1:75" ht="15.75" customHeight="1">
+    <row r="9" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="10"/>
       <c r="D9" s="77" t="s">
         <v>21</v>
@@ -2096,7 +2093,7 @@
       <c r="AJ9" s="77"/>
       <c r="AK9" s="12"/>
     </row>
-    <row r="10" spans="1:75" ht="15.75" customHeight="1">
+    <row r="10" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="18"/>
       <c r="D10" s="77"/>
       <c r="E10" s="77"/>
@@ -2133,7 +2130,7 @@
       <c r="AJ10" s="77"/>
       <c r="AK10" s="19"/>
     </row>
-    <row r="11" spans="1:75" ht="15.75" customHeight="1">
+    <row r="11" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="18"/>
       <c r="D11" s="77"/>
       <c r="E11" s="77"/>
@@ -2170,11 +2167,11 @@
       <c r="AJ11" s="77"/>
       <c r="AK11" s="19"/>
     </row>
-    <row r="12" spans="1:75" ht="15.75" customHeight="1">
+    <row r="12" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="18"/>
       <c r="AK12" s="19"/>
     </row>
-    <row r="13" spans="1:75" ht="15.75" customHeight="1">
+    <row r="13" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="20"/>
       <c r="D13" s="74" t="s">
         <v>12</v>
@@ -2213,7 +2210,7 @@
       <c r="AJ13" s="74"/>
       <c r="AK13" s="22"/>
     </row>
-    <row r="14" spans="1:75" ht="15.75" customHeight="1">
+    <row r="14" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="20"/>
       <c r="D14" s="74"/>
       <c r="E14" s="74"/>
@@ -2250,7 +2247,7 @@
       <c r="AJ14" s="74"/>
       <c r="AK14" s="22"/>
     </row>
-    <row r="15" spans="1:75" ht="15.75" customHeight="1">
+    <row r="15" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="10"/>
       <c r="D15" s="74"/>
       <c r="E15" s="74"/>
@@ -2287,7 +2284,7 @@
       <c r="AJ15" s="74"/>
       <c r="AK15" s="12"/>
     </row>
-    <row r="16" spans="1:75" ht="15.75" customHeight="1">
+    <row r="16" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="10"/>
       <c r="D16" s="74"/>
       <c r="E16" s="74"/>
@@ -2324,7 +2321,7 @@
       <c r="AJ16" s="74"/>
       <c r="AK16" s="12"/>
     </row>
-    <row r="17" spans="1:37" ht="16.75" customHeight="1">
+    <row r="17" spans="1:37" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="10"/>
       <c r="D17" s="74"/>
       <c r="E17" s="74"/>
@@ -2361,15 +2358,15 @@
       <c r="AJ17" s="74"/>
       <c r="AK17" s="12"/>
     </row>
-    <row r="18" spans="1:37" ht="15.75" customHeight="1">
+    <row r="18" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="10"/>
       <c r="AK18" s="12"/>
     </row>
-    <row r="19" spans="1:37" ht="15.75" customHeight="1">
+    <row r="19" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="10"/>
       <c r="AK19" s="12"/>
     </row>
-    <row r="20" spans="1:37" ht="15.75" customHeight="1">
+    <row r="20" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="10"/>
       <c r="D20" s="79" t="s">
         <v>18</v>
@@ -2408,7 +2405,7 @@
       <c r="AJ20" s="79"/>
       <c r="AK20" s="12"/>
     </row>
-    <row r="21" spans="1:37" ht="16.75" customHeight="1">
+    <row r="21" spans="1:37" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="10"/>
       <c r="D21" s="79"/>
       <c r="E21" s="79"/>
@@ -2445,19 +2442,19 @@
       <c r="AJ21" s="79"/>
       <c r="AK21" s="12"/>
     </row>
-    <row r="22" spans="1:37" ht="16.75" customHeight="1">
+    <row r="22" spans="1:37" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="10"/>
       <c r="AK22" s="12"/>
     </row>
-    <row r="23" spans="1:37" ht="16.75" customHeight="1">
+    <row r="23" spans="1:37" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="10"/>
       <c r="AK23" s="12"/>
     </row>
-    <row r="24" spans="1:37" ht="16.75" customHeight="1" thickBot="1">
+    <row r="24" spans="1:37" ht="16.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C24" s="10"/>
       <c r="AK24" s="12"/>
     </row>
-    <row r="25" spans="1:37" ht="15.75" customHeight="1">
+    <row r="25" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="60" t="s">
         <v>8</v>
       </c>
@@ -2500,7 +2497,7 @@
       <c r="AJ25" s="74"/>
       <c r="AK25" s="12"/>
     </row>
-    <row r="26" spans="1:37" ht="15.75" customHeight="1">
+    <row r="26" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="61"/>
       <c r="B26" s="64"/>
       <c r="C26" s="10"/>
@@ -2539,13 +2536,13 @@
       <c r="AJ26" s="74"/>
       <c r="AK26" s="12"/>
     </row>
-    <row r="27" spans="1:37" ht="15.75" customHeight="1">
+    <row r="27" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="61"/>
       <c r="B27" s="64"/>
       <c r="C27" s="10"/>
       <c r="AK27" s="12"/>
     </row>
-    <row r="28" spans="1:37" ht="15.75" customHeight="1">
+    <row r="28" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="61"/>
       <c r="B28" s="64"/>
       <c r="C28" s="10"/>
@@ -2586,7 +2583,7 @@
       <c r="AJ28" s="79"/>
       <c r="AK28" s="12"/>
     </row>
-    <row r="29" spans="1:37" ht="15.75" customHeight="1">
+    <row r="29" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="61"/>
       <c r="B29" s="64"/>
       <c r="C29" s="10"/>
@@ -2625,19 +2622,19 @@
       <c r="AJ29" s="79"/>
       <c r="AK29" s="12"/>
     </row>
-    <row r="30" spans="1:37" ht="15.75" customHeight="1">
+    <row r="30" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="61"/>
       <c r="B30" s="64"/>
       <c r="C30" s="10"/>
       <c r="AK30" s="12"/>
     </row>
-    <row r="31" spans="1:37" ht="15.75" customHeight="1" thickBot="1">
+    <row r="31" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="62"/>
       <c r="B31" s="65"/>
       <c r="C31" s="10"/>
       <c r="AK31" s="12"/>
     </row>
-    <row r="32" spans="1:37" ht="15.75" customHeight="1">
+    <row r="32" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="60" t="s">
         <v>10</v>
       </c>
@@ -2645,31 +2642,31 @@
       <c r="C32" s="10"/>
       <c r="AK32" s="12"/>
     </row>
-    <row r="33" spans="1:37" ht="15.75" customHeight="1">
+    <row r="33" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="61"/>
       <c r="B33" s="64"/>
       <c r="C33" s="10"/>
       <c r="AK33" s="12"/>
     </row>
-    <row r="34" spans="1:37" ht="15.75" customHeight="1">
+    <row r="34" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="61"/>
       <c r="B34" s="64"/>
       <c r="C34" s="10"/>
       <c r="AK34" s="12"/>
     </row>
-    <row r="35" spans="1:37" ht="15.75" customHeight="1">
+    <row r="35" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="61"/>
       <c r="B35" s="64"/>
       <c r="C35" s="10"/>
       <c r="AK35" s="12"/>
     </row>
-    <row r="36" spans="1:37" ht="15.75" customHeight="1" thickBot="1">
+    <row r="36" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="62"/>
       <c r="B36" s="65"/>
       <c r="C36" s="10"/>
       <c r="AK36" s="12"/>
     </row>
-    <row r="37" spans="1:37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="60" t="s">
         <v>9</v>
       </c>
@@ -2677,19 +2674,19 @@
       <c r="C37" s="10"/>
       <c r="AK37" s="12"/>
     </row>
-    <row r="38" spans="1:37" ht="15.75" customHeight="1">
+    <row r="38" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="61"/>
       <c r="B38" s="64"/>
       <c r="C38" s="10"/>
       <c r="AK38" s="12"/>
     </row>
-    <row r="39" spans="1:37" ht="15.75" customHeight="1">
+    <row r="39" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="61"/>
       <c r="B39" s="64"/>
       <c r="C39" s="10"/>
       <c r="AK39" s="12"/>
     </row>
-    <row r="40" spans="1:37" ht="15.75" customHeight="1">
+    <row r="40" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="61"/>
       <c r="B40" s="64"/>
       <c r="C40" s="10"/>
@@ -2732,7 +2729,7 @@
       <c r="AJ40" s="76"/>
       <c r="AK40" s="12"/>
     </row>
-    <row r="41" spans="1:37" ht="15.75" customHeight="1" thickBot="1">
+    <row r="41" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="62"/>
       <c r="B41" s="65"/>
       <c r="C41" s="7"/>
@@ -2756,7 +2753,7 @@
       <c r="AJ41" s="76"/>
       <c r="AK41" s="9"/>
     </row>
-    <row r="42" spans="1:37" ht="15.75" customHeight="1">
+    <row r="42" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="60" t="s">
         <v>8</v>
       </c>
@@ -2764,24 +2761,24 @@
       <c r="C42" s="7"/>
       <c r="AK42" s="9"/>
     </row>
-    <row r="43" spans="1:37" ht="15.75" customHeight="1">
+    <row r="43" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="61"/>
       <c r="B43" s="64"/>
       <c r="C43" s="10"/>
       <c r="AK43" s="9"/>
     </row>
-    <row r="44" spans="1:37" ht="15.75" customHeight="1">
+    <row r="44" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="61"/>
       <c r="B44" s="64"/>
       <c r="C44" s="10"/>
       <c r="AK44" s="12"/>
     </row>
-    <row r="45" spans="1:37" ht="15.75" customHeight="1">
+    <row r="45" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="61"/>
       <c r="B45" s="64"/>
       <c r="AK45" s="12"/>
     </row>
-    <row r="46" spans="1:37" ht="15.75" customHeight="1">
+    <row r="46" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="61"/>
       <c r="B46" s="67"/>
       <c r="C46" s="10"/>
@@ -2808,7 +2805,7 @@
       <c r="AJ46" s="26"/>
       <c r="AK46" s="27"/>
     </row>
-    <row r="47" spans="1:37" ht="15.75" customHeight="1">
+    <row r="47" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="61"/>
       <c r="B47" s="67"/>
       <c r="C47" s="28"/>
@@ -2845,7 +2842,7 @@
       <c r="AJ47" s="26"/>
       <c r="AK47" s="27"/>
     </row>
-    <row r="48" spans="1:37" ht="15.75" customHeight="1" thickBot="1">
+    <row r="48" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="62"/>
       <c r="B48" s="68"/>
       <c r="C48" s="42"/>
@@ -2884,7 +2881,7 @@
       <c r="AJ48" s="26"/>
       <c r="AK48" s="27"/>
     </row>
-    <row r="49" spans="1:37" ht="15.75" customHeight="1">
+    <row r="49" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="60" t="s">
         <v>7</v>
       </c>
@@ -2925,7 +2922,7 @@
       <c r="AJ49" s="14"/>
       <c r="AK49" s="15"/>
     </row>
-    <row r="50" spans="1:37" ht="15.75" customHeight="1">
+    <row r="50" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="61"/>
       <c r="B50" s="67"/>
       <c r="C50" s="28"/>
@@ -2964,7 +2961,7 @@
       <c r="AJ50" s="29"/>
       <c r="AK50" s="43"/>
     </row>
-    <row r="51" spans="1:37" ht="15.75" customHeight="1">
+    <row r="51" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="61"/>
       <c r="B51" s="67"/>
       <c r="C51" s="28"/>
@@ -3005,7 +3002,7 @@
       <c r="AJ51" s="69"/>
       <c r="AK51" s="43"/>
     </row>
-    <row r="52" spans="1:37" ht="15.75" customHeight="1">
+    <row r="52" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="61"/>
       <c r="B52" s="67"/>
       <c r="C52" s="28"/>
@@ -3047,7 +3044,7 @@
       <c r="AJ52" s="69"/>
       <c r="AK52" s="15"/>
     </row>
-    <row r="53" spans="1:37" ht="15.75" customHeight="1" thickBot="1">
+    <row r="53" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="62"/>
       <c r="B53" s="68"/>
       <c r="C53" s="30"/>
@@ -3123,63 +3120,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7FCCDD-5EAB-4EE3-8581-1153B0B05959}">
   <dimension ref="A1:BW53"/>
   <sheetViews>
-    <sheetView topLeftCell="B15" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:AK4"/>
+    <sheetView topLeftCell="B11" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="2.5" style="6" customWidth="1"/>
-    <col min="5" max="6" width="2.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="2.42578125" style="6" customWidth="1"/>
+    <col min="5" max="6" width="2.7109375" style="6" customWidth="1"/>
     <col min="7" max="9" width="3" style="6" customWidth="1"/>
-    <col min="10" max="36" width="2.6640625" style="6" customWidth="1"/>
-    <col min="37" max="37" width="2.5" style="6" customWidth="1"/>
-    <col min="38" max="75" width="2.6640625" style="6" customWidth="1"/>
-    <col min="76" max="16384" width="8.83203125" style="5"/>
+    <col min="10" max="36" width="2.7109375" style="6" customWidth="1"/>
+    <col min="37" max="37" width="2.42578125" style="6" customWidth="1"/>
+    <col min="38" max="75" width="2.7109375" style="6" customWidth="1"/>
+    <col min="76" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="15.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
-      <c r="X1" s="101"/>
-      <c r="Y1" s="101"/>
-      <c r="Z1" s="101"/>
-      <c r="AA1" s="101"/>
-      <c r="AB1" s="101"/>
-      <c r="AC1" s="101"/>
-      <c r="AD1" s="101"/>
-      <c r="AE1" s="101"/>
-      <c r="AF1" s="101"/>
-      <c r="AG1" s="101"/>
-      <c r="AH1" s="101"/>
-      <c r="AI1" s="101"/>
-      <c r="AJ1" s="101"/>
-      <c r="AK1" s="101"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="89"/>
+      <c r="AG1" s="89"/>
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="89"/>
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="89"/>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
@@ -3219,125 +3216,125 @@
       <c r="BV1" s="1"/>
       <c r="BW1" s="1"/>
     </row>
-    <row r="2" spans="1:75" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="101"/>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="101"/>
-      <c r="AG2" s="101"/>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="101"/>
-      <c r="AJ2" s="101"/>
-      <c r="AK2" s="101"/>
-    </row>
-    <row r="3" spans="1:75" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
-      <c r="U3" s="101"/>
-      <c r="V3" s="101"/>
-      <c r="W3" s="101"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="101"/>
-      <c r="Z3" s="101"/>
-      <c r="AA3" s="101"/>
-      <c r="AB3" s="101"/>
-      <c r="AC3" s="101"/>
-      <c r="AD3" s="101"/>
-      <c r="AE3" s="101"/>
-      <c r="AF3" s="101"/>
-      <c r="AG3" s="101"/>
-      <c r="AH3" s="101"/>
-      <c r="AI3" s="101"/>
-      <c r="AJ3" s="101"/>
-      <c r="AK3" s="101"/>
-    </row>
-    <row r="4" spans="1:75" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="101"/>
-      <c r="T4" s="101"/>
-      <c r="U4" s="101"/>
-      <c r="V4" s="101"/>
-      <c r="W4" s="101"/>
-      <c r="X4" s="101"/>
-      <c r="Y4" s="101"/>
-      <c r="Z4" s="101"/>
-      <c r="AA4" s="101"/>
-      <c r="AB4" s="101"/>
-      <c r="AC4" s="101"/>
-      <c r="AD4" s="101"/>
-      <c r="AE4" s="101"/>
-      <c r="AF4" s="101"/>
-      <c r="AG4" s="101"/>
-      <c r="AH4" s="101"/>
-      <c r="AI4" s="101"/>
-      <c r="AJ4" s="101"/>
-      <c r="AK4" s="101"/>
-    </row>
-    <row r="5" spans="1:75" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C5" s="102" t="s">
+    <row r="2" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="89"/>
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="89"/>
+      <c r="AE2" s="89"/>
+      <c r="AF2" s="89"/>
+      <c r="AG2" s="89"/>
+      <c r="AH2" s="89"/>
+      <c r="AI2" s="89"/>
+      <c r="AJ2" s="89"/>
+      <c r="AK2" s="89"/>
+    </row>
+    <row r="3" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="89"/>
+      <c r="AD3" s="89"/>
+      <c r="AE3" s="89"/>
+      <c r="AF3" s="89"/>
+      <c r="AG3" s="89"/>
+      <c r="AH3" s="89"/>
+      <c r="AI3" s="89"/>
+      <c r="AJ3" s="89"/>
+      <c r="AK3" s="89"/>
+    </row>
+    <row r="4" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="89"/>
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="89"/>
+    </row>
+    <row r="5" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
       <c r="H5" s="80" t="s">
         <v>33</v>
       </c>
@@ -3374,12 +3371,12 @@
       <c r="AK5" s="80"/>
       <c r="AQ5" s="5"/>
     </row>
-    <row r="6" spans="1:75" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
+    <row r="6" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
       <c r="H6" s="80"/>
       <c r="I6" s="80"/>
       <c r="J6" s="80"/>
@@ -3411,12 +3408,12 @@
       <c r="AJ6" s="80"/>
       <c r="AK6" s="80"/>
     </row>
-    <row r="7" spans="1:75" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
+    <row r="7" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
       <c r="H7" s="80"/>
       <c r="I7" s="80"/>
       <c r="J7" s="80"/>
@@ -3448,11 +3445,11 @@
       <c r="AJ7" s="80"/>
       <c r="AK7" s="80"/>
     </row>
-    <row r="8" spans="1:75" ht="15.75" customHeight="1">
+    <row r="8" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="10"/>
       <c r="AK8" s="12"/>
     </row>
-    <row r="9" spans="1:75" ht="15.75" customHeight="1">
+    <row r="9" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="10"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -3489,7 +3486,7 @@
       <c r="AJ9" s="17"/>
       <c r="AK9" s="12"/>
     </row>
-    <row r="10" spans="1:75" ht="15.75" customHeight="1">
+    <row r="10" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="18"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -3526,7 +3523,7 @@
       <c r="AJ10" s="17"/>
       <c r="AK10" s="19"/>
     </row>
-    <row r="11" spans="1:75" ht="15.75" customHeight="1">
+    <row r="11" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="18"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -3563,11 +3560,11 @@
       <c r="AJ11" s="17"/>
       <c r="AK11" s="19"/>
     </row>
-    <row r="12" spans="1:75" ht="15.75" customHeight="1">
+    <row r="12" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="18"/>
       <c r="AK12" s="19"/>
     </row>
-    <row r="13" spans="1:75" ht="15.75" customHeight="1">
+    <row r="13" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="20"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
@@ -3604,7 +3601,7 @@
       <c r="AJ13" s="21"/>
       <c r="AK13" s="22"/>
     </row>
-    <row r="14" spans="1:75" ht="15.75" customHeight="1">
+    <row r="14" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="20"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -3641,7 +3638,7 @@
       <c r="AJ14" s="21"/>
       <c r="AK14" s="22"/>
     </row>
-    <row r="15" spans="1:75" ht="15.75" customHeight="1">
+    <row r="15" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="10"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -3678,7 +3675,7 @@
       <c r="AJ15" s="21"/>
       <c r="AK15" s="12"/>
     </row>
-    <row r="16" spans="1:75" ht="15.75" customHeight="1">
+    <row r="16" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="10"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -3715,7 +3712,7 @@
       <c r="AJ16" s="21"/>
       <c r="AK16" s="12"/>
     </row>
-    <row r="17" spans="1:37" ht="16.75" customHeight="1">
+    <row r="17" spans="1:37" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="10"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
@@ -3752,15 +3749,15 @@
       <c r="AJ17" s="21"/>
       <c r="AK17" s="12"/>
     </row>
-    <row r="18" spans="1:37" ht="15.75" customHeight="1">
+    <row r="18" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="10"/>
       <c r="AK18" s="12"/>
     </row>
-    <row r="19" spans="1:37" ht="15.75" customHeight="1">
+    <row r="19" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="10"/>
       <c r="AK19" s="12"/>
     </row>
-    <row r="20" spans="1:37" ht="15.75" customHeight="1">
+    <row r="20" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="10"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
@@ -3797,7 +3794,7 @@
       <c r="AJ20" s="23"/>
       <c r="AK20" s="12"/>
     </row>
-    <row r="21" spans="1:37" ht="16.75" customHeight="1">
+    <row r="21" spans="1:37" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="10"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -3834,15 +3831,15 @@
       <c r="AJ21" s="23"/>
       <c r="AK21" s="12"/>
     </row>
-    <row r="22" spans="1:37" ht="16.75" customHeight="1">
+    <row r="22" spans="1:37" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="10"/>
       <c r="AK22" s="12"/>
     </row>
-    <row r="23" spans="1:37" ht="16.75" customHeight="1">
+    <row r="23" spans="1:37" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="10"/>
       <c r="AK23" s="12"/>
     </row>
-    <row r="24" spans="1:37" ht="16.75" customHeight="1" thickBot="1">
+    <row r="24" spans="1:37" ht="16.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C24" s="10"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
@@ -3879,7 +3876,7 @@
       <c r="AJ24" s="21"/>
       <c r="AK24" s="12"/>
     </row>
-    <row r="25" spans="1:37" ht="15.75" customHeight="1">
+    <row r="25" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="60" t="s">
         <v>8</v>
       </c>
@@ -3920,13 +3917,13 @@
       <c r="AJ25" s="21"/>
       <c r="AK25" s="12"/>
     </row>
-    <row r="26" spans="1:37" ht="15.75" customHeight="1">
+    <row r="26" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="61"/>
       <c r="B26" s="64"/>
       <c r="C26" s="10"/>
       <c r="AK26" s="12"/>
     </row>
-    <row r="27" spans="1:37" ht="15.75" customHeight="1">
+    <row r="27" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="61"/>
       <c r="B27" s="64"/>
       <c r="C27" s="10"/>
@@ -3965,7 +3962,7 @@
       <c r="AJ27" s="23"/>
       <c r="AK27" s="12"/>
     </row>
-    <row r="28" spans="1:37" ht="15.75" customHeight="1">
+    <row r="28" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="61"/>
       <c r="B28" s="64"/>
       <c r="C28" s="10"/>
@@ -4004,25 +4001,25 @@
       <c r="AJ28" s="23"/>
       <c r="AK28" s="12"/>
     </row>
-    <row r="29" spans="1:37" ht="15.75" customHeight="1">
+    <row r="29" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="61"/>
       <c r="B29" s="64"/>
       <c r="C29" s="10"/>
       <c r="AK29" s="12"/>
     </row>
-    <row r="30" spans="1:37" ht="15.75" customHeight="1">
+    <row r="30" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="61"/>
       <c r="B30" s="64"/>
       <c r="C30" s="10"/>
       <c r="AK30" s="12"/>
     </row>
-    <row r="31" spans="1:37" ht="15.75" customHeight="1" thickBot="1">
+    <row r="31" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="62"/>
       <c r="B31" s="65"/>
       <c r="C31" s="10"/>
       <c r="AK31" s="12"/>
     </row>
-    <row r="32" spans="1:37" ht="15.75" customHeight="1">
+    <row r="32" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="60" t="s">
         <v>10</v>
       </c>
@@ -4030,31 +4027,31 @@
       <c r="C32" s="10"/>
       <c r="AK32" s="12"/>
     </row>
-    <row r="33" spans="1:37" ht="15.75" customHeight="1">
+    <row r="33" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="61"/>
       <c r="B33" s="64"/>
       <c r="C33" s="10"/>
       <c r="AK33" s="12"/>
     </row>
-    <row r="34" spans="1:37" ht="15.75" customHeight="1">
+    <row r="34" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="61"/>
       <c r="B34" s="64"/>
       <c r="C34" s="10"/>
       <c r="AK34" s="12"/>
     </row>
-    <row r="35" spans="1:37" ht="15.75" customHeight="1">
+    <row r="35" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="61"/>
       <c r="B35" s="64"/>
       <c r="C35" s="10"/>
       <c r="AK35" s="12"/>
     </row>
-    <row r="36" spans="1:37" ht="15.75" customHeight="1" thickBot="1">
+    <row r="36" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="62"/>
       <c r="B36" s="65"/>
       <c r="C36" s="10"/>
       <c r="AK36" s="12"/>
     </row>
-    <row r="37" spans="1:37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="60" t="s">
         <v>9</v>
       </c>
@@ -4062,13 +4059,13 @@
       <c r="C37" s="10"/>
       <c r="AK37" s="12"/>
     </row>
-    <row r="38" spans="1:37" ht="15.75" customHeight="1">
+    <row r="38" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="61"/>
       <c r="B38" s="64"/>
       <c r="C38" s="10"/>
       <c r="AK38" s="12"/>
     </row>
-    <row r="39" spans="1:37" ht="15.75" customHeight="1">
+    <row r="39" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="61"/>
       <c r="B39" s="64"/>
       <c r="C39" s="10"/>
@@ -4103,7 +4100,7 @@
       <c r="AG39" s="25"/>
       <c r="AK39" s="12"/>
     </row>
-    <row r="40" spans="1:37" ht="15.75" customHeight="1">
+    <row r="40" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="61"/>
       <c r="B40" s="64"/>
       <c r="C40" s="10"/>
@@ -4138,7 +4135,7 @@
       <c r="AG40" s="25"/>
       <c r="AK40" s="12"/>
     </row>
-    <row r="41" spans="1:37" ht="15.75" customHeight="1" thickBot="1">
+    <row r="41" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="62"/>
       <c r="B41" s="65"/>
       <c r="C41" s="7"/>
@@ -4173,7 +4170,7 @@
       <c r="AG41" s="25"/>
       <c r="AK41" s="9"/>
     </row>
-    <row r="42" spans="1:37" ht="15.75" customHeight="1">
+    <row r="42" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="60" t="s">
         <v>8</v>
       </c>
@@ -4210,7 +4207,7 @@
       <c r="AG42" s="25"/>
       <c r="AK42" s="9"/>
     </row>
-    <row r="43" spans="1:37" ht="15.75" customHeight="1">
+    <row r="43" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="61"/>
       <c r="B43" s="64"/>
       <c r="C43" s="10"/>
@@ -4249,7 +4246,7 @@
       <c r="AJ43" s="8"/>
       <c r="AK43" s="9"/>
     </row>
-    <row r="44" spans="1:37" ht="15.75" customHeight="1">
+    <row r="44" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="61"/>
       <c r="B44" s="64"/>
       <c r="C44" s="10"/>
@@ -4288,27 +4285,27 @@
       <c r="AJ44" s="8"/>
       <c r="AK44" s="12"/>
     </row>
-    <row r="45" spans="1:37" ht="15.75" customHeight="1" thickBot="1">
+    <row r="45" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="61"/>
       <c r="B45" s="64"/>
       <c r="AK45" s="24"/>
     </row>
-    <row r="46" spans="1:37" ht="15.75" customHeight="1">
+    <row r="46" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="61"/>
       <c r="B46" s="64"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="84"/>
-      <c r="I46" s="85"/>
-      <c r="J46" s="84"/>
-      <c r="K46" s="83"/>
-      <c r="L46" s="85"/>
-      <c r="M46" s="84"/>
-      <c r="N46" s="83"/>
-      <c r="O46" s="84"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="101"/>
+      <c r="I46" s="102"/>
+      <c r="J46" s="101"/>
+      <c r="K46" s="100"/>
+      <c r="L46" s="102"/>
+      <c r="M46" s="101"/>
+      <c r="N46" s="100"/>
+      <c r="O46" s="101"/>
       <c r="P46" s="105" t="s">
         <v>27</v>
       </c>
@@ -4334,22 +4331,22 @@
       <c r="AJ46" s="106"/>
       <c r="AK46" s="107"/>
     </row>
-    <row r="47" spans="1:37" ht="15.75" customHeight="1" thickBot="1">
+    <row r="47" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="61"/>
       <c r="B47" s="64"/>
-      <c r="C47" s="88"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="88"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="90"/>
-      <c r="J47" s="89"/>
-      <c r="K47" s="88"/>
-      <c r="L47" s="90"/>
-      <c r="M47" s="89"/>
-      <c r="N47" s="88"/>
-      <c r="O47" s="89"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="104"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="98"/>
+      <c r="I47" s="97"/>
+      <c r="J47" s="98"/>
+      <c r="K47" s="96"/>
+      <c r="L47" s="97"/>
+      <c r="M47" s="98"/>
+      <c r="N47" s="96"/>
+      <c r="O47" s="98"/>
       <c r="P47" s="108"/>
       <c r="Q47" s="109"/>
       <c r="R47" s="109"/>
@@ -4373,34 +4370,34 @@
       <c r="AJ47" s="109"/>
       <c r="AK47" s="110"/>
     </row>
-    <row r="48" spans="1:37" ht="15.75" customHeight="1" thickBot="1">
+    <row r="48" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="62"/>
       <c r="B48" s="65"/>
-      <c r="C48" s="81" t="s">
+      <c r="C48" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="82"/>
-      <c r="E48" s="103" t="s">
+      <c r="D48" s="92"/>
+      <c r="E48" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="F48" s="82"/>
-      <c r="G48" s="104" t="s">
+      <c r="F48" s="92"/>
+      <c r="G48" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="H48" s="100"/>
-      <c r="I48" s="99" t="s">
+      <c r="H48" s="94"/>
+      <c r="I48" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="J48" s="100"/>
-      <c r="K48" s="104" t="s">
+      <c r="J48" s="94"/>
+      <c r="K48" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="L48" s="99"/>
-      <c r="M48" s="100"/>
-      <c r="N48" s="104" t="s">
+      <c r="L48" s="95"/>
+      <c r="M48" s="94"/>
+      <c r="N48" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="O48" s="100"/>
+      <c r="O48" s="94"/>
       <c r="P48" s="111"/>
       <c r="Q48" s="112"/>
       <c r="R48" s="112"/>
@@ -4424,26 +4421,26 @@
       <c r="AJ48" s="112"/>
       <c r="AK48" s="113"/>
     </row>
-    <row r="49" spans="1:37" ht="15.75" customHeight="1" thickBot="1">
+    <row r="49" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="60" t="s">
         <v>7</v>
       </c>
       <c r="B49" s="63"/>
-      <c r="C49" s="91" t="s">
+      <c r="C49" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="92"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="93"/>
-      <c r="G49" s="94" t="s">
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="H49" s="94"/>
-      <c r="I49" s="94"/>
-      <c r="J49" s="95"/>
-      <c r="K49" s="96"/>
-      <c r="L49" s="97"/>
-      <c r="M49" s="98"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="85"/>
+      <c r="K49" s="86"/>
+      <c r="L49" s="87"/>
+      <c r="M49" s="88"/>
       <c r="N49" s="142" t="s">
         <v>15</v>
       </c>
@@ -4479,7 +4476,7 @@
       <c r="AJ49" s="137"/>
       <c r="AK49" s="138"/>
     </row>
-    <row r="50" spans="1:37" ht="15.75" customHeight="1">
+    <row r="50" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="61"/>
       <c r="B50" s="64"/>
       <c r="C50" s="120"/>
@@ -4520,7 +4517,7 @@
       <c r="AJ50" s="115"/>
       <c r="AK50" s="116"/>
     </row>
-    <row r="51" spans="1:37" ht="15.75" customHeight="1" thickBot="1">
+    <row r="51" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="61"/>
       <c r="B51" s="64"/>
       <c r="C51" s="120"/>
@@ -4559,7 +4556,7 @@
       <c r="AJ51" s="118"/>
       <c r="AK51" s="119"/>
     </row>
-    <row r="52" spans="1:37" ht="15.75" customHeight="1">
+    <row r="52" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="61"/>
       <c r="B52" s="64"/>
       <c r="C52" s="120" t="s">
@@ -4606,7 +4603,7 @@
       <c r="AJ52" s="129"/>
       <c r="AK52" s="130"/>
     </row>
-    <row r="53" spans="1:37" ht="15.75" customHeight="1" thickBot="1">
+    <row r="53" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="62"/>
       <c r="B53" s="65"/>
       <c r="C53" s="144" t="s">
@@ -4685,6 +4682,10 @@
     <mergeCell ref="N46:O46"/>
     <mergeCell ref="P46:AK48"/>
     <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="B42:B48"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
     <mergeCell ref="C1:AK4"/>
     <mergeCell ref="C5:G7"/>
     <mergeCell ref="AF5:AK7"/>
@@ -4694,13 +4695,6 @@
     <mergeCell ref="N48:O48"/>
     <mergeCell ref="K47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="B42:B48"/>
     <mergeCell ref="I48:J48"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C46:D46"/>
@@ -4708,8 +4702,11 @@
     <mergeCell ref="G46:H46"/>
     <mergeCell ref="I46:J46"/>
     <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="K49:M49"/>
     <mergeCell ref="H5:AE7"/>
     <mergeCell ref="A25:A31"/>
     <mergeCell ref="B25:B31"/>
@@ -4727,63 +4724,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95880E5D-F500-3242-A423-888689946DB1}">
   <dimension ref="A1:BW53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:AK4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="2.5" style="6" customWidth="1"/>
-    <col min="5" max="6" width="2.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="2.42578125" style="6" customWidth="1"/>
+    <col min="5" max="6" width="2.7109375" style="6" customWidth="1"/>
     <col min="7" max="9" width="3" style="6" customWidth="1"/>
-    <col min="10" max="36" width="2.6640625" style="6" customWidth="1"/>
-    <col min="37" max="37" width="2.5" style="6" customWidth="1"/>
-    <col min="38" max="75" width="2.6640625" style="6" customWidth="1"/>
-    <col min="76" max="16384" width="8.83203125" style="5"/>
+    <col min="10" max="36" width="2.7109375" style="6" customWidth="1"/>
+    <col min="37" max="37" width="2.42578125" style="6" customWidth="1"/>
+    <col min="38" max="75" width="2.7109375" style="6" customWidth="1"/>
+    <col min="76" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="15.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="169" t="s">
+      <c r="C1" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="169"/>
-      <c r="R1" s="169"/>
-      <c r="S1" s="169"/>
-      <c r="T1" s="169"/>
-      <c r="U1" s="169"/>
-      <c r="V1" s="169"/>
-      <c r="W1" s="169"/>
-      <c r="X1" s="169"/>
-      <c r="Y1" s="169"/>
-      <c r="Z1" s="169"/>
-      <c r="AA1" s="169"/>
-      <c r="AB1" s="169"/>
-      <c r="AC1" s="169"/>
-      <c r="AD1" s="169"/>
-      <c r="AE1" s="169"/>
-      <c r="AF1" s="169"/>
-      <c r="AG1" s="169"/>
-      <c r="AH1" s="169"/>
-      <c r="AI1" s="169"/>
-      <c r="AJ1" s="169"/>
-      <c r="AK1" s="169"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="89"/>
+      <c r="AG1" s="89"/>
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="89"/>
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="89"/>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
@@ -4823,386 +4820,386 @@
       <c r="BV1" s="1"/>
       <c r="BW1" s="1"/>
     </row>
-    <row r="2" spans="1:75" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="169"/>
-      <c r="O2" s="169"/>
-      <c r="P2" s="169"/>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="169"/>
-      <c r="S2" s="169"/>
-      <c r="T2" s="169"/>
-      <c r="U2" s="169"/>
-      <c r="V2" s="169"/>
-      <c r="W2" s="169"/>
-      <c r="X2" s="169"/>
-      <c r="Y2" s="169"/>
-      <c r="Z2" s="169"/>
-      <c r="AA2" s="169"/>
-      <c r="AB2" s="169"/>
-      <c r="AC2" s="169"/>
-      <c r="AD2" s="169"/>
-      <c r="AE2" s="169"/>
-      <c r="AF2" s="169"/>
-      <c r="AG2" s="169"/>
-      <c r="AH2" s="169"/>
-      <c r="AI2" s="169"/>
-      <c r="AJ2" s="169"/>
-      <c r="AK2" s="169"/>
-    </row>
-    <row r="3" spans="1:75" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
-      <c r="L3" s="169"/>
-      <c r="M3" s="169"/>
-      <c r="N3" s="169"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="169"/>
-      <c r="S3" s="169"/>
-      <c r="T3" s="169"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="169"/>
-      <c r="W3" s="169"/>
-      <c r="X3" s="169"/>
-      <c r="Y3" s="169"/>
-      <c r="Z3" s="169"/>
-      <c r="AA3" s="169"/>
-      <c r="AB3" s="169"/>
-      <c r="AC3" s="169"/>
-      <c r="AD3" s="169"/>
-      <c r="AE3" s="169"/>
-      <c r="AF3" s="169"/>
-      <c r="AG3" s="169"/>
-      <c r="AH3" s="169"/>
-      <c r="AI3" s="169"/>
-      <c r="AJ3" s="169"/>
-      <c r="AK3" s="169"/>
-    </row>
-    <row r="4" spans="1:75" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C4" s="169"/>
-      <c r="D4" s="169"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="169"/>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169"/>
-      <c r="L4" s="169"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="169"/>
-      <c r="O4" s="169"/>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="169"/>
-      <c r="R4" s="169"/>
-      <c r="S4" s="169"/>
-      <c r="T4" s="169"/>
-      <c r="U4" s="169"/>
-      <c r="V4" s="169"/>
-      <c r="W4" s="169"/>
-      <c r="X4" s="169"/>
-      <c r="Y4" s="169"/>
-      <c r="Z4" s="169"/>
-      <c r="AA4" s="169"/>
-      <c r="AB4" s="169"/>
-      <c r="AC4" s="169"/>
-      <c r="AD4" s="169"/>
-      <c r="AE4" s="169"/>
-      <c r="AF4" s="169"/>
-      <c r="AG4" s="169"/>
-      <c r="AH4" s="169"/>
-      <c r="AI4" s="169"/>
-      <c r="AJ4" s="169"/>
-      <c r="AK4" s="169"/>
-    </row>
-    <row r="5" spans="1:75" ht="15.75" customHeight="1">
+    <row r="2" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="89"/>
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="89"/>
+      <c r="AE2" s="89"/>
+      <c r="AF2" s="89"/>
+      <c r="AG2" s="89"/>
+      <c r="AH2" s="89"/>
+      <c r="AI2" s="89"/>
+      <c r="AJ2" s="89"/>
+      <c r="AK2" s="89"/>
+    </row>
+    <row r="3" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="89"/>
+      <c r="AD3" s="89"/>
+      <c r="AE3" s="89"/>
+      <c r="AF3" s="89"/>
+      <c r="AG3" s="89"/>
+      <c r="AH3" s="89"/>
+      <c r="AI3" s="89"/>
+      <c r="AJ3" s="89"/>
+      <c r="AK3" s="89"/>
+    </row>
+    <row r="4" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="89"/>
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="89"/>
+    </row>
+    <row r="5" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="10"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="AK5" s="12"/>
       <c r="AQ5" s="5"/>
     </row>
-    <row r="6" spans="1:75" ht="15.75" customHeight="1">
+    <row r="6" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="13"/>
-      <c r="D6" s="170" t="s">
+      <c r="D6" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="170"/>
-      <c r="K6" s="170"/>
-      <c r="L6" s="170"/>
-      <c r="M6" s="170"/>
-      <c r="N6" s="170"/>
-      <c r="O6" s="170"/>
-      <c r="P6" s="170"/>
-      <c r="Q6" s="170"/>
-      <c r="R6" s="170"/>
-      <c r="S6" s="170"/>
-      <c r="T6" s="170"/>
-      <c r="U6" s="170"/>
-      <c r="V6" s="170"/>
-      <c r="W6" s="170"/>
-      <c r="X6" s="170"/>
-      <c r="Y6" s="170"/>
-      <c r="Z6" s="170"/>
-      <c r="AA6" s="170"/>
-      <c r="AB6" s="170"/>
-      <c r="AC6" s="170"/>
-      <c r="AD6" s="170"/>
-      <c r="AE6" s="170"/>
-      <c r="AF6" s="170"/>
-      <c r="AG6" s="170"/>
-      <c r="AH6" s="170"/>
-      <c r="AI6" s="170"/>
-      <c r="AJ6" s="170"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="169"/>
+      <c r="K6" s="169"/>
+      <c r="L6" s="169"/>
+      <c r="M6" s="169"/>
+      <c r="N6" s="169"/>
+      <c r="O6" s="169"/>
+      <c r="P6" s="169"/>
+      <c r="Q6" s="169"/>
+      <c r="R6" s="169"/>
+      <c r="S6" s="169"/>
+      <c r="T6" s="169"/>
+      <c r="U6" s="169"/>
+      <c r="V6" s="169"/>
+      <c r="W6" s="169"/>
+      <c r="X6" s="169"/>
+      <c r="Y6" s="169"/>
+      <c r="Z6" s="169"/>
+      <c r="AA6" s="169"/>
+      <c r="AB6" s="169"/>
+      <c r="AC6" s="169"/>
+      <c r="AD6" s="169"/>
+      <c r="AE6" s="169"/>
+      <c r="AF6" s="169"/>
+      <c r="AG6" s="169"/>
+      <c r="AH6" s="169"/>
+      <c r="AI6" s="169"/>
+      <c r="AJ6" s="169"/>
       <c r="AK6" s="15"/>
     </row>
-    <row r="7" spans="1:75" ht="15.75" customHeight="1">
+    <row r="7" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="16"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="170"/>
-      <c r="M7" s="170"/>
-      <c r="N7" s="170"/>
-      <c r="O7" s="170"/>
-      <c r="P7" s="170"/>
-      <c r="Q7" s="170"/>
-      <c r="R7" s="170"/>
-      <c r="S7" s="170"/>
-      <c r="T7" s="170"/>
-      <c r="U7" s="170"/>
-      <c r="V7" s="170"/>
-      <c r="W7" s="170"/>
-      <c r="X7" s="170"/>
-      <c r="Y7" s="170"/>
-      <c r="Z7" s="170"/>
-      <c r="AA7" s="170"/>
-      <c r="AB7" s="170"/>
-      <c r="AC7" s="170"/>
-      <c r="AD7" s="170"/>
-      <c r="AE7" s="170"/>
-      <c r="AF7" s="170"/>
-      <c r="AG7" s="170"/>
-      <c r="AH7" s="170"/>
-      <c r="AI7" s="170"/>
-      <c r="AJ7" s="170"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="169"/>
+      <c r="K7" s="169"/>
+      <c r="L7" s="169"/>
+      <c r="M7" s="169"/>
+      <c r="N7" s="169"/>
+      <c r="O7" s="169"/>
+      <c r="P7" s="169"/>
+      <c r="Q7" s="169"/>
+      <c r="R7" s="169"/>
+      <c r="S7" s="169"/>
+      <c r="T7" s="169"/>
+      <c r="U7" s="169"/>
+      <c r="V7" s="169"/>
+      <c r="W7" s="169"/>
+      <c r="X7" s="169"/>
+      <c r="Y7" s="169"/>
+      <c r="Z7" s="169"/>
+      <c r="AA7" s="169"/>
+      <c r="AB7" s="169"/>
+      <c r="AC7" s="169"/>
+      <c r="AD7" s="169"/>
+      <c r="AE7" s="169"/>
+      <c r="AF7" s="169"/>
+      <c r="AG7" s="169"/>
+      <c r="AH7" s="169"/>
+      <c r="AI7" s="169"/>
+      <c r="AJ7" s="169"/>
       <c r="AK7" s="15"/>
     </row>
-    <row r="8" spans="1:75" ht="15.75" customHeight="1">
+    <row r="8" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="10"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="170"/>
-      <c r="K8" s="170"/>
-      <c r="L8" s="170"/>
-      <c r="M8" s="170"/>
-      <c r="N8" s="170"/>
-      <c r="O8" s="170"/>
-      <c r="P8" s="170"/>
-      <c r="Q8" s="170"/>
-      <c r="R8" s="170"/>
-      <c r="S8" s="170"/>
-      <c r="T8" s="170"/>
-      <c r="U8" s="170"/>
-      <c r="V8" s="170"/>
-      <c r="W8" s="170"/>
-      <c r="X8" s="170"/>
-      <c r="Y8" s="170"/>
-      <c r="Z8" s="170"/>
-      <c r="AA8" s="170"/>
-      <c r="AB8" s="170"/>
-      <c r="AC8" s="170"/>
-      <c r="AD8" s="170"/>
-      <c r="AE8" s="170"/>
-      <c r="AF8" s="170"/>
-      <c r="AG8" s="170"/>
-      <c r="AH8" s="170"/>
-      <c r="AI8" s="170"/>
-      <c r="AJ8" s="170"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="169"/>
+      <c r="K8" s="169"/>
+      <c r="L8" s="169"/>
+      <c r="M8" s="169"/>
+      <c r="N8" s="169"/>
+      <c r="O8" s="169"/>
+      <c r="P8" s="169"/>
+      <c r="Q8" s="169"/>
+      <c r="R8" s="169"/>
+      <c r="S8" s="169"/>
+      <c r="T8" s="169"/>
+      <c r="U8" s="169"/>
+      <c r="V8" s="169"/>
+      <c r="W8" s="169"/>
+      <c r="X8" s="169"/>
+      <c r="Y8" s="169"/>
+      <c r="Z8" s="169"/>
+      <c r="AA8" s="169"/>
+      <c r="AB8" s="169"/>
+      <c r="AC8" s="169"/>
+      <c r="AD8" s="169"/>
+      <c r="AE8" s="169"/>
+      <c r="AF8" s="169"/>
+      <c r="AG8" s="169"/>
+      <c r="AH8" s="169"/>
+      <c r="AI8" s="169"/>
+      <c r="AJ8" s="169"/>
       <c r="AK8" s="12"/>
     </row>
-    <row r="9" spans="1:75" ht="15.75" customHeight="1">
+    <row r="9" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="10"/>
-      <c r="D9" s="170"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="170"/>
-      <c r="K9" s="170"/>
-      <c r="L9" s="170"/>
-      <c r="M9" s="170"/>
-      <c r="N9" s="170"/>
-      <c r="O9" s="170"/>
-      <c r="P9" s="170"/>
-      <c r="Q9" s="170"/>
-      <c r="R9" s="170"/>
-      <c r="S9" s="170"/>
-      <c r="T9" s="170"/>
-      <c r="U9" s="170"/>
-      <c r="V9" s="170"/>
-      <c r="W9" s="170"/>
-      <c r="X9" s="170"/>
-      <c r="Y9" s="170"/>
-      <c r="Z9" s="170"/>
-      <c r="AA9" s="170"/>
-      <c r="AB9" s="170"/>
-      <c r="AC9" s="170"/>
-      <c r="AD9" s="170"/>
-      <c r="AE9" s="170"/>
-      <c r="AF9" s="170"/>
-      <c r="AG9" s="170"/>
-      <c r="AH9" s="170"/>
-      <c r="AI9" s="170"/>
-      <c r="AJ9" s="170"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="169"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="169"/>
+      <c r="L9" s="169"/>
+      <c r="M9" s="169"/>
+      <c r="N9" s="169"/>
+      <c r="O9" s="169"/>
+      <c r="P9" s="169"/>
+      <c r="Q9" s="169"/>
+      <c r="R9" s="169"/>
+      <c r="S9" s="169"/>
+      <c r="T9" s="169"/>
+      <c r="U9" s="169"/>
+      <c r="V9" s="169"/>
+      <c r="W9" s="169"/>
+      <c r="X9" s="169"/>
+      <c r="Y9" s="169"/>
+      <c r="Z9" s="169"/>
+      <c r="AA9" s="169"/>
+      <c r="AB9" s="169"/>
+      <c r="AC9" s="169"/>
+      <c r="AD9" s="169"/>
+      <c r="AE9" s="169"/>
+      <c r="AF9" s="169"/>
+      <c r="AG9" s="169"/>
+      <c r="AH9" s="169"/>
+      <c r="AI9" s="169"/>
+      <c r="AJ9" s="169"/>
       <c r="AK9" s="12"/>
     </row>
-    <row r="10" spans="1:75" ht="15.75" customHeight="1">
+    <row r="10" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="18"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="170"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="170"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="170"/>
-      <c r="K10" s="170"/>
-      <c r="L10" s="170"/>
-      <c r="M10" s="170"/>
-      <c r="N10" s="170"/>
-      <c r="O10" s="170"/>
-      <c r="P10" s="170"/>
-      <c r="Q10" s="170"/>
-      <c r="R10" s="170"/>
-      <c r="S10" s="170"/>
-      <c r="T10" s="170"/>
-      <c r="U10" s="170"/>
-      <c r="V10" s="170"/>
-      <c r="W10" s="170"/>
-      <c r="X10" s="170"/>
-      <c r="Y10" s="170"/>
-      <c r="Z10" s="170"/>
-      <c r="AA10" s="170"/>
-      <c r="AB10" s="170"/>
-      <c r="AC10" s="170"/>
-      <c r="AD10" s="170"/>
-      <c r="AE10" s="170"/>
-      <c r="AF10" s="170"/>
-      <c r="AG10" s="170"/>
-      <c r="AH10" s="170"/>
-      <c r="AI10" s="170"/>
-      <c r="AJ10" s="170"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="169"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="169"/>
+      <c r="K10" s="169"/>
+      <c r="L10" s="169"/>
+      <c r="M10" s="169"/>
+      <c r="N10" s="169"/>
+      <c r="O10" s="169"/>
+      <c r="P10" s="169"/>
+      <c r="Q10" s="169"/>
+      <c r="R10" s="169"/>
+      <c r="S10" s="169"/>
+      <c r="T10" s="169"/>
+      <c r="U10" s="169"/>
+      <c r="V10" s="169"/>
+      <c r="W10" s="169"/>
+      <c r="X10" s="169"/>
+      <c r="Y10" s="169"/>
+      <c r="Z10" s="169"/>
+      <c r="AA10" s="169"/>
+      <c r="AB10" s="169"/>
+      <c r="AC10" s="169"/>
+      <c r="AD10" s="169"/>
+      <c r="AE10" s="169"/>
+      <c r="AF10" s="169"/>
+      <c r="AG10" s="169"/>
+      <c r="AH10" s="169"/>
+      <c r="AI10" s="169"/>
+      <c r="AJ10" s="169"/>
       <c r="AK10" s="19"/>
     </row>
-    <row r="11" spans="1:75" ht="15.75" customHeight="1">
+    <row r="11" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="18"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="170"/>
-      <c r="K11" s="170"/>
-      <c r="L11" s="170"/>
-      <c r="M11" s="170"/>
-      <c r="N11" s="170"/>
-      <c r="O11" s="170"/>
-      <c r="P11" s="170"/>
-      <c r="Q11" s="170"/>
-      <c r="R11" s="170"/>
-      <c r="S11" s="170"/>
-      <c r="T11" s="170"/>
-      <c r="U11" s="170"/>
-      <c r="V11" s="170"/>
-      <c r="W11" s="170"/>
-      <c r="X11" s="170"/>
-      <c r="Y11" s="170"/>
-      <c r="Z11" s="170"/>
-      <c r="AA11" s="170"/>
-      <c r="AB11" s="170"/>
-      <c r="AC11" s="170"/>
-      <c r="AD11" s="170"/>
-      <c r="AE11" s="170"/>
-      <c r="AF11" s="170"/>
-      <c r="AG11" s="170"/>
-      <c r="AH11" s="170"/>
-      <c r="AI11" s="170"/>
-      <c r="AJ11" s="170"/>
+      <c r="D11" s="169"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="169"/>
+      <c r="L11" s="169"/>
+      <c r="M11" s="169"/>
+      <c r="N11" s="169"/>
+      <c r="O11" s="169"/>
+      <c r="P11" s="169"/>
+      <c r="Q11" s="169"/>
+      <c r="R11" s="169"/>
+      <c r="S11" s="169"/>
+      <c r="T11" s="169"/>
+      <c r="U11" s="169"/>
+      <c r="V11" s="169"/>
+      <c r="W11" s="169"/>
+      <c r="X11" s="169"/>
+      <c r="Y11" s="169"/>
+      <c r="Z11" s="169"/>
+      <c r="AA11" s="169"/>
+      <c r="AB11" s="169"/>
+      <c r="AC11" s="169"/>
+      <c r="AD11" s="169"/>
+      <c r="AE11" s="169"/>
+      <c r="AF11" s="169"/>
+      <c r="AG11" s="169"/>
+      <c r="AH11" s="169"/>
+      <c r="AI11" s="169"/>
+      <c r="AJ11" s="169"/>
       <c r="AK11" s="19"/>
     </row>
-    <row r="12" spans="1:75" ht="15.75" customHeight="1">
+    <row r="12" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="18"/>
-      <c r="D12" s="170"/>
-      <c r="E12" s="170"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="170"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="170"/>
-      <c r="K12" s="170"/>
-      <c r="L12" s="170"/>
-      <c r="M12" s="170"/>
-      <c r="N12" s="170"/>
-      <c r="O12" s="170"/>
-      <c r="P12" s="170"/>
-      <c r="Q12" s="170"/>
-      <c r="R12" s="170"/>
-      <c r="S12" s="170"/>
-      <c r="T12" s="170"/>
-      <c r="U12" s="170"/>
-      <c r="V12" s="170"/>
-      <c r="W12" s="170"/>
-      <c r="X12" s="170"/>
-      <c r="Y12" s="170"/>
-      <c r="Z12" s="170"/>
-      <c r="AA12" s="170"/>
-      <c r="AB12" s="170"/>
-      <c r="AC12" s="170"/>
-      <c r="AD12" s="170"/>
-      <c r="AE12" s="170"/>
-      <c r="AF12" s="170"/>
-      <c r="AG12" s="170"/>
-      <c r="AH12" s="170"/>
-      <c r="AI12" s="170"/>
-      <c r="AJ12" s="170"/>
+      <c r="D12" s="169"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="169"/>
+      <c r="G12" s="169"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="169"/>
+      <c r="K12" s="169"/>
+      <c r="L12" s="169"/>
+      <c r="M12" s="169"/>
+      <c r="N12" s="169"/>
+      <c r="O12" s="169"/>
+      <c r="P12" s="169"/>
+      <c r="Q12" s="169"/>
+      <c r="R12" s="169"/>
+      <c r="S12" s="169"/>
+      <c r="T12" s="169"/>
+      <c r="U12" s="169"/>
+      <c r="V12" s="169"/>
+      <c r="W12" s="169"/>
+      <c r="X12" s="169"/>
+      <c r="Y12" s="169"/>
+      <c r="Z12" s="169"/>
+      <c r="AA12" s="169"/>
+      <c r="AB12" s="169"/>
+      <c r="AC12" s="169"/>
+      <c r="AD12" s="169"/>
+      <c r="AE12" s="169"/>
+      <c r="AF12" s="169"/>
+      <c r="AG12" s="169"/>
+      <c r="AH12" s="169"/>
+      <c r="AI12" s="169"/>
+      <c r="AJ12" s="169"/>
       <c r="AK12" s="19"/>
     </row>
-    <row r="13" spans="1:75" ht="15.75" customHeight="1">
+    <row r="13" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="20"/>
       <c r="D13" s="46"/>
       <c r="E13" s="46"/>
@@ -5239,7 +5236,7 @@
       <c r="AJ13" s="46"/>
       <c r="AK13" s="22"/>
     </row>
-    <row r="14" spans="1:75" ht="15.75" customHeight="1">
+    <row r="14" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="20"/>
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
@@ -5276,7 +5273,7 @@
       <c r="AJ14" s="46"/>
       <c r="AK14" s="22"/>
     </row>
-    <row r="15" spans="1:75" ht="15.75" customHeight="1">
+    <row r="15" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="10"/>
       <c r="D15" s="46"/>
       <c r="E15" s="46"/>
@@ -5313,7 +5310,7 @@
       <c r="AJ15" s="46"/>
       <c r="AK15" s="12"/>
     </row>
-    <row r="16" spans="1:75" ht="15.75" customHeight="1">
+    <row r="16" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="10"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -5350,7 +5347,7 @@
       <c r="AJ16" s="21"/>
       <c r="AK16" s="12"/>
     </row>
-    <row r="17" spans="1:37" s="6" customFormat="1" ht="16.75" customHeight="1">
+    <row r="17" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="10"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
@@ -5387,7 +5384,7 @@
       <c r="AJ17" s="21"/>
       <c r="AK17" s="12"/>
     </row>
-    <row r="18" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="18" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="10"/>
       <c r="D18" s="75" t="s">
         <v>35</v>
@@ -5428,11 +5425,11 @@
       <c r="AJ18" s="76"/>
       <c r="AK18" s="12"/>
     </row>
-    <row r="19" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="10"/>
       <c r="AK19" s="12"/>
     </row>
-    <row r="20" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="20" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="10"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
@@ -5469,7 +5466,7 @@
       <c r="AJ20" s="23"/>
       <c r="AK20" s="12"/>
     </row>
-    <row r="21" spans="1:37" s="6" customFormat="1" ht="16.75" customHeight="1">
+    <row r="21" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="10"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -5506,15 +5503,15 @@
       <c r="AJ21" s="23"/>
       <c r="AK21" s="12"/>
     </row>
-    <row r="22" spans="1:37" s="6" customFormat="1" ht="16.75" customHeight="1">
+    <row r="22" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="10"/>
       <c r="AK22" s="12"/>
     </row>
-    <row r="23" spans="1:37" s="6" customFormat="1" ht="16.75" customHeight="1">
+    <row r="23" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="10"/>
       <c r="AK23" s="12"/>
     </row>
-    <row r="24" spans="1:37" s="6" customFormat="1" ht="16.75" customHeight="1" thickBot="1">
+    <row r="24" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C24" s="10"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
@@ -5551,7 +5548,7 @@
       <c r="AJ24" s="21"/>
       <c r="AK24" s="12"/>
     </row>
-    <row r="25" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="25" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="60" t="s">
         <v>8</v>
       </c>
@@ -5592,13 +5589,13 @@
       <c r="AJ25" s="21"/>
       <c r="AK25" s="12"/>
     </row>
-    <row r="26" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="26" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="61"/>
       <c r="B26" s="64"/>
       <c r="C26" s="10"/>
       <c r="AK26" s="12"/>
     </row>
-    <row r="27" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="27" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="61"/>
       <c r="B27" s="64"/>
       <c r="C27" s="10"/>
@@ -5637,7 +5634,7 @@
       <c r="AJ27" s="23"/>
       <c r="AK27" s="12"/>
     </row>
-    <row r="28" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="28" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="61"/>
       <c r="B28" s="64"/>
       <c r="C28" s="10"/>
@@ -5676,25 +5673,25 @@
       <c r="AJ28" s="23"/>
       <c r="AK28" s="12"/>
     </row>
-    <row r="29" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="29" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="61"/>
       <c r="B29" s="64"/>
       <c r="C29" s="10"/>
       <c r="AK29" s="12"/>
     </row>
-    <row r="30" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="30" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="61"/>
       <c r="B30" s="64"/>
       <c r="C30" s="10"/>
       <c r="AK30" s="12"/>
     </row>
-    <row r="31" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="31" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="62"/>
       <c r="B31" s="65"/>
       <c r="C31" s="10"/>
       <c r="AK31" s="12"/>
     </row>
-    <row r="32" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="32" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="60" t="s">
         <v>10</v>
       </c>
@@ -5702,31 +5699,31 @@
       <c r="C32" s="10"/>
       <c r="AK32" s="12"/>
     </row>
-    <row r="33" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="33" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="61"/>
       <c r="B33" s="64"/>
       <c r="C33" s="10"/>
       <c r="AK33" s="12"/>
     </row>
-    <row r="34" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="34" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="61"/>
       <c r="B34" s="64"/>
       <c r="C34" s="10"/>
       <c r="AK34" s="12"/>
     </row>
-    <row r="35" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="35" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="61"/>
       <c r="B35" s="64"/>
       <c r="C35" s="10"/>
       <c r="AK35" s="12"/>
     </row>
-    <row r="36" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="36" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="62"/>
       <c r="B36" s="65"/>
       <c r="C36" s="10"/>
       <c r="AK36" s="12"/>
     </row>
-    <row r="37" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="37" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="60" t="s">
         <v>9</v>
       </c>
@@ -5734,31 +5731,31 @@
       <c r="C37" s="10"/>
       <c r="AK37" s="12"/>
     </row>
-    <row r="38" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="38" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="61"/>
       <c r="B38" s="64"/>
       <c r="C38" s="10"/>
       <c r="AK38" s="12"/>
     </row>
-    <row r="39" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="39" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="61"/>
       <c r="B39" s="64"/>
       <c r="C39" s="10"/>
       <c r="AK39" s="12"/>
     </row>
-    <row r="40" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="40" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="61"/>
       <c r="B40" s="64"/>
       <c r="C40" s="10"/>
       <c r="AK40" s="12"/>
     </row>
-    <row r="41" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="41" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="62"/>
       <c r="B41" s="65"/>
       <c r="C41" s="7"/>
       <c r="AK41" s="9"/>
     </row>
-    <row r="42" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="42" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="60" t="s">
         <v>8</v>
       </c>
@@ -5766,7 +5763,7 @@
       <c r="C42" s="7"/>
       <c r="AK42" s="9"/>
     </row>
-    <row r="43" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="43" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="61"/>
       <c r="B43" s="64"/>
       <c r="C43" s="10"/>
@@ -5805,7 +5802,7 @@
       <c r="AJ43" s="8"/>
       <c r="AK43" s="9"/>
     </row>
-    <row r="44" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="44" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="61"/>
       <c r="B44" s="64"/>
       <c r="C44" s="10"/>
@@ -5844,12 +5841,12 @@
       <c r="AJ44" s="8"/>
       <c r="AK44" s="12"/>
     </row>
-    <row r="45" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="45" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="61"/>
       <c r="B45" s="64"/>
       <c r="AK45" s="12"/>
     </row>
-    <row r="46" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="46" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="61"/>
       <c r="B46" s="67"/>
       <c r="C46" s="10"/>
@@ -5876,7 +5873,7 @@
       <c r="AJ46" s="26"/>
       <c r="AK46" s="27"/>
     </row>
-    <row r="47" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="47" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="61"/>
       <c r="B47" s="67"/>
       <c r="C47" s="28"/>
@@ -5913,7 +5910,7 @@
       <c r="AJ47" s="26"/>
       <c r="AK47" s="27"/>
     </row>
-    <row r="48" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="48" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="62"/>
       <c r="B48" s="68"/>
       <c r="C48" s="10"/>
@@ -5940,7 +5937,7 @@
       <c r="AJ48" s="26"/>
       <c r="AK48" s="27"/>
     </row>
-    <row r="49" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="49" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="60" t="s">
         <v>7</v>
       </c>
@@ -5981,7 +5978,7 @@
       <c r="AJ49" s="14"/>
       <c r="AK49" s="15"/>
     </row>
-    <row r="50" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="50" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="61"/>
       <c r="B50" s="67"/>
       <c r="C50" s="30"/>
@@ -6020,7 +6017,7 @@
       <c r="AJ50" s="33"/>
       <c r="AK50" s="34"/>
     </row>
-    <row r="51" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="51" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="61"/>
       <c r="B51" s="64"/>
       <c r="C51" s="164"/>
@@ -6063,22 +6060,22 @@
       <c r="AJ51" s="118"/>
       <c r="AK51" s="119"/>
     </row>
-    <row r="52" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="52" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="61"/>
       <c r="B52" s="64"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="87"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="87"/>
+      <c r="C52" s="103"/>
+      <c r="D52" s="104"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="104"/>
       <c r="G52" s="165"/>
       <c r="H52" s="166"/>
       <c r="I52" s="167"/>
       <c r="J52" s="166"/>
-      <c r="K52" s="86"/>
+      <c r="K52" s="103"/>
       <c r="L52" s="168"/>
-      <c r="M52" s="87"/>
-      <c r="N52" s="86"/>
-      <c r="O52" s="87"/>
+      <c r="M52" s="104"/>
+      <c r="N52" s="103"/>
+      <c r="O52" s="104"/>
       <c r="P52" s="108"/>
       <c r="Q52" s="109"/>
       <c r="R52" s="109"/>
@@ -6102,34 +6099,34 @@
       <c r="AJ52" s="129"/>
       <c r="AK52" s="130"/>
     </row>
-    <row r="53" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="53" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="62"/>
       <c r="B53" s="65"/>
-      <c r="C53" s="81" t="s">
+      <c r="C53" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="82"/>
-      <c r="E53" s="103" t="s">
+      <c r="D53" s="92"/>
+      <c r="E53" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="F53" s="82"/>
-      <c r="G53" s="104" t="s">
+      <c r="F53" s="92"/>
+      <c r="G53" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="H53" s="100"/>
-      <c r="I53" s="99" t="s">
+      <c r="H53" s="94"/>
+      <c r="I53" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="J53" s="100"/>
-      <c r="K53" s="104" t="s">
+      <c r="J53" s="94"/>
+      <c r="K53" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="L53" s="99"/>
-      <c r="M53" s="100"/>
-      <c r="N53" s="104" t="s">
+      <c r="L53" s="95"/>
+      <c r="M53" s="94"/>
+      <c r="N53" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="O53" s="100"/>
+      <c r="O53" s="94"/>
       <c r="P53" s="111"/>
       <c r="Q53" s="112"/>
       <c r="R53" s="112"/>
@@ -6201,63 +6198,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D758D86-AB4A-FB4A-A1FC-103FB99D7EFC}">
   <dimension ref="A1:BW53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10:AK12"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="AP15" sqref="AP15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="2.5" style="6" customWidth="1"/>
-    <col min="5" max="6" width="2.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="2.42578125" style="6" customWidth="1"/>
+    <col min="5" max="6" width="2.7109375" style="6" customWidth="1"/>
     <col min="7" max="9" width="3" style="6" customWidth="1"/>
-    <col min="10" max="36" width="2.6640625" style="6" customWidth="1"/>
-    <col min="37" max="37" width="2.5" style="6" customWidth="1"/>
-    <col min="38" max="75" width="2.6640625" style="6" customWidth="1"/>
-    <col min="76" max="16384" width="8.83203125" style="5"/>
+    <col min="10" max="36" width="2.7109375" style="6" customWidth="1"/>
+    <col min="37" max="37" width="2.42578125" style="6" customWidth="1"/>
+    <col min="38" max="75" width="2.7109375" style="6" customWidth="1"/>
+    <col min="76" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="15.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="198" t="s">
+      <c r="C1" s="197" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="198"/>
-      <c r="S1" s="198"/>
-      <c r="T1" s="198"/>
-      <c r="U1" s="198"/>
-      <c r="V1" s="198"/>
-      <c r="W1" s="198"/>
-      <c r="X1" s="198"/>
-      <c r="Y1" s="198"/>
-      <c r="Z1" s="198"/>
-      <c r="AA1" s="198"/>
-      <c r="AB1" s="198"/>
-      <c r="AC1" s="198"/>
-      <c r="AD1" s="198"/>
-      <c r="AE1" s="198"/>
-      <c r="AF1" s="198"/>
-      <c r="AG1" s="198"/>
-      <c r="AH1" s="198"/>
-      <c r="AI1" s="198"/>
-      <c r="AJ1" s="198"/>
-      <c r="AK1" s="198"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="197"/>
+      <c r="R1" s="197"/>
+      <c r="S1" s="197"/>
+      <c r="T1" s="197"/>
+      <c r="U1" s="197"/>
+      <c r="V1" s="197"/>
+      <c r="W1" s="197"/>
+      <c r="X1" s="197"/>
+      <c r="Y1" s="197"/>
+      <c r="Z1" s="197"/>
+      <c r="AA1" s="197"/>
+      <c r="AB1" s="197"/>
+      <c r="AC1" s="197"/>
+      <c r="AD1" s="197"/>
+      <c r="AE1" s="197"/>
+      <c r="AF1" s="197"/>
+      <c r="AG1" s="197"/>
+      <c r="AH1" s="197"/>
+      <c r="AI1" s="197"/>
+      <c r="AJ1" s="197"/>
+      <c r="AK1" s="197"/>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
@@ -6297,1798 +6294,1798 @@
       <c r="BV1" s="1"/>
       <c r="BW1" s="1"/>
     </row>
-    <row r="2" spans="1:75" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
-      <c r="G2" s="198"/>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="198"/>
-      <c r="K2" s="198"/>
-      <c r="L2" s="198"/>
-      <c r="M2" s="198"/>
-      <c r="N2" s="198"/>
-      <c r="O2" s="198"/>
-      <c r="P2" s="198"/>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="198"/>
-      <c r="S2" s="198"/>
-      <c r="T2" s="198"/>
-      <c r="U2" s="198"/>
-      <c r="V2" s="198"/>
-      <c r="W2" s="198"/>
-      <c r="X2" s="198"/>
-      <c r="Y2" s="198"/>
-      <c r="Z2" s="198"/>
-      <c r="AA2" s="198"/>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="198"/>
-      <c r="AD2" s="198"/>
-      <c r="AE2" s="198"/>
-      <c r="AF2" s="198"/>
-      <c r="AG2" s="198"/>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="198"/>
-      <c r="AJ2" s="198"/>
-      <c r="AK2" s="198"/>
-    </row>
-    <row r="3" spans="1:75" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="198"/>
-      <c r="G3" s="198"/>
-      <c r="H3" s="198"/>
-      <c r="I3" s="198"/>
-      <c r="J3" s="198"/>
-      <c r="K3" s="198"/>
-      <c r="L3" s="198"/>
-      <c r="M3" s="198"/>
-      <c r="N3" s="198"/>
-      <c r="O3" s="198"/>
-      <c r="P3" s="198"/>
-      <c r="Q3" s="198"/>
-      <c r="R3" s="198"/>
-      <c r="S3" s="198"/>
-      <c r="T3" s="198"/>
-      <c r="U3" s="198"/>
-      <c r="V3" s="198"/>
-      <c r="W3" s="198"/>
-      <c r="X3" s="198"/>
-      <c r="Y3" s="198"/>
-      <c r="Z3" s="198"/>
-      <c r="AA3" s="198"/>
-      <c r="AB3" s="198"/>
-      <c r="AC3" s="198"/>
-      <c r="AD3" s="198"/>
-      <c r="AE3" s="198"/>
-      <c r="AF3" s="198"/>
-      <c r="AG3" s="198"/>
-      <c r="AH3" s="198"/>
-      <c r="AI3" s="198"/>
-      <c r="AJ3" s="198"/>
-      <c r="AK3" s="198"/>
-    </row>
-    <row r="4" spans="1:75" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C4" s="198"/>
-      <c r="D4" s="198"/>
-      <c r="E4" s="198"/>
-      <c r="F4" s="198"/>
-      <c r="G4" s="198"/>
-      <c r="H4" s="198"/>
-      <c r="I4" s="198"/>
-      <c r="J4" s="198"/>
-      <c r="K4" s="198"/>
-      <c r="L4" s="198"/>
-      <c r="M4" s="198"/>
-      <c r="N4" s="198"/>
-      <c r="O4" s="198"/>
-      <c r="P4" s="198"/>
-      <c r="Q4" s="198"/>
-      <c r="R4" s="198"/>
-      <c r="S4" s="198"/>
-      <c r="T4" s="198"/>
-      <c r="U4" s="198"/>
-      <c r="V4" s="198"/>
-      <c r="W4" s="198"/>
-      <c r="X4" s="198"/>
-      <c r="Y4" s="198"/>
-      <c r="Z4" s="198"/>
-      <c r="AA4" s="198"/>
-      <c r="AB4" s="198"/>
-      <c r="AC4" s="198"/>
-      <c r="AD4" s="198"/>
-      <c r="AE4" s="198"/>
-      <c r="AF4" s="198"/>
-      <c r="AG4" s="198"/>
-      <c r="AH4" s="198"/>
-      <c r="AI4" s="198"/>
-      <c r="AJ4" s="198"/>
-      <c r="AK4" s="198"/>
-    </row>
-    <row r="5" spans="1:75" ht="15.75" customHeight="1">
-      <c r="C5" s="199" t="s">
+    <row r="2" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="197"/>
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="197"/>
+      <c r="O2" s="197"/>
+      <c r="P2" s="197"/>
+      <c r="Q2" s="197"/>
+      <c r="R2" s="197"/>
+      <c r="S2" s="197"/>
+      <c r="T2" s="197"/>
+      <c r="U2" s="197"/>
+      <c r="V2" s="197"/>
+      <c r="W2" s="197"/>
+      <c r="X2" s="197"/>
+      <c r="Y2" s="197"/>
+      <c r="Z2" s="197"/>
+      <c r="AA2" s="197"/>
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="197"/>
+      <c r="AD2" s="197"/>
+      <c r="AE2" s="197"/>
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="197"/>
+      <c r="AH2" s="197"/>
+      <c r="AI2" s="197"/>
+      <c r="AJ2" s="197"/>
+      <c r="AK2" s="197"/>
+    </row>
+    <row r="3" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="197"/>
+      <c r="J3" s="197"/>
+      <c r="K3" s="197"/>
+      <c r="L3" s="197"/>
+      <c r="M3" s="197"/>
+      <c r="N3" s="197"/>
+      <c r="O3" s="197"/>
+      <c r="P3" s="197"/>
+      <c r="Q3" s="197"/>
+      <c r="R3" s="197"/>
+      <c r="S3" s="197"/>
+      <c r="T3" s="197"/>
+      <c r="U3" s="197"/>
+      <c r="V3" s="197"/>
+      <c r="W3" s="197"/>
+      <c r="X3" s="197"/>
+      <c r="Y3" s="197"/>
+      <c r="Z3" s="197"/>
+      <c r="AA3" s="197"/>
+      <c r="AB3" s="197"/>
+      <c r="AC3" s="197"/>
+      <c r="AD3" s="197"/>
+      <c r="AE3" s="197"/>
+      <c r="AF3" s="197"/>
+      <c r="AG3" s="197"/>
+      <c r="AH3" s="197"/>
+      <c r="AI3" s="197"/>
+      <c r="AJ3" s="197"/>
+      <c r="AK3" s="197"/>
+    </row>
+    <row r="4" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="197"/>
+      <c r="D4" s="197"/>
+      <c r="E4" s="197"/>
+      <c r="F4" s="197"/>
+      <c r="G4" s="197"/>
+      <c r="H4" s="197"/>
+      <c r="I4" s="197"/>
+      <c r="J4" s="197"/>
+      <c r="K4" s="197"/>
+      <c r="L4" s="197"/>
+      <c r="M4" s="197"/>
+      <c r="N4" s="197"/>
+      <c r="O4" s="197"/>
+      <c r="P4" s="197"/>
+      <c r="Q4" s="197"/>
+      <c r="R4" s="197"/>
+      <c r="S4" s="197"/>
+      <c r="T4" s="197"/>
+      <c r="U4" s="197"/>
+      <c r="V4" s="197"/>
+      <c r="W4" s="197"/>
+      <c r="X4" s="197"/>
+      <c r="Y4" s="197"/>
+      <c r="Z4" s="197"/>
+      <c r="AA4" s="197"/>
+      <c r="AB4" s="197"/>
+      <c r="AC4" s="197"/>
+      <c r="AD4" s="197"/>
+      <c r="AE4" s="197"/>
+      <c r="AF4" s="197"/>
+      <c r="AG4" s="197"/>
+      <c r="AH4" s="197"/>
+      <c r="AI4" s="197"/>
+      <c r="AJ4" s="197"/>
+      <c r="AK4" s="197"/>
+    </row>
+    <row r="5" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="200"/>
-      <c r="E5" s="200"/>
-      <c r="F5" s="200"/>
-      <c r="G5" s="200"/>
-      <c r="H5" s="200"/>
-      <c r="I5" s="200"/>
-      <c r="J5" s="200"/>
-      <c r="K5" s="200"/>
-      <c r="L5" s="200"/>
-      <c r="M5" s="200"/>
-      <c r="N5" s="200"/>
-      <c r="O5" s="200"/>
-      <c r="P5" s="200"/>
-      <c r="Q5" s="200"/>
-      <c r="R5" s="200"/>
-      <c r="S5" s="201"/>
-      <c r="T5" s="200" t="s">
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="199"/>
+      <c r="J5" s="199"/>
+      <c r="K5" s="199"/>
+      <c r="L5" s="199"/>
+      <c r="M5" s="199"/>
+      <c r="N5" s="199"/>
+      <c r="O5" s="199"/>
+      <c r="P5" s="199"/>
+      <c r="Q5" s="199"/>
+      <c r="R5" s="199"/>
+      <c r="S5" s="200"/>
+      <c r="T5" s="199" t="s">
         <v>42</v>
       </c>
-      <c r="U5" s="200"/>
-      <c r="V5" s="200"/>
-      <c r="W5" s="200"/>
-      <c r="X5" s="200"/>
-      <c r="Y5" s="200"/>
-      <c r="Z5" s="200"/>
-      <c r="AA5" s="200"/>
-      <c r="AB5" s="200"/>
-      <c r="AC5" s="200"/>
-      <c r="AD5" s="200"/>
-      <c r="AE5" s="200"/>
-      <c r="AF5" s="200"/>
-      <c r="AG5" s="200"/>
-      <c r="AH5" s="200"/>
-      <c r="AI5" s="200"/>
-      <c r="AJ5" s="200"/>
-      <c r="AK5" s="201"/>
+      <c r="U5" s="199"/>
+      <c r="V5" s="199"/>
+      <c r="W5" s="199"/>
+      <c r="X5" s="199"/>
+      <c r="Y5" s="199"/>
+      <c r="Z5" s="199"/>
+      <c r="AA5" s="199"/>
+      <c r="AB5" s="199"/>
+      <c r="AC5" s="199"/>
+      <c r="AD5" s="199"/>
+      <c r="AE5" s="199"/>
+      <c r="AF5" s="199"/>
+      <c r="AG5" s="199"/>
+      <c r="AH5" s="199"/>
+      <c r="AI5" s="199"/>
+      <c r="AJ5" s="199"/>
+      <c r="AK5" s="200"/>
       <c r="AQ5" s="5"/>
     </row>
-    <row r="6" spans="1:75" ht="15.75" customHeight="1">
-      <c r="C6" s="174"/>
-      <c r="D6" s="175"/>
-      <c r="E6" s="175"/>
-      <c r="F6" s="175"/>
-      <c r="G6" s="175"/>
-      <c r="H6" s="175"/>
-      <c r="I6" s="175"/>
-      <c r="J6" s="175"/>
-      <c r="K6" s="175"/>
-      <c r="L6" s="175"/>
-      <c r="M6" s="175"/>
-      <c r="N6" s="175"/>
-      <c r="O6" s="175"/>
-      <c r="P6" s="175"/>
-      <c r="Q6" s="175"/>
-      <c r="R6" s="175"/>
-      <c r="S6" s="176"/>
-      <c r="T6" s="175"/>
-      <c r="U6" s="175"/>
-      <c r="V6" s="175"/>
-      <c r="W6" s="175"/>
-      <c r="X6" s="175"/>
-      <c r="Y6" s="175"/>
-      <c r="Z6" s="175"/>
-      <c r="AA6" s="175"/>
-      <c r="AB6" s="175"/>
-      <c r="AC6" s="175"/>
-      <c r="AD6" s="175"/>
-      <c r="AE6" s="175"/>
-      <c r="AF6" s="175"/>
-      <c r="AG6" s="175"/>
-      <c r="AH6" s="175"/>
-      <c r="AI6" s="175"/>
-      <c r="AJ6" s="175"/>
-      <c r="AK6" s="176"/>
-    </row>
-    <row r="7" spans="1:75" ht="15.75" customHeight="1">
-      <c r="C7" s="177"/>
-      <c r="D7" s="178"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="178"/>
-      <c r="H7" s="178"/>
-      <c r="I7" s="178"/>
-      <c r="J7" s="178"/>
-      <c r="K7" s="178"/>
-      <c r="L7" s="178"/>
-      <c r="M7" s="178"/>
-      <c r="N7" s="178"/>
-      <c r="O7" s="178"/>
-      <c r="P7" s="178"/>
-      <c r="Q7" s="178"/>
-      <c r="R7" s="178"/>
-      <c r="S7" s="179"/>
-      <c r="T7" s="175"/>
-      <c r="U7" s="175"/>
-      <c r="V7" s="175"/>
-      <c r="W7" s="175"/>
-      <c r="X7" s="175"/>
-      <c r="Y7" s="175"/>
-      <c r="Z7" s="175"/>
-      <c r="AA7" s="175"/>
-      <c r="AB7" s="175"/>
-      <c r="AC7" s="175"/>
-      <c r="AD7" s="175"/>
-      <c r="AE7" s="175"/>
-      <c r="AF7" s="175"/>
-      <c r="AG7" s="175"/>
-      <c r="AH7" s="175"/>
-      <c r="AI7" s="175"/>
-      <c r="AJ7" s="175"/>
-      <c r="AK7" s="176"/>
-    </row>
-    <row r="8" spans="1:75" ht="15.75" customHeight="1">
-      <c r="C8" s="171" t="s">
+    <row r="6" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="173"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
+      <c r="G6" s="174"/>
+      <c r="H6" s="174"/>
+      <c r="I6" s="174"/>
+      <c r="J6" s="174"/>
+      <c r="K6" s="174"/>
+      <c r="L6" s="174"/>
+      <c r="M6" s="174"/>
+      <c r="N6" s="174"/>
+      <c r="O6" s="174"/>
+      <c r="P6" s="174"/>
+      <c r="Q6" s="174"/>
+      <c r="R6" s="174"/>
+      <c r="S6" s="175"/>
+      <c r="T6" s="174"/>
+      <c r="U6" s="174"/>
+      <c r="V6" s="174"/>
+      <c r="W6" s="174"/>
+      <c r="X6" s="174"/>
+      <c r="Y6" s="174"/>
+      <c r="Z6" s="174"/>
+      <c r="AA6" s="174"/>
+      <c r="AB6" s="174"/>
+      <c r="AC6" s="174"/>
+      <c r="AD6" s="174"/>
+      <c r="AE6" s="174"/>
+      <c r="AF6" s="174"/>
+      <c r="AG6" s="174"/>
+      <c r="AH6" s="174"/>
+      <c r="AI6" s="174"/>
+      <c r="AJ6" s="174"/>
+      <c r="AK6" s="175"/>
+    </row>
+    <row r="7" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="176"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="177"/>
+      <c r="Q7" s="177"/>
+      <c r="R7" s="177"/>
+      <c r="S7" s="178"/>
+      <c r="T7" s="174"/>
+      <c r="U7" s="174"/>
+      <c r="V7" s="174"/>
+      <c r="W7" s="174"/>
+      <c r="X7" s="174"/>
+      <c r="Y7" s="174"/>
+      <c r="Z7" s="174"/>
+      <c r="AA7" s="174"/>
+      <c r="AB7" s="174"/>
+      <c r="AC7" s="174"/>
+      <c r="AD7" s="174"/>
+      <c r="AE7" s="174"/>
+      <c r="AF7" s="174"/>
+      <c r="AG7" s="174"/>
+      <c r="AH7" s="174"/>
+      <c r="AI7" s="174"/>
+      <c r="AJ7" s="174"/>
+      <c r="AK7" s="175"/>
+    </row>
+    <row r="8" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="172"/>
-      <c r="E8" s="172"/>
-      <c r="F8" s="172"/>
-      <c r="G8" s="172"/>
-      <c r="H8" s="172"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="172"/>
-      <c r="K8" s="172"/>
-      <c r="L8" s="172"/>
-      <c r="M8" s="172"/>
-      <c r="N8" s="172"/>
-      <c r="O8" s="172"/>
-      <c r="P8" s="172"/>
-      <c r="Q8" s="172"/>
-      <c r="R8" s="172"/>
-      <c r="S8" s="173"/>
-      <c r="T8" s="171" t="s">
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="171"/>
+      <c r="K8" s="171"/>
+      <c r="L8" s="171"/>
+      <c r="M8" s="171"/>
+      <c r="N8" s="171"/>
+      <c r="O8" s="171"/>
+      <c r="P8" s="171"/>
+      <c r="Q8" s="171"/>
+      <c r="R8" s="171"/>
+      <c r="S8" s="172"/>
+      <c r="T8" s="170" t="s">
         <v>70</v>
       </c>
-      <c r="U8" s="172"/>
-      <c r="V8" s="172"/>
-      <c r="W8" s="172"/>
-      <c r="X8" s="172"/>
-      <c r="Y8" s="172"/>
-      <c r="Z8" s="172"/>
-      <c r="AA8" s="172"/>
-      <c r="AB8" s="172"/>
-      <c r="AC8" s="172"/>
-      <c r="AD8" s="172"/>
-      <c r="AE8" s="172"/>
-      <c r="AF8" s="172"/>
-      <c r="AG8" s="172"/>
-      <c r="AH8" s="172"/>
-      <c r="AI8" s="172"/>
-      <c r="AJ8" s="172"/>
-      <c r="AK8" s="173"/>
-    </row>
-    <row r="9" spans="1:75" ht="15.75" customHeight="1">
-      <c r="C9" s="177"/>
-      <c r="D9" s="178"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="178"/>
-      <c r="K9" s="178"/>
-      <c r="L9" s="178"/>
-      <c r="M9" s="178"/>
-      <c r="N9" s="178"/>
-      <c r="O9" s="178"/>
-      <c r="P9" s="178"/>
-      <c r="Q9" s="178"/>
-      <c r="R9" s="178"/>
-      <c r="S9" s="179"/>
-      <c r="T9" s="177"/>
-      <c r="U9" s="178"/>
-      <c r="V9" s="178"/>
-      <c r="W9" s="178"/>
-      <c r="X9" s="178"/>
-      <c r="Y9" s="178"/>
-      <c r="Z9" s="178"/>
-      <c r="AA9" s="178"/>
-      <c r="AB9" s="178"/>
-      <c r="AC9" s="178"/>
-      <c r="AD9" s="178"/>
-      <c r="AE9" s="178"/>
-      <c r="AF9" s="178"/>
-      <c r="AG9" s="178"/>
-      <c r="AH9" s="178"/>
-      <c r="AI9" s="178"/>
-      <c r="AJ9" s="178"/>
-      <c r="AK9" s="179"/>
-    </row>
-    <row r="10" spans="1:75" ht="15.75" customHeight="1">
+      <c r="U8" s="171"/>
+      <c r="V8" s="171"/>
+      <c r="W8" s="171"/>
+      <c r="X8" s="171"/>
+      <c r="Y8" s="171"/>
+      <c r="Z8" s="171"/>
+      <c r="AA8" s="171"/>
+      <c r="AB8" s="171"/>
+      <c r="AC8" s="171"/>
+      <c r="AD8" s="171"/>
+      <c r="AE8" s="171"/>
+      <c r="AF8" s="171"/>
+      <c r="AG8" s="171"/>
+      <c r="AH8" s="171"/>
+      <c r="AI8" s="171"/>
+      <c r="AJ8" s="171"/>
+      <c r="AK8" s="172"/>
+    </row>
+    <row r="9" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="176"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="177"/>
+      <c r="L9" s="177"/>
+      <c r="M9" s="177"/>
+      <c r="N9" s="177"/>
+      <c r="O9" s="177"/>
+      <c r="P9" s="177"/>
+      <c r="Q9" s="177"/>
+      <c r="R9" s="177"/>
+      <c r="S9" s="178"/>
+      <c r="T9" s="176"/>
+      <c r="U9" s="177"/>
+      <c r="V9" s="177"/>
+      <c r="W9" s="177"/>
+      <c r="X9" s="177"/>
+      <c r="Y9" s="177"/>
+      <c r="Z9" s="177"/>
+      <c r="AA9" s="177"/>
+      <c r="AB9" s="177"/>
+      <c r="AC9" s="177"/>
+      <c r="AD9" s="177"/>
+      <c r="AE9" s="177"/>
+      <c r="AF9" s="177"/>
+      <c r="AG9" s="177"/>
+      <c r="AH9" s="177"/>
+      <c r="AI9" s="177"/>
+      <c r="AJ9" s="177"/>
+      <c r="AK9" s="178"/>
+    </row>
+    <row r="10" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12"/>
-      <c r="C10" s="174" t="s">
+      <c r="C10" s="173" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="175"/>
-      <c r="E10" s="175"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="175"/>
-      <c r="I10" s="175"/>
-      <c r="J10" s="175"/>
-      <c r="K10" s="175"/>
-      <c r="L10" s="175"/>
-      <c r="M10" s="175"/>
-      <c r="N10" s="175"/>
-      <c r="O10" s="175"/>
-      <c r="P10" s="175"/>
-      <c r="Q10" s="175"/>
-      <c r="R10" s="175"/>
-      <c r="S10" s="176"/>
-      <c r="T10" s="171" t="s">
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="174"/>
+      <c r="L10" s="174"/>
+      <c r="M10" s="174"/>
+      <c r="N10" s="174"/>
+      <c r="O10" s="174"/>
+      <c r="P10" s="174"/>
+      <c r="Q10" s="174"/>
+      <c r="R10" s="174"/>
+      <c r="S10" s="175"/>
+      <c r="T10" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="U10" s="172"/>
-      <c r="V10" s="172"/>
-      <c r="W10" s="172"/>
-      <c r="X10" s="172"/>
-      <c r="Y10" s="172"/>
-      <c r="Z10" s="172"/>
-      <c r="AA10" s="172"/>
-      <c r="AB10" s="172"/>
-      <c r="AC10" s="172"/>
-      <c r="AD10" s="172"/>
-      <c r="AE10" s="172"/>
-      <c r="AF10" s="172"/>
-      <c r="AG10" s="172"/>
-      <c r="AH10" s="172"/>
-      <c r="AI10" s="172"/>
-      <c r="AJ10" s="172"/>
-      <c r="AK10" s="173"/>
+      <c r="U10" s="171"/>
+      <c r="V10" s="171"/>
+      <c r="W10" s="171"/>
+      <c r="X10" s="171"/>
+      <c r="Y10" s="171"/>
+      <c r="Z10" s="171"/>
+      <c r="AA10" s="171"/>
+      <c r="AB10" s="171"/>
+      <c r="AC10" s="171"/>
+      <c r="AD10" s="171"/>
+      <c r="AE10" s="171"/>
+      <c r="AF10" s="171"/>
+      <c r="AG10" s="171"/>
+      <c r="AH10" s="171"/>
+      <c r="AI10" s="171"/>
+      <c r="AJ10" s="171"/>
+      <c r="AK10" s="172"/>
       <c r="AL10" s="10"/>
     </row>
-    <row r="11" spans="1:75" ht="15.75" customHeight="1">
+    <row r="11" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="12"/>
-      <c r="C11" s="174"/>
-      <c r="D11" s="175"/>
-      <c r="E11" s="175"/>
-      <c r="F11" s="175"/>
-      <c r="G11" s="175"/>
-      <c r="H11" s="175"/>
-      <c r="I11" s="175"/>
-      <c r="J11" s="175"/>
-      <c r="K11" s="175"/>
-      <c r="L11" s="175"/>
-      <c r="M11" s="175"/>
-      <c r="N11" s="175"/>
-      <c r="O11" s="175"/>
-      <c r="P11" s="175"/>
-      <c r="Q11" s="175"/>
-      <c r="R11" s="175"/>
-      <c r="S11" s="176"/>
-      <c r="T11" s="174"/>
-      <c r="U11" s="175"/>
-      <c r="V11" s="175"/>
-      <c r="W11" s="175"/>
-      <c r="X11" s="175"/>
-      <c r="Y11" s="175"/>
-      <c r="Z11" s="175"/>
-      <c r="AA11" s="175"/>
-      <c r="AB11" s="175"/>
-      <c r="AC11" s="175"/>
-      <c r="AD11" s="175"/>
-      <c r="AE11" s="175"/>
-      <c r="AF11" s="175"/>
-      <c r="AG11" s="175"/>
-      <c r="AH11" s="175"/>
-      <c r="AI11" s="175"/>
-      <c r="AJ11" s="175"/>
-      <c r="AK11" s="176"/>
+      <c r="C11" s="173"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="174"/>
+      <c r="L11" s="174"/>
+      <c r="M11" s="174"/>
+      <c r="N11" s="174"/>
+      <c r="O11" s="174"/>
+      <c r="P11" s="174"/>
+      <c r="Q11" s="174"/>
+      <c r="R11" s="174"/>
+      <c r="S11" s="175"/>
+      <c r="T11" s="173"/>
+      <c r="U11" s="174"/>
+      <c r="V11" s="174"/>
+      <c r="W11" s="174"/>
+      <c r="X11" s="174"/>
+      <c r="Y11" s="174"/>
+      <c r="Z11" s="174"/>
+      <c r="AA11" s="174"/>
+      <c r="AB11" s="174"/>
+      <c r="AC11" s="174"/>
+      <c r="AD11" s="174"/>
+      <c r="AE11" s="174"/>
+      <c r="AF11" s="174"/>
+      <c r="AG11" s="174"/>
+      <c r="AH11" s="174"/>
+      <c r="AI11" s="174"/>
+      <c r="AJ11" s="174"/>
+      <c r="AK11" s="175"/>
       <c r="AL11" s="10"/>
     </row>
-    <row r="12" spans="1:75" ht="15.75" customHeight="1">
-      <c r="C12" s="177"/>
-      <c r="D12" s="178"/>
-      <c r="E12" s="178"/>
-      <c r="F12" s="178"/>
-      <c r="G12" s="178"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="178"/>
-      <c r="J12" s="178"/>
-      <c r="K12" s="178"/>
-      <c r="L12" s="178"/>
-      <c r="M12" s="178"/>
-      <c r="N12" s="178"/>
-      <c r="O12" s="178"/>
-      <c r="P12" s="178"/>
-      <c r="Q12" s="178"/>
-      <c r="R12" s="178"/>
-      <c r="S12" s="179"/>
-      <c r="T12" s="177"/>
-      <c r="U12" s="178"/>
-      <c r="V12" s="178"/>
-      <c r="W12" s="178"/>
-      <c r="X12" s="178"/>
-      <c r="Y12" s="178"/>
-      <c r="Z12" s="178"/>
-      <c r="AA12" s="178"/>
-      <c r="AB12" s="178"/>
-      <c r="AC12" s="178"/>
-      <c r="AD12" s="178"/>
-      <c r="AE12" s="178"/>
-      <c r="AF12" s="178"/>
-      <c r="AG12" s="178"/>
-      <c r="AH12" s="178"/>
-      <c r="AI12" s="178"/>
-      <c r="AJ12" s="178"/>
-      <c r="AK12" s="179"/>
+    <row r="12" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="176"/>
+      <c r="D12" s="177"/>
+      <c r="E12" s="177"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="177"/>
+      <c r="J12" s="177"/>
+      <c r="K12" s="177"/>
+      <c r="L12" s="177"/>
+      <c r="M12" s="177"/>
+      <c r="N12" s="177"/>
+      <c r="O12" s="177"/>
+      <c r="P12" s="177"/>
+      <c r="Q12" s="177"/>
+      <c r="R12" s="177"/>
+      <c r="S12" s="178"/>
+      <c r="T12" s="176"/>
+      <c r="U12" s="177"/>
+      <c r="V12" s="177"/>
+      <c r="W12" s="177"/>
+      <c r="X12" s="177"/>
+      <c r="Y12" s="177"/>
+      <c r="Z12" s="177"/>
+      <c r="AA12" s="177"/>
+      <c r="AB12" s="177"/>
+      <c r="AC12" s="177"/>
+      <c r="AD12" s="177"/>
+      <c r="AE12" s="177"/>
+      <c r="AF12" s="177"/>
+      <c r="AG12" s="177"/>
+      <c r="AH12" s="177"/>
+      <c r="AI12" s="177"/>
+      <c r="AJ12" s="177"/>
+      <c r="AK12" s="178"/>
       <c r="AL12" s="10"/>
     </row>
-    <row r="13" spans="1:75" ht="15.75" customHeight="1">
-      <c r="C13" s="174" t="s">
+    <row r="13" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="173" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="175"/>
-      <c r="E13" s="175"/>
-      <c r="F13" s="175"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="175"/>
-      <c r="I13" s="175"/>
-      <c r="J13" s="175"/>
-      <c r="K13" s="175"/>
-      <c r="L13" s="175"/>
-      <c r="M13" s="175"/>
-      <c r="N13" s="175"/>
-      <c r="O13" s="175"/>
-      <c r="P13" s="175"/>
-      <c r="Q13" s="175"/>
-      <c r="R13" s="175"/>
-      <c r="S13" s="176"/>
-      <c r="T13" s="175" t="s">
+      <c r="D13" s="174"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="174"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="174"/>
+      <c r="K13" s="174"/>
+      <c r="L13" s="174"/>
+      <c r="M13" s="174"/>
+      <c r="N13" s="174"/>
+      <c r="O13" s="174"/>
+      <c r="P13" s="174"/>
+      <c r="Q13" s="174"/>
+      <c r="R13" s="174"/>
+      <c r="S13" s="175"/>
+      <c r="T13" s="174" t="s">
         <v>61</v>
       </c>
-      <c r="U13" s="175"/>
-      <c r="V13" s="175"/>
-      <c r="W13" s="175"/>
-      <c r="X13" s="175"/>
-      <c r="Y13" s="175"/>
-      <c r="Z13" s="175"/>
-      <c r="AA13" s="175"/>
-      <c r="AB13" s="175"/>
-      <c r="AC13" s="175"/>
-      <c r="AD13" s="175"/>
-      <c r="AE13" s="175"/>
-      <c r="AF13" s="175"/>
-      <c r="AG13" s="175"/>
-      <c r="AH13" s="175"/>
-      <c r="AI13" s="175"/>
-      <c r="AJ13" s="175"/>
-      <c r="AK13" s="175"/>
+      <c r="U13" s="174"/>
+      <c r="V13" s="174"/>
+      <c r="W13" s="174"/>
+      <c r="X13" s="174"/>
+      <c r="Y13" s="174"/>
+      <c r="Z13" s="174"/>
+      <c r="AA13" s="174"/>
+      <c r="AB13" s="174"/>
+      <c r="AC13" s="174"/>
+      <c r="AD13" s="174"/>
+      <c r="AE13" s="174"/>
+      <c r="AF13" s="174"/>
+      <c r="AG13" s="174"/>
+      <c r="AH13" s="174"/>
+      <c r="AI13" s="174"/>
+      <c r="AJ13" s="174"/>
+      <c r="AK13" s="174"/>
       <c r="AL13" s="10"/>
     </row>
-    <row r="14" spans="1:75" ht="15.75" customHeight="1">
-      <c r="C14" s="174"/>
-      <c r="D14" s="175"/>
-      <c r="E14" s="175"/>
-      <c r="F14" s="175"/>
-      <c r="G14" s="175"/>
-      <c r="H14" s="175"/>
-      <c r="I14" s="175"/>
-      <c r="J14" s="175"/>
-      <c r="K14" s="175"/>
-      <c r="L14" s="175"/>
-      <c r="M14" s="175"/>
-      <c r="N14" s="175"/>
-      <c r="O14" s="175"/>
-      <c r="P14" s="175"/>
-      <c r="Q14" s="175"/>
-      <c r="R14" s="175"/>
-      <c r="S14" s="176"/>
-      <c r="T14" s="175"/>
-      <c r="U14" s="175"/>
-      <c r="V14" s="175"/>
-      <c r="W14" s="175"/>
-      <c r="X14" s="175"/>
-      <c r="Y14" s="175"/>
-      <c r="Z14" s="175"/>
-      <c r="AA14" s="175"/>
-      <c r="AB14" s="175"/>
-      <c r="AC14" s="175"/>
-      <c r="AD14" s="175"/>
-      <c r="AE14" s="175"/>
-      <c r="AF14" s="175"/>
-      <c r="AG14" s="175"/>
-      <c r="AH14" s="175"/>
-      <c r="AI14" s="175"/>
-      <c r="AJ14" s="175"/>
-      <c r="AK14" s="176"/>
-    </row>
-    <row r="15" spans="1:75" ht="15.75" customHeight="1">
-      <c r="C15" s="174"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="175"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="175"/>
-      <c r="I15" s="175"/>
-      <c r="J15" s="175"/>
-      <c r="K15" s="175"/>
-      <c r="L15" s="175"/>
-      <c r="M15" s="175"/>
-      <c r="N15" s="175"/>
-      <c r="O15" s="175"/>
-      <c r="P15" s="175"/>
-      <c r="Q15" s="175"/>
-      <c r="R15" s="175"/>
-      <c r="S15" s="176"/>
-      <c r="T15" s="175"/>
-      <c r="U15" s="175"/>
-      <c r="V15" s="175"/>
-      <c r="W15" s="175"/>
-      <c r="X15" s="175"/>
-      <c r="Y15" s="175"/>
-      <c r="Z15" s="175"/>
-      <c r="AA15" s="175"/>
-      <c r="AB15" s="175"/>
-      <c r="AC15" s="175"/>
-      <c r="AD15" s="175"/>
-      <c r="AE15" s="175"/>
-      <c r="AF15" s="175"/>
-      <c r="AG15" s="175"/>
-      <c r="AH15" s="175"/>
-      <c r="AI15" s="175"/>
-      <c r="AJ15" s="175"/>
-      <c r="AK15" s="176"/>
-    </row>
-    <row r="16" spans="1:75" ht="15.75" customHeight="1">
-      <c r="C16" s="171" t="s">
+    <row r="14" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="173"/>
+      <c r="D14" s="174"/>
+      <c r="E14" s="174"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="174"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="174"/>
+      <c r="K14" s="174"/>
+      <c r="L14" s="174"/>
+      <c r="M14" s="174"/>
+      <c r="N14" s="174"/>
+      <c r="O14" s="174"/>
+      <c r="P14" s="174"/>
+      <c r="Q14" s="174"/>
+      <c r="R14" s="174"/>
+      <c r="S14" s="175"/>
+      <c r="T14" s="174"/>
+      <c r="U14" s="174"/>
+      <c r="V14" s="174"/>
+      <c r="W14" s="174"/>
+      <c r="X14" s="174"/>
+      <c r="Y14" s="174"/>
+      <c r="Z14" s="174"/>
+      <c r="AA14" s="174"/>
+      <c r="AB14" s="174"/>
+      <c r="AC14" s="174"/>
+      <c r="AD14" s="174"/>
+      <c r="AE14" s="174"/>
+      <c r="AF14" s="174"/>
+      <c r="AG14" s="174"/>
+      <c r="AH14" s="174"/>
+      <c r="AI14" s="174"/>
+      <c r="AJ14" s="174"/>
+      <c r="AK14" s="175"/>
+    </row>
+    <row r="15" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="173"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="174"/>
+      <c r="K15" s="174"/>
+      <c r="L15" s="174"/>
+      <c r="M15" s="174"/>
+      <c r="N15" s="174"/>
+      <c r="O15" s="174"/>
+      <c r="P15" s="174"/>
+      <c r="Q15" s="174"/>
+      <c r="R15" s="174"/>
+      <c r="S15" s="175"/>
+      <c r="T15" s="174"/>
+      <c r="U15" s="174"/>
+      <c r="V15" s="174"/>
+      <c r="W15" s="174"/>
+      <c r="X15" s="174"/>
+      <c r="Y15" s="174"/>
+      <c r="Z15" s="174"/>
+      <c r="AA15" s="174"/>
+      <c r="AB15" s="174"/>
+      <c r="AC15" s="174"/>
+      <c r="AD15" s="174"/>
+      <c r="AE15" s="174"/>
+      <c r="AF15" s="174"/>
+      <c r="AG15" s="174"/>
+      <c r="AH15" s="174"/>
+      <c r="AI15" s="174"/>
+      <c r="AJ15" s="174"/>
+      <c r="AK15" s="175"/>
+    </row>
+    <row r="16" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="170" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="172"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="172"/>
-      <c r="I16" s="172"/>
-      <c r="J16" s="172"/>
-      <c r="K16" s="172"/>
-      <c r="L16" s="172"/>
-      <c r="M16" s="172"/>
-      <c r="N16" s="172"/>
-      <c r="O16" s="172"/>
-      <c r="P16" s="172"/>
-      <c r="Q16" s="172"/>
-      <c r="R16" s="172"/>
-      <c r="S16" s="173"/>
-      <c r="T16" s="183" t="s">
+      <c r="D16" s="171"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="171"/>
+      <c r="I16" s="171"/>
+      <c r="J16" s="171"/>
+      <c r="K16" s="171"/>
+      <c r="L16" s="171"/>
+      <c r="M16" s="171"/>
+      <c r="N16" s="171"/>
+      <c r="O16" s="171"/>
+      <c r="P16" s="171"/>
+      <c r="Q16" s="171"/>
+      <c r="R16" s="171"/>
+      <c r="S16" s="172"/>
+      <c r="T16" s="182" t="s">
         <v>60</v>
       </c>
-      <c r="U16" s="184"/>
-      <c r="V16" s="184"/>
-      <c r="W16" s="184"/>
-      <c r="X16" s="184"/>
-      <c r="Y16" s="184"/>
-      <c r="Z16" s="184"/>
-      <c r="AA16" s="184"/>
-      <c r="AB16" s="184"/>
-      <c r="AC16" s="184"/>
-      <c r="AD16" s="184"/>
-      <c r="AE16" s="184"/>
-      <c r="AF16" s="184"/>
-      <c r="AG16" s="184"/>
-      <c r="AH16" s="184"/>
-      <c r="AI16" s="184"/>
-      <c r="AJ16" s="184"/>
-      <c r="AK16" s="185"/>
-    </row>
-    <row r="17" spans="1:37" s="6" customFormat="1" ht="16.75" customHeight="1">
-      <c r="C17" s="177"/>
-      <c r="D17" s="178"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="178"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="178"/>
-      <c r="J17" s="178"/>
-      <c r="K17" s="178"/>
-      <c r="L17" s="178"/>
-      <c r="M17" s="178"/>
-      <c r="N17" s="178"/>
-      <c r="O17" s="178"/>
-      <c r="P17" s="178"/>
-      <c r="Q17" s="178"/>
-      <c r="R17" s="178"/>
-      <c r="S17" s="179"/>
-      <c r="T17" s="186"/>
-      <c r="U17" s="187"/>
-      <c r="V17" s="187"/>
-      <c r="W17" s="187"/>
-      <c r="X17" s="187"/>
-      <c r="Y17" s="187"/>
-      <c r="Z17" s="187"/>
-      <c r="AA17" s="187"/>
-      <c r="AB17" s="187"/>
-      <c r="AC17" s="187"/>
-      <c r="AD17" s="187"/>
-      <c r="AE17" s="187"/>
-      <c r="AF17" s="187"/>
-      <c r="AG17" s="187"/>
-      <c r="AH17" s="187"/>
-      <c r="AI17" s="187"/>
-      <c r="AJ17" s="187"/>
-      <c r="AK17" s="188"/>
-    </row>
-    <row r="18" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="U16" s="183"/>
+      <c r="V16" s="183"/>
+      <c r="W16" s="183"/>
+      <c r="X16" s="183"/>
+      <c r="Y16" s="183"/>
+      <c r="Z16" s="183"/>
+      <c r="AA16" s="183"/>
+      <c r="AB16" s="183"/>
+      <c r="AC16" s="183"/>
+      <c r="AD16" s="183"/>
+      <c r="AE16" s="183"/>
+      <c r="AF16" s="183"/>
+      <c r="AG16" s="183"/>
+      <c r="AH16" s="183"/>
+      <c r="AI16" s="183"/>
+      <c r="AJ16" s="183"/>
+      <c r="AK16" s="184"/>
+    </row>
+    <row r="17" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="176"/>
+      <c r="D17" s="177"/>
+      <c r="E17" s="177"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="177"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="177"/>
+      <c r="L17" s="177"/>
+      <c r="M17" s="177"/>
+      <c r="N17" s="177"/>
+      <c r="O17" s="177"/>
+      <c r="P17" s="177"/>
+      <c r="Q17" s="177"/>
+      <c r="R17" s="177"/>
+      <c r="S17" s="178"/>
+      <c r="T17" s="185"/>
+      <c r="U17" s="186"/>
+      <c r="V17" s="186"/>
+      <c r="W17" s="186"/>
+      <c r="X17" s="186"/>
+      <c r="Y17" s="186"/>
+      <c r="Z17" s="186"/>
+      <c r="AA17" s="186"/>
+      <c r="AB17" s="186"/>
+      <c r="AC17" s="186"/>
+      <c r="AD17" s="186"/>
+      <c r="AE17" s="186"/>
+      <c r="AF17" s="186"/>
+      <c r="AG17" s="186"/>
+      <c r="AH17" s="186"/>
+      <c r="AI17" s="186"/>
+      <c r="AJ17" s="186"/>
+      <c r="AK17" s="187"/>
+    </row>
+    <row r="18" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="12"/>
-      <c r="C18" s="174" t="s">
+      <c r="C18" s="173" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="175"/>
-      <c r="E18" s="175"/>
-      <c r="F18" s="175"/>
-      <c r="G18" s="175"/>
-      <c r="H18" s="175"/>
-      <c r="I18" s="175"/>
-      <c r="J18" s="175"/>
-      <c r="K18" s="175"/>
-      <c r="L18" s="175"/>
-      <c r="M18" s="175"/>
-      <c r="N18" s="175"/>
-      <c r="O18" s="175"/>
-      <c r="P18" s="175"/>
-      <c r="Q18" s="175"/>
-      <c r="R18" s="175"/>
-      <c r="S18" s="176"/>
-      <c r="T18" s="171" t="s">
+      <c r="D18" s="174"/>
+      <c r="E18" s="174"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="174"/>
+      <c r="K18" s="174"/>
+      <c r="L18" s="174"/>
+      <c r="M18" s="174"/>
+      <c r="N18" s="174"/>
+      <c r="O18" s="174"/>
+      <c r="P18" s="174"/>
+      <c r="Q18" s="174"/>
+      <c r="R18" s="174"/>
+      <c r="S18" s="175"/>
+      <c r="T18" s="170" t="s">
         <v>62</v>
       </c>
-      <c r="U18" s="172"/>
-      <c r="V18" s="172"/>
-      <c r="W18" s="172"/>
-      <c r="X18" s="172"/>
-      <c r="Y18" s="172"/>
-      <c r="Z18" s="172"/>
-      <c r="AA18" s="172"/>
-      <c r="AB18" s="172"/>
-      <c r="AC18" s="172"/>
-      <c r="AD18" s="172"/>
-      <c r="AE18" s="172"/>
-      <c r="AF18" s="172"/>
-      <c r="AG18" s="172"/>
-      <c r="AH18" s="172"/>
-      <c r="AI18" s="172"/>
-      <c r="AJ18" s="172"/>
-      <c r="AK18" s="173"/>
-    </row>
-    <row r="19" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="U18" s="171"/>
+      <c r="V18" s="171"/>
+      <c r="W18" s="171"/>
+      <c r="X18" s="171"/>
+      <c r="Y18" s="171"/>
+      <c r="Z18" s="171"/>
+      <c r="AA18" s="171"/>
+      <c r="AB18" s="171"/>
+      <c r="AC18" s="171"/>
+      <c r="AD18" s="171"/>
+      <c r="AE18" s="171"/>
+      <c r="AF18" s="171"/>
+      <c r="AG18" s="171"/>
+      <c r="AH18" s="171"/>
+      <c r="AI18" s="171"/>
+      <c r="AJ18" s="171"/>
+      <c r="AK18" s="172"/>
+    </row>
+    <row r="19" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="12"/>
-      <c r="C19" s="174"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="175"/>
-      <c r="F19" s="175"/>
-      <c r="G19" s="175"/>
-      <c r="H19" s="175"/>
-      <c r="I19" s="175"/>
-      <c r="J19" s="175"/>
-      <c r="K19" s="175"/>
-      <c r="L19" s="175"/>
-      <c r="M19" s="175"/>
-      <c r="N19" s="175"/>
-      <c r="O19" s="175"/>
-      <c r="P19" s="175"/>
-      <c r="Q19" s="175"/>
-      <c r="R19" s="175"/>
-      <c r="S19" s="176"/>
-      <c r="T19" s="174"/>
-      <c r="U19" s="175"/>
-      <c r="V19" s="175"/>
-      <c r="W19" s="175"/>
-      <c r="X19" s="175"/>
-      <c r="Y19" s="175"/>
-      <c r="Z19" s="175"/>
-      <c r="AA19" s="175"/>
-      <c r="AB19" s="175"/>
-      <c r="AC19" s="175"/>
-      <c r="AD19" s="175"/>
-      <c r="AE19" s="175"/>
-      <c r="AF19" s="175"/>
-      <c r="AG19" s="175"/>
-      <c r="AH19" s="175"/>
-      <c r="AI19" s="175"/>
-      <c r="AJ19" s="175"/>
-      <c r="AK19" s="176"/>
-    </row>
-    <row r="20" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="C19" s="173"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="174"/>
+      <c r="J19" s="174"/>
+      <c r="K19" s="174"/>
+      <c r="L19" s="174"/>
+      <c r="M19" s="174"/>
+      <c r="N19" s="174"/>
+      <c r="O19" s="174"/>
+      <c r="P19" s="174"/>
+      <c r="Q19" s="174"/>
+      <c r="R19" s="174"/>
+      <c r="S19" s="175"/>
+      <c r="T19" s="173"/>
+      <c r="U19" s="174"/>
+      <c r="V19" s="174"/>
+      <c r="W19" s="174"/>
+      <c r="X19" s="174"/>
+      <c r="Y19" s="174"/>
+      <c r="Z19" s="174"/>
+      <c r="AA19" s="174"/>
+      <c r="AB19" s="174"/>
+      <c r="AC19" s="174"/>
+      <c r="AD19" s="174"/>
+      <c r="AE19" s="174"/>
+      <c r="AF19" s="174"/>
+      <c r="AG19" s="174"/>
+      <c r="AH19" s="174"/>
+      <c r="AI19" s="174"/>
+      <c r="AJ19" s="174"/>
+      <c r="AK19" s="175"/>
+    </row>
+    <row r="20" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="12"/>
-      <c r="C20" s="174"/>
-      <c r="D20" s="175"/>
-      <c r="E20" s="175"/>
-      <c r="F20" s="175"/>
-      <c r="G20" s="175"/>
-      <c r="H20" s="175"/>
-      <c r="I20" s="175"/>
-      <c r="J20" s="175"/>
-      <c r="K20" s="175"/>
-      <c r="L20" s="175"/>
-      <c r="M20" s="175"/>
-      <c r="N20" s="175"/>
-      <c r="O20" s="175"/>
-      <c r="P20" s="175"/>
-      <c r="Q20" s="175"/>
-      <c r="R20" s="175"/>
-      <c r="S20" s="176"/>
-      <c r="T20" s="177"/>
-      <c r="U20" s="178"/>
-      <c r="V20" s="178"/>
-      <c r="W20" s="178"/>
-      <c r="X20" s="178"/>
-      <c r="Y20" s="178"/>
-      <c r="Z20" s="178"/>
-      <c r="AA20" s="178"/>
-      <c r="AB20" s="178"/>
-      <c r="AC20" s="178"/>
-      <c r="AD20" s="178"/>
-      <c r="AE20" s="178"/>
-      <c r="AF20" s="178"/>
-      <c r="AG20" s="178"/>
-      <c r="AH20" s="178"/>
-      <c r="AI20" s="178"/>
-      <c r="AJ20" s="178"/>
-      <c r="AK20" s="179"/>
-    </row>
-    <row r="21" spans="1:37" s="6" customFormat="1" ht="16.75" customHeight="1">
-      <c r="C21" s="171" t="s">
+      <c r="C20" s="173"/>
+      <c r="D20" s="174"/>
+      <c r="E20" s="174"/>
+      <c r="F20" s="174"/>
+      <c r="G20" s="174"/>
+      <c r="H20" s="174"/>
+      <c r="I20" s="174"/>
+      <c r="J20" s="174"/>
+      <c r="K20" s="174"/>
+      <c r="L20" s="174"/>
+      <c r="M20" s="174"/>
+      <c r="N20" s="174"/>
+      <c r="O20" s="174"/>
+      <c r="P20" s="174"/>
+      <c r="Q20" s="174"/>
+      <c r="R20" s="174"/>
+      <c r="S20" s="175"/>
+      <c r="T20" s="176"/>
+      <c r="U20" s="177"/>
+      <c r="V20" s="177"/>
+      <c r="W20" s="177"/>
+      <c r="X20" s="177"/>
+      <c r="Y20" s="177"/>
+      <c r="Z20" s="177"/>
+      <c r="AA20" s="177"/>
+      <c r="AB20" s="177"/>
+      <c r="AC20" s="177"/>
+      <c r="AD20" s="177"/>
+      <c r="AE20" s="177"/>
+      <c r="AF20" s="177"/>
+      <c r="AG20" s="177"/>
+      <c r="AH20" s="177"/>
+      <c r="AI20" s="177"/>
+      <c r="AJ20" s="177"/>
+      <c r="AK20" s="178"/>
+    </row>
+    <row r="21" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="172"/>
-      <c r="E21" s="172"/>
-      <c r="F21" s="172"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="172"/>
-      <c r="K21" s="172"/>
-      <c r="L21" s="172"/>
-      <c r="M21" s="172"/>
-      <c r="N21" s="172"/>
-      <c r="O21" s="172"/>
-      <c r="P21" s="172"/>
-      <c r="Q21" s="172"/>
-      <c r="R21" s="172"/>
-      <c r="S21" s="173"/>
-      <c r="T21" s="189" t="s">
+      <c r="D21" s="171"/>
+      <c r="E21" s="171"/>
+      <c r="F21" s="171"/>
+      <c r="G21" s="171"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="171"/>
+      <c r="J21" s="171"/>
+      <c r="K21" s="171"/>
+      <c r="L21" s="171"/>
+      <c r="M21" s="171"/>
+      <c r="N21" s="171"/>
+      <c r="O21" s="171"/>
+      <c r="P21" s="171"/>
+      <c r="Q21" s="171"/>
+      <c r="R21" s="171"/>
+      <c r="S21" s="172"/>
+      <c r="T21" s="188" t="s">
         <v>63</v>
       </c>
-      <c r="U21" s="190"/>
-      <c r="V21" s="190"/>
-      <c r="W21" s="190"/>
-      <c r="X21" s="190"/>
-      <c r="Y21" s="190"/>
-      <c r="Z21" s="190"/>
-      <c r="AA21" s="190"/>
-      <c r="AB21" s="190"/>
-      <c r="AC21" s="190"/>
-      <c r="AD21" s="190"/>
-      <c r="AE21" s="190"/>
-      <c r="AF21" s="190"/>
-      <c r="AG21" s="190"/>
-      <c r="AH21" s="190"/>
-      <c r="AI21" s="190"/>
-      <c r="AJ21" s="190"/>
-      <c r="AK21" s="191"/>
-    </row>
-    <row r="22" spans="1:37" s="6" customFormat="1" ht="16.75" customHeight="1">
-      <c r="C22" s="174"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="175"/>
-      <c r="F22" s="175"/>
-      <c r="G22" s="175"/>
-      <c r="H22" s="175"/>
-      <c r="I22" s="175"/>
-      <c r="J22" s="175"/>
-      <c r="K22" s="175"/>
-      <c r="L22" s="175"/>
-      <c r="M22" s="175"/>
-      <c r="N22" s="175"/>
-      <c r="O22" s="175"/>
-      <c r="P22" s="175"/>
-      <c r="Q22" s="175"/>
-      <c r="R22" s="175"/>
-      <c r="S22" s="176"/>
-      <c r="T22" s="192"/>
-      <c r="U22" s="193"/>
-      <c r="V22" s="193"/>
-      <c r="W22" s="193"/>
-      <c r="X22" s="193"/>
-      <c r="Y22" s="193"/>
-      <c r="Z22" s="193"/>
-      <c r="AA22" s="193"/>
-      <c r="AB22" s="193"/>
-      <c r="AC22" s="193"/>
-      <c r="AD22" s="193"/>
-      <c r="AE22" s="193"/>
-      <c r="AF22" s="193"/>
-      <c r="AG22" s="193"/>
-      <c r="AH22" s="193"/>
-      <c r="AI22" s="193"/>
-      <c r="AJ22" s="193"/>
-      <c r="AK22" s="194"/>
-    </row>
-    <row r="23" spans="1:37" s="6" customFormat="1" ht="16.75" customHeight="1">
-      <c r="C23" s="177"/>
-      <c r="D23" s="178"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="178"/>
-      <c r="G23" s="178"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="178"/>
-      <c r="J23" s="178"/>
-      <c r="K23" s="178"/>
-      <c r="L23" s="178"/>
-      <c r="M23" s="178"/>
-      <c r="N23" s="178"/>
-      <c r="O23" s="178"/>
-      <c r="P23" s="178"/>
-      <c r="Q23" s="178"/>
-      <c r="R23" s="178"/>
-      <c r="S23" s="179"/>
-      <c r="T23" s="195"/>
-      <c r="U23" s="196"/>
-      <c r="V23" s="196"/>
-      <c r="W23" s="196"/>
-      <c r="X23" s="196"/>
-      <c r="Y23" s="196"/>
-      <c r="Z23" s="196"/>
-      <c r="AA23" s="196"/>
-      <c r="AB23" s="196"/>
-      <c r="AC23" s="196"/>
-      <c r="AD23" s="196"/>
-      <c r="AE23" s="196"/>
-      <c r="AF23" s="196"/>
-      <c r="AG23" s="196"/>
-      <c r="AH23" s="196"/>
-      <c r="AI23" s="196"/>
-      <c r="AJ23" s="196"/>
-      <c r="AK23" s="197"/>
-    </row>
-    <row r="24" spans="1:37" s="6" customFormat="1" ht="16.75" customHeight="1" thickBot="1">
-      <c r="C24" s="171" t="s">
+      <c r="U21" s="189"/>
+      <c r="V21" s="189"/>
+      <c r="W21" s="189"/>
+      <c r="X21" s="189"/>
+      <c r="Y21" s="189"/>
+      <c r="Z21" s="189"/>
+      <c r="AA21" s="189"/>
+      <c r="AB21" s="189"/>
+      <c r="AC21" s="189"/>
+      <c r="AD21" s="189"/>
+      <c r="AE21" s="189"/>
+      <c r="AF21" s="189"/>
+      <c r="AG21" s="189"/>
+      <c r="AH21" s="189"/>
+      <c r="AI21" s="189"/>
+      <c r="AJ21" s="189"/>
+      <c r="AK21" s="190"/>
+    </row>
+    <row r="22" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="173"/>
+      <c r="D22" s="174"/>
+      <c r="E22" s="174"/>
+      <c r="F22" s="174"/>
+      <c r="G22" s="174"/>
+      <c r="H22" s="174"/>
+      <c r="I22" s="174"/>
+      <c r="J22" s="174"/>
+      <c r="K22" s="174"/>
+      <c r="L22" s="174"/>
+      <c r="M22" s="174"/>
+      <c r="N22" s="174"/>
+      <c r="O22" s="174"/>
+      <c r="P22" s="174"/>
+      <c r="Q22" s="174"/>
+      <c r="R22" s="174"/>
+      <c r="S22" s="175"/>
+      <c r="T22" s="191"/>
+      <c r="U22" s="192"/>
+      <c r="V22" s="192"/>
+      <c r="W22" s="192"/>
+      <c r="X22" s="192"/>
+      <c r="Y22" s="192"/>
+      <c r="Z22" s="192"/>
+      <c r="AA22" s="192"/>
+      <c r="AB22" s="192"/>
+      <c r="AC22" s="192"/>
+      <c r="AD22" s="192"/>
+      <c r="AE22" s="192"/>
+      <c r="AF22" s="192"/>
+      <c r="AG22" s="192"/>
+      <c r="AH22" s="192"/>
+      <c r="AI22" s="192"/>
+      <c r="AJ22" s="192"/>
+      <c r="AK22" s="193"/>
+    </row>
+    <row r="23" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="176"/>
+      <c r="D23" s="177"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="177"/>
+      <c r="I23" s="177"/>
+      <c r="J23" s="177"/>
+      <c r="K23" s="177"/>
+      <c r="L23" s="177"/>
+      <c r="M23" s="177"/>
+      <c r="N23" s="177"/>
+      <c r="O23" s="177"/>
+      <c r="P23" s="177"/>
+      <c r="Q23" s="177"/>
+      <c r="R23" s="177"/>
+      <c r="S23" s="178"/>
+      <c r="T23" s="194"/>
+      <c r="U23" s="195"/>
+      <c r="V23" s="195"/>
+      <c r="W23" s="195"/>
+      <c r="X23" s="195"/>
+      <c r="Y23" s="195"/>
+      <c r="Z23" s="195"/>
+      <c r="AA23" s="195"/>
+      <c r="AB23" s="195"/>
+      <c r="AC23" s="195"/>
+      <c r="AD23" s="195"/>
+      <c r="AE23" s="195"/>
+      <c r="AF23" s="195"/>
+      <c r="AG23" s="195"/>
+      <c r="AH23" s="195"/>
+      <c r="AI23" s="195"/>
+      <c r="AJ23" s="195"/>
+      <c r="AK23" s="196"/>
+    </row>
+    <row r="24" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="170" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="172"/>
-      <c r="E24" s="172"/>
-      <c r="F24" s="172"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="172"/>
-      <c r="K24" s="172"/>
-      <c r="L24" s="172"/>
-      <c r="M24" s="172"/>
-      <c r="N24" s="172"/>
-      <c r="O24" s="172"/>
-      <c r="P24" s="172"/>
-      <c r="Q24" s="172"/>
-      <c r="R24" s="172"/>
-      <c r="S24" s="173"/>
-      <c r="T24" s="189" t="s">
+      <c r="D24" s="171"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="171"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="171"/>
+      <c r="I24" s="171"/>
+      <c r="J24" s="171"/>
+      <c r="K24" s="171"/>
+      <c r="L24" s="171"/>
+      <c r="M24" s="171"/>
+      <c r="N24" s="171"/>
+      <c r="O24" s="171"/>
+      <c r="P24" s="171"/>
+      <c r="Q24" s="171"/>
+      <c r="R24" s="171"/>
+      <c r="S24" s="172"/>
+      <c r="T24" s="188" t="s">
         <v>67</v>
       </c>
-      <c r="U24" s="190"/>
-      <c r="V24" s="190"/>
-      <c r="W24" s="190"/>
-      <c r="X24" s="190"/>
-      <c r="Y24" s="190"/>
-      <c r="Z24" s="190"/>
-      <c r="AA24" s="190"/>
-      <c r="AB24" s="190"/>
-      <c r="AC24" s="190"/>
-      <c r="AD24" s="190"/>
-      <c r="AE24" s="190"/>
-      <c r="AF24" s="190"/>
-      <c r="AG24" s="190"/>
-      <c r="AH24" s="190"/>
-      <c r="AI24" s="190"/>
-      <c r="AJ24" s="190"/>
-      <c r="AK24" s="191"/>
-    </row>
-    <row r="25" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="U24" s="189"/>
+      <c r="V24" s="189"/>
+      <c r="W24" s="189"/>
+      <c r="X24" s="189"/>
+      <c r="Y24" s="189"/>
+      <c r="Z24" s="189"/>
+      <c r="AA24" s="189"/>
+      <c r="AB24" s="189"/>
+      <c r="AC24" s="189"/>
+      <c r="AD24" s="189"/>
+      <c r="AE24" s="189"/>
+      <c r="AF24" s="189"/>
+      <c r="AG24" s="189"/>
+      <c r="AH24" s="189"/>
+      <c r="AI24" s="189"/>
+      <c r="AJ24" s="189"/>
+      <c r="AK24" s="190"/>
+    </row>
+    <row r="25" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="60" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="63"/>
-      <c r="C25" s="177"/>
-      <c r="D25" s="178"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="178"/>
-      <c r="G25" s="178"/>
-      <c r="H25" s="178"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="178"/>
-      <c r="K25" s="178"/>
-      <c r="L25" s="178"/>
-      <c r="M25" s="178"/>
-      <c r="N25" s="178"/>
-      <c r="O25" s="178"/>
-      <c r="P25" s="178"/>
-      <c r="Q25" s="178"/>
-      <c r="R25" s="178"/>
-      <c r="S25" s="179"/>
-      <c r="T25" s="195"/>
-      <c r="U25" s="196"/>
-      <c r="V25" s="196"/>
-      <c r="W25" s="196"/>
-      <c r="X25" s="196"/>
-      <c r="Y25" s="196"/>
-      <c r="Z25" s="196"/>
-      <c r="AA25" s="196"/>
-      <c r="AB25" s="196"/>
-      <c r="AC25" s="196"/>
-      <c r="AD25" s="196"/>
-      <c r="AE25" s="196"/>
-      <c r="AF25" s="196"/>
-      <c r="AG25" s="196"/>
-      <c r="AH25" s="196"/>
-      <c r="AI25" s="196"/>
-      <c r="AJ25" s="196"/>
-      <c r="AK25" s="197"/>
-    </row>
-    <row r="26" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="C25" s="176"/>
+      <c r="D25" s="177"/>
+      <c r="E25" s="177"/>
+      <c r="F25" s="177"/>
+      <c r="G25" s="177"/>
+      <c r="H25" s="177"/>
+      <c r="I25" s="177"/>
+      <c r="J25" s="177"/>
+      <c r="K25" s="177"/>
+      <c r="L25" s="177"/>
+      <c r="M25" s="177"/>
+      <c r="N25" s="177"/>
+      <c r="O25" s="177"/>
+      <c r="P25" s="177"/>
+      <c r="Q25" s="177"/>
+      <c r="R25" s="177"/>
+      <c r="S25" s="178"/>
+      <c r="T25" s="194"/>
+      <c r="U25" s="195"/>
+      <c r="V25" s="195"/>
+      <c r="W25" s="195"/>
+      <c r="X25" s="195"/>
+      <c r="Y25" s="195"/>
+      <c r="Z25" s="195"/>
+      <c r="AA25" s="195"/>
+      <c r="AB25" s="195"/>
+      <c r="AC25" s="195"/>
+      <c r="AD25" s="195"/>
+      <c r="AE25" s="195"/>
+      <c r="AF25" s="195"/>
+      <c r="AG25" s="195"/>
+      <c r="AH25" s="195"/>
+      <c r="AI25" s="195"/>
+      <c r="AJ25" s="195"/>
+      <c r="AK25" s="196"/>
+    </row>
+    <row r="26" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="61"/>
       <c r="B26" s="64"/>
-      <c r="C26" s="171" t="s">
+      <c r="C26" s="170" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="172"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="172"/>
-      <c r="I26" s="172"/>
-      <c r="J26" s="172"/>
-      <c r="K26" s="172"/>
-      <c r="L26" s="172"/>
-      <c r="M26" s="172"/>
-      <c r="N26" s="172"/>
-      <c r="O26" s="172"/>
-      <c r="P26" s="172"/>
-      <c r="Q26" s="172"/>
-      <c r="R26" s="172"/>
-      <c r="S26" s="173"/>
-      <c r="T26" s="171" t="s">
+      <c r="D26" s="171"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="171"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="171"/>
+      <c r="I26" s="171"/>
+      <c r="J26" s="171"/>
+      <c r="K26" s="171"/>
+      <c r="L26" s="171"/>
+      <c r="M26" s="171"/>
+      <c r="N26" s="171"/>
+      <c r="O26" s="171"/>
+      <c r="P26" s="171"/>
+      <c r="Q26" s="171"/>
+      <c r="R26" s="171"/>
+      <c r="S26" s="172"/>
+      <c r="T26" s="170" t="s">
         <v>66</v>
       </c>
-      <c r="U26" s="172"/>
-      <c r="V26" s="172"/>
-      <c r="W26" s="172"/>
-      <c r="X26" s="172"/>
-      <c r="Y26" s="172"/>
-      <c r="Z26" s="172"/>
-      <c r="AA26" s="172"/>
-      <c r="AB26" s="172"/>
-      <c r="AC26" s="172"/>
-      <c r="AD26" s="172"/>
-      <c r="AE26" s="172"/>
-      <c r="AF26" s="172"/>
-      <c r="AG26" s="172"/>
-      <c r="AH26" s="172"/>
-      <c r="AI26" s="172"/>
-      <c r="AJ26" s="172"/>
-      <c r="AK26" s="173"/>
-    </row>
-    <row r="27" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="U26" s="171"/>
+      <c r="V26" s="171"/>
+      <c r="W26" s="171"/>
+      <c r="X26" s="171"/>
+      <c r="Y26" s="171"/>
+      <c r="Z26" s="171"/>
+      <c r="AA26" s="171"/>
+      <c r="AB26" s="171"/>
+      <c r="AC26" s="171"/>
+      <c r="AD26" s="171"/>
+      <c r="AE26" s="171"/>
+      <c r="AF26" s="171"/>
+      <c r="AG26" s="171"/>
+      <c r="AH26" s="171"/>
+      <c r="AI26" s="171"/>
+      <c r="AJ26" s="171"/>
+      <c r="AK26" s="172"/>
+    </row>
+    <row r="27" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="61"/>
       <c r="B27" s="64"/>
-      <c r="C27" s="174"/>
-      <c r="D27" s="175"/>
-      <c r="E27" s="175"/>
-      <c r="F27" s="175"/>
-      <c r="G27" s="175"/>
-      <c r="H27" s="175"/>
-      <c r="I27" s="175"/>
-      <c r="J27" s="175"/>
-      <c r="K27" s="175"/>
-      <c r="L27" s="175"/>
-      <c r="M27" s="175"/>
-      <c r="N27" s="175"/>
-      <c r="O27" s="175"/>
-      <c r="P27" s="175"/>
-      <c r="Q27" s="175"/>
-      <c r="R27" s="175"/>
-      <c r="S27" s="176"/>
-      <c r="T27" s="174"/>
-      <c r="U27" s="175"/>
-      <c r="V27" s="175"/>
-      <c r="W27" s="175"/>
-      <c r="X27" s="175"/>
-      <c r="Y27" s="175"/>
-      <c r="Z27" s="175"/>
-      <c r="AA27" s="175"/>
-      <c r="AB27" s="175"/>
-      <c r="AC27" s="175"/>
-      <c r="AD27" s="175"/>
-      <c r="AE27" s="175"/>
-      <c r="AF27" s="175"/>
-      <c r="AG27" s="175"/>
-      <c r="AH27" s="175"/>
-      <c r="AI27" s="175"/>
-      <c r="AJ27" s="175"/>
-      <c r="AK27" s="176"/>
-    </row>
-    <row r="28" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="C27" s="173"/>
+      <c r="D27" s="174"/>
+      <c r="E27" s="174"/>
+      <c r="F27" s="174"/>
+      <c r="G27" s="174"/>
+      <c r="H27" s="174"/>
+      <c r="I27" s="174"/>
+      <c r="J27" s="174"/>
+      <c r="K27" s="174"/>
+      <c r="L27" s="174"/>
+      <c r="M27" s="174"/>
+      <c r="N27" s="174"/>
+      <c r="O27" s="174"/>
+      <c r="P27" s="174"/>
+      <c r="Q27" s="174"/>
+      <c r="R27" s="174"/>
+      <c r="S27" s="175"/>
+      <c r="T27" s="173"/>
+      <c r="U27" s="174"/>
+      <c r="V27" s="174"/>
+      <c r="W27" s="174"/>
+      <c r="X27" s="174"/>
+      <c r="Y27" s="174"/>
+      <c r="Z27" s="174"/>
+      <c r="AA27" s="174"/>
+      <c r="AB27" s="174"/>
+      <c r="AC27" s="174"/>
+      <c r="AD27" s="174"/>
+      <c r="AE27" s="174"/>
+      <c r="AF27" s="174"/>
+      <c r="AG27" s="174"/>
+      <c r="AH27" s="174"/>
+      <c r="AI27" s="174"/>
+      <c r="AJ27" s="174"/>
+      <c r="AK27" s="175"/>
+    </row>
+    <row r="28" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="61"/>
       <c r="B28" s="64"/>
-      <c r="C28" s="177"/>
-      <c r="D28" s="178"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="178"/>
-      <c r="G28" s="178"/>
-      <c r="H28" s="178"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="178"/>
-      <c r="K28" s="178"/>
-      <c r="L28" s="178"/>
-      <c r="M28" s="178"/>
-      <c r="N28" s="178"/>
-      <c r="O28" s="178"/>
-      <c r="P28" s="178"/>
-      <c r="Q28" s="178"/>
-      <c r="R28" s="178"/>
-      <c r="S28" s="179"/>
-      <c r="T28" s="177"/>
-      <c r="U28" s="178"/>
-      <c r="V28" s="178"/>
-      <c r="W28" s="178"/>
-      <c r="X28" s="178"/>
-      <c r="Y28" s="178"/>
-      <c r="Z28" s="178"/>
-      <c r="AA28" s="178"/>
-      <c r="AB28" s="178"/>
-      <c r="AC28" s="178"/>
-      <c r="AD28" s="178"/>
-      <c r="AE28" s="178"/>
-      <c r="AF28" s="178"/>
-      <c r="AG28" s="178"/>
-      <c r="AH28" s="178"/>
-      <c r="AI28" s="178"/>
-      <c r="AJ28" s="178"/>
-      <c r="AK28" s="179"/>
-    </row>
-    <row r="29" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="C28" s="176"/>
+      <c r="D28" s="177"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="177"/>
+      <c r="H28" s="177"/>
+      <c r="I28" s="177"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="177"/>
+      <c r="L28" s="177"/>
+      <c r="M28" s="177"/>
+      <c r="N28" s="177"/>
+      <c r="O28" s="177"/>
+      <c r="P28" s="177"/>
+      <c r="Q28" s="177"/>
+      <c r="R28" s="177"/>
+      <c r="S28" s="178"/>
+      <c r="T28" s="176"/>
+      <c r="U28" s="177"/>
+      <c r="V28" s="177"/>
+      <c r="W28" s="177"/>
+      <c r="X28" s="177"/>
+      <c r="Y28" s="177"/>
+      <c r="Z28" s="177"/>
+      <c r="AA28" s="177"/>
+      <c r="AB28" s="177"/>
+      <c r="AC28" s="177"/>
+      <c r="AD28" s="177"/>
+      <c r="AE28" s="177"/>
+      <c r="AF28" s="177"/>
+      <c r="AG28" s="177"/>
+      <c r="AH28" s="177"/>
+      <c r="AI28" s="177"/>
+      <c r="AJ28" s="177"/>
+      <c r="AK28" s="178"/>
+    </row>
+    <row r="29" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="61"/>
       <c r="B29" s="64"/>
-      <c r="C29" s="171" t="s">
+      <c r="C29" s="170" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="172"/>
-      <c r="E29" s="172"/>
-      <c r="F29" s="172"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="172"/>
-      <c r="I29" s="172"/>
-      <c r="J29" s="172"/>
-      <c r="K29" s="172"/>
-      <c r="L29" s="172"/>
-      <c r="M29" s="172"/>
-      <c r="N29" s="172"/>
-      <c r="O29" s="172"/>
-      <c r="P29" s="172"/>
-      <c r="Q29" s="172"/>
-      <c r="R29" s="172"/>
-      <c r="S29" s="173"/>
-      <c r="T29" s="171" t="s">
+      <c r="D29" s="171"/>
+      <c r="E29" s="171"/>
+      <c r="F29" s="171"/>
+      <c r="G29" s="171"/>
+      <c r="H29" s="171"/>
+      <c r="I29" s="171"/>
+      <c r="J29" s="171"/>
+      <c r="K29" s="171"/>
+      <c r="L29" s="171"/>
+      <c r="M29" s="171"/>
+      <c r="N29" s="171"/>
+      <c r="O29" s="171"/>
+      <c r="P29" s="171"/>
+      <c r="Q29" s="171"/>
+      <c r="R29" s="171"/>
+      <c r="S29" s="172"/>
+      <c r="T29" s="170" t="s">
         <v>65</v>
       </c>
-      <c r="U29" s="172"/>
-      <c r="V29" s="172"/>
-      <c r="W29" s="172"/>
-      <c r="X29" s="172"/>
-      <c r="Y29" s="172"/>
-      <c r="Z29" s="172"/>
-      <c r="AA29" s="172"/>
-      <c r="AB29" s="172"/>
-      <c r="AC29" s="172"/>
-      <c r="AD29" s="172"/>
-      <c r="AE29" s="172"/>
-      <c r="AF29" s="172"/>
-      <c r="AG29" s="172"/>
-      <c r="AH29" s="172"/>
-      <c r="AI29" s="172"/>
-      <c r="AJ29" s="172"/>
-      <c r="AK29" s="173"/>
-    </row>
-    <row r="30" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="U29" s="171"/>
+      <c r="V29" s="171"/>
+      <c r="W29" s="171"/>
+      <c r="X29" s="171"/>
+      <c r="Y29" s="171"/>
+      <c r="Z29" s="171"/>
+      <c r="AA29" s="171"/>
+      <c r="AB29" s="171"/>
+      <c r="AC29" s="171"/>
+      <c r="AD29" s="171"/>
+      <c r="AE29" s="171"/>
+      <c r="AF29" s="171"/>
+      <c r="AG29" s="171"/>
+      <c r="AH29" s="171"/>
+      <c r="AI29" s="171"/>
+      <c r="AJ29" s="171"/>
+      <c r="AK29" s="172"/>
+    </row>
+    <row r="30" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="61"/>
       <c r="B30" s="64"/>
-      <c r="C30" s="177"/>
-      <c r="D30" s="178"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="178"/>
-      <c r="G30" s="178"/>
-      <c r="H30" s="178"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="178"/>
-      <c r="K30" s="178"/>
-      <c r="L30" s="178"/>
-      <c r="M30" s="178"/>
-      <c r="N30" s="178"/>
-      <c r="O30" s="178"/>
-      <c r="P30" s="178"/>
-      <c r="Q30" s="178"/>
-      <c r="R30" s="178"/>
-      <c r="S30" s="179"/>
-      <c r="T30" s="177"/>
-      <c r="U30" s="178"/>
-      <c r="V30" s="178"/>
-      <c r="W30" s="178"/>
-      <c r="X30" s="178"/>
-      <c r="Y30" s="178"/>
-      <c r="Z30" s="178"/>
-      <c r="AA30" s="178"/>
-      <c r="AB30" s="178"/>
-      <c r="AC30" s="178"/>
-      <c r="AD30" s="178"/>
-      <c r="AE30" s="178"/>
-      <c r="AF30" s="178"/>
-      <c r="AG30" s="178"/>
-      <c r="AH30" s="178"/>
-      <c r="AI30" s="178"/>
-      <c r="AJ30" s="178"/>
-      <c r="AK30" s="179"/>
-    </row>
-    <row r="31" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C30" s="176"/>
+      <c r="D30" s="177"/>
+      <c r="E30" s="177"/>
+      <c r="F30" s="177"/>
+      <c r="G30" s="177"/>
+      <c r="H30" s="177"/>
+      <c r="I30" s="177"/>
+      <c r="J30" s="177"/>
+      <c r="K30" s="177"/>
+      <c r="L30" s="177"/>
+      <c r="M30" s="177"/>
+      <c r="N30" s="177"/>
+      <c r="O30" s="177"/>
+      <c r="P30" s="177"/>
+      <c r="Q30" s="177"/>
+      <c r="R30" s="177"/>
+      <c r="S30" s="178"/>
+      <c r="T30" s="176"/>
+      <c r="U30" s="177"/>
+      <c r="V30" s="177"/>
+      <c r="W30" s="177"/>
+      <c r="X30" s="177"/>
+      <c r="Y30" s="177"/>
+      <c r="Z30" s="177"/>
+      <c r="AA30" s="177"/>
+      <c r="AB30" s="177"/>
+      <c r="AC30" s="177"/>
+      <c r="AD30" s="177"/>
+      <c r="AE30" s="177"/>
+      <c r="AF30" s="177"/>
+      <c r="AG30" s="177"/>
+      <c r="AH30" s="177"/>
+      <c r="AI30" s="177"/>
+      <c r="AJ30" s="177"/>
+      <c r="AK30" s="178"/>
+    </row>
+    <row r="31" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="62"/>
       <c r="B31" s="65"/>
-      <c r="C31" s="171" t="s">
+      <c r="C31" s="170" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="172"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="172"/>
-      <c r="H31" s="172"/>
-      <c r="I31" s="172"/>
-      <c r="J31" s="172"/>
-      <c r="K31" s="172"/>
-      <c r="L31" s="172"/>
-      <c r="M31" s="172"/>
-      <c r="N31" s="172"/>
-      <c r="O31" s="172"/>
-      <c r="P31" s="172"/>
-      <c r="Q31" s="172"/>
-      <c r="R31" s="172"/>
-      <c r="S31" s="173"/>
-      <c r="T31" s="171" t="s">
+      <c r="D31" s="171"/>
+      <c r="E31" s="171"/>
+      <c r="F31" s="171"/>
+      <c r="G31" s="171"/>
+      <c r="H31" s="171"/>
+      <c r="I31" s="171"/>
+      <c r="J31" s="171"/>
+      <c r="K31" s="171"/>
+      <c r="L31" s="171"/>
+      <c r="M31" s="171"/>
+      <c r="N31" s="171"/>
+      <c r="O31" s="171"/>
+      <c r="P31" s="171"/>
+      <c r="Q31" s="171"/>
+      <c r="R31" s="171"/>
+      <c r="S31" s="172"/>
+      <c r="T31" s="170" t="s">
         <v>64</v>
       </c>
-      <c r="U31" s="172"/>
-      <c r="V31" s="172"/>
-      <c r="W31" s="172"/>
-      <c r="X31" s="172"/>
-      <c r="Y31" s="172"/>
-      <c r="Z31" s="172"/>
-      <c r="AA31" s="172"/>
-      <c r="AB31" s="172"/>
-      <c r="AC31" s="172"/>
-      <c r="AD31" s="172"/>
-      <c r="AE31" s="172"/>
-      <c r="AF31" s="172"/>
-      <c r="AG31" s="172"/>
-      <c r="AH31" s="172"/>
-      <c r="AI31" s="172"/>
-      <c r="AJ31" s="172"/>
-      <c r="AK31" s="173"/>
-    </row>
-    <row r="32" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="U31" s="171"/>
+      <c r="V31" s="171"/>
+      <c r="W31" s="171"/>
+      <c r="X31" s="171"/>
+      <c r="Y31" s="171"/>
+      <c r="Z31" s="171"/>
+      <c r="AA31" s="171"/>
+      <c r="AB31" s="171"/>
+      <c r="AC31" s="171"/>
+      <c r="AD31" s="171"/>
+      <c r="AE31" s="171"/>
+      <c r="AF31" s="171"/>
+      <c r="AG31" s="171"/>
+      <c r="AH31" s="171"/>
+      <c r="AI31" s="171"/>
+      <c r="AJ31" s="171"/>
+      <c r="AK31" s="172"/>
+    </row>
+    <row r="32" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="60" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="63"/>
-      <c r="C32" s="177"/>
-      <c r="D32" s="178"/>
-      <c r="E32" s="178"/>
-      <c r="F32" s="178"/>
-      <c r="G32" s="178"/>
-      <c r="H32" s="178"/>
-      <c r="I32" s="178"/>
-      <c r="J32" s="178"/>
-      <c r="K32" s="178"/>
-      <c r="L32" s="178"/>
-      <c r="M32" s="178"/>
-      <c r="N32" s="178"/>
-      <c r="O32" s="178"/>
-      <c r="P32" s="178"/>
-      <c r="Q32" s="178"/>
-      <c r="R32" s="178"/>
-      <c r="S32" s="179"/>
-      <c r="T32" s="177"/>
-      <c r="U32" s="178"/>
-      <c r="V32" s="178"/>
-      <c r="W32" s="178"/>
-      <c r="X32" s="178"/>
-      <c r="Y32" s="178"/>
-      <c r="Z32" s="178"/>
-      <c r="AA32" s="178"/>
-      <c r="AB32" s="178"/>
-      <c r="AC32" s="178"/>
-      <c r="AD32" s="178"/>
-      <c r="AE32" s="178"/>
-      <c r="AF32" s="178"/>
-      <c r="AG32" s="178"/>
-      <c r="AH32" s="178"/>
-      <c r="AI32" s="178"/>
-      <c r="AJ32" s="178"/>
-      <c r="AK32" s="179"/>
-    </row>
-    <row r="33" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="C32" s="176"/>
+      <c r="D32" s="177"/>
+      <c r="E32" s="177"/>
+      <c r="F32" s="177"/>
+      <c r="G32" s="177"/>
+      <c r="H32" s="177"/>
+      <c r="I32" s="177"/>
+      <c r="J32" s="177"/>
+      <c r="K32" s="177"/>
+      <c r="L32" s="177"/>
+      <c r="M32" s="177"/>
+      <c r="N32" s="177"/>
+      <c r="O32" s="177"/>
+      <c r="P32" s="177"/>
+      <c r="Q32" s="177"/>
+      <c r="R32" s="177"/>
+      <c r="S32" s="178"/>
+      <c r="T32" s="176"/>
+      <c r="U32" s="177"/>
+      <c r="V32" s="177"/>
+      <c r="W32" s="177"/>
+      <c r="X32" s="177"/>
+      <c r="Y32" s="177"/>
+      <c r="Z32" s="177"/>
+      <c r="AA32" s="177"/>
+      <c r="AB32" s="177"/>
+      <c r="AC32" s="177"/>
+      <c r="AD32" s="177"/>
+      <c r="AE32" s="177"/>
+      <c r="AF32" s="177"/>
+      <c r="AG32" s="177"/>
+      <c r="AH32" s="177"/>
+      <c r="AI32" s="177"/>
+      <c r="AJ32" s="177"/>
+      <c r="AK32" s="178"/>
+    </row>
+    <row r="33" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="61"/>
       <c r="B33" s="64"/>
-      <c r="C33" s="171" t="s">
+      <c r="C33" s="170" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="172"/>
-      <c r="E33" s="172"/>
-      <c r="F33" s="172"/>
-      <c r="G33" s="172"/>
-      <c r="H33" s="172"/>
-      <c r="I33" s="172"/>
-      <c r="J33" s="172"/>
-      <c r="K33" s="172"/>
-      <c r="L33" s="172"/>
-      <c r="M33" s="172"/>
-      <c r="N33" s="172"/>
-      <c r="O33" s="172"/>
-      <c r="P33" s="172"/>
-      <c r="Q33" s="172"/>
-      <c r="R33" s="172"/>
-      <c r="S33" s="173"/>
-      <c r="T33" s="171" t="s">
+      <c r="D33" s="171"/>
+      <c r="E33" s="171"/>
+      <c r="F33" s="171"/>
+      <c r="G33" s="171"/>
+      <c r="H33" s="171"/>
+      <c r="I33" s="171"/>
+      <c r="J33" s="171"/>
+      <c r="K33" s="171"/>
+      <c r="L33" s="171"/>
+      <c r="M33" s="171"/>
+      <c r="N33" s="171"/>
+      <c r="O33" s="171"/>
+      <c r="P33" s="171"/>
+      <c r="Q33" s="171"/>
+      <c r="R33" s="171"/>
+      <c r="S33" s="172"/>
+      <c r="T33" s="170" t="s">
         <v>57</v>
       </c>
-      <c r="U33" s="172"/>
-      <c r="V33" s="172"/>
-      <c r="W33" s="172"/>
-      <c r="X33" s="172"/>
-      <c r="Y33" s="172"/>
-      <c r="Z33" s="172"/>
-      <c r="AA33" s="172"/>
-      <c r="AB33" s="172"/>
-      <c r="AC33" s="172"/>
-      <c r="AD33" s="172"/>
-      <c r="AE33" s="172"/>
-      <c r="AF33" s="172"/>
-      <c r="AG33" s="172"/>
-      <c r="AH33" s="172"/>
-      <c r="AI33" s="172"/>
-      <c r="AJ33" s="172"/>
-      <c r="AK33" s="173"/>
-    </row>
-    <row r="34" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="U33" s="171"/>
+      <c r="V33" s="171"/>
+      <c r="W33" s="171"/>
+      <c r="X33" s="171"/>
+      <c r="Y33" s="171"/>
+      <c r="Z33" s="171"/>
+      <c r="AA33" s="171"/>
+      <c r="AB33" s="171"/>
+      <c r="AC33" s="171"/>
+      <c r="AD33" s="171"/>
+      <c r="AE33" s="171"/>
+      <c r="AF33" s="171"/>
+      <c r="AG33" s="171"/>
+      <c r="AH33" s="171"/>
+      <c r="AI33" s="171"/>
+      <c r="AJ33" s="171"/>
+      <c r="AK33" s="172"/>
+    </row>
+    <row r="34" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="61"/>
       <c r="B34" s="64"/>
-      <c r="C34" s="177"/>
-      <c r="D34" s="178"/>
-      <c r="E34" s="178"/>
-      <c r="F34" s="178"/>
-      <c r="G34" s="178"/>
-      <c r="H34" s="178"/>
-      <c r="I34" s="178"/>
-      <c r="J34" s="178"/>
-      <c r="K34" s="178"/>
-      <c r="L34" s="178"/>
-      <c r="M34" s="178"/>
-      <c r="N34" s="178"/>
-      <c r="O34" s="178"/>
-      <c r="P34" s="178"/>
-      <c r="Q34" s="178"/>
-      <c r="R34" s="178"/>
-      <c r="S34" s="179"/>
-      <c r="T34" s="177"/>
-      <c r="U34" s="178"/>
-      <c r="V34" s="178"/>
-      <c r="W34" s="178"/>
-      <c r="X34" s="178"/>
-      <c r="Y34" s="178"/>
-      <c r="Z34" s="178"/>
-      <c r="AA34" s="178"/>
-      <c r="AB34" s="178"/>
-      <c r="AC34" s="178"/>
-      <c r="AD34" s="178"/>
-      <c r="AE34" s="178"/>
-      <c r="AF34" s="178"/>
-      <c r="AG34" s="178"/>
-      <c r="AH34" s="178"/>
-      <c r="AI34" s="178"/>
-      <c r="AJ34" s="178"/>
-      <c r="AK34" s="179"/>
-    </row>
-    <row r="35" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="C34" s="176"/>
+      <c r="D34" s="177"/>
+      <c r="E34" s="177"/>
+      <c r="F34" s="177"/>
+      <c r="G34" s="177"/>
+      <c r="H34" s="177"/>
+      <c r="I34" s="177"/>
+      <c r="J34" s="177"/>
+      <c r="K34" s="177"/>
+      <c r="L34" s="177"/>
+      <c r="M34" s="177"/>
+      <c r="N34" s="177"/>
+      <c r="O34" s="177"/>
+      <c r="P34" s="177"/>
+      <c r="Q34" s="177"/>
+      <c r="R34" s="177"/>
+      <c r="S34" s="178"/>
+      <c r="T34" s="176"/>
+      <c r="U34" s="177"/>
+      <c r="V34" s="177"/>
+      <c r="W34" s="177"/>
+      <c r="X34" s="177"/>
+      <c r="Y34" s="177"/>
+      <c r="Z34" s="177"/>
+      <c r="AA34" s="177"/>
+      <c r="AB34" s="177"/>
+      <c r="AC34" s="177"/>
+      <c r="AD34" s="177"/>
+      <c r="AE34" s="177"/>
+      <c r="AF34" s="177"/>
+      <c r="AG34" s="177"/>
+      <c r="AH34" s="177"/>
+      <c r="AI34" s="177"/>
+      <c r="AJ34" s="177"/>
+      <c r="AK34" s="178"/>
+    </row>
+    <row r="35" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="61"/>
       <c r="B35" s="64"/>
-      <c r="C35" s="171" t="s">
+      <c r="C35" s="170" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="172"/>
-      <c r="E35" s="172"/>
-      <c r="F35" s="172"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="172"/>
-      <c r="I35" s="172"/>
-      <c r="J35" s="172"/>
-      <c r="K35" s="172"/>
-      <c r="L35" s="172"/>
-      <c r="M35" s="172"/>
-      <c r="N35" s="172"/>
-      <c r="O35" s="172"/>
-      <c r="P35" s="172"/>
-      <c r="Q35" s="172"/>
-      <c r="R35" s="172"/>
-      <c r="S35" s="173"/>
-      <c r="T35" s="171" t="s">
+      <c r="D35" s="171"/>
+      <c r="E35" s="171"/>
+      <c r="F35" s="171"/>
+      <c r="G35" s="171"/>
+      <c r="H35" s="171"/>
+      <c r="I35" s="171"/>
+      <c r="J35" s="171"/>
+      <c r="K35" s="171"/>
+      <c r="L35" s="171"/>
+      <c r="M35" s="171"/>
+      <c r="N35" s="171"/>
+      <c r="O35" s="171"/>
+      <c r="P35" s="171"/>
+      <c r="Q35" s="171"/>
+      <c r="R35" s="171"/>
+      <c r="S35" s="172"/>
+      <c r="T35" s="170" t="s">
         <v>58</v>
       </c>
-      <c r="U35" s="172"/>
-      <c r="V35" s="172"/>
-      <c r="W35" s="172"/>
-      <c r="X35" s="172"/>
-      <c r="Y35" s="172"/>
-      <c r="Z35" s="172"/>
-      <c r="AA35" s="172"/>
-      <c r="AB35" s="172"/>
-      <c r="AC35" s="172"/>
-      <c r="AD35" s="172"/>
-      <c r="AE35" s="172"/>
-      <c r="AF35" s="172"/>
-      <c r="AG35" s="172"/>
-      <c r="AH35" s="172"/>
-      <c r="AI35" s="172"/>
-      <c r="AJ35" s="172"/>
-      <c r="AK35" s="173"/>
-    </row>
-    <row r="36" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="U35" s="171"/>
+      <c r="V35" s="171"/>
+      <c r="W35" s="171"/>
+      <c r="X35" s="171"/>
+      <c r="Y35" s="171"/>
+      <c r="Z35" s="171"/>
+      <c r="AA35" s="171"/>
+      <c r="AB35" s="171"/>
+      <c r="AC35" s="171"/>
+      <c r="AD35" s="171"/>
+      <c r="AE35" s="171"/>
+      <c r="AF35" s="171"/>
+      <c r="AG35" s="171"/>
+      <c r="AH35" s="171"/>
+      <c r="AI35" s="171"/>
+      <c r="AJ35" s="171"/>
+      <c r="AK35" s="172"/>
+    </row>
+    <row r="36" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="62"/>
       <c r="B36" s="65"/>
-      <c r="C36" s="177"/>
-      <c r="D36" s="178"/>
-      <c r="E36" s="178"/>
-      <c r="F36" s="178"/>
-      <c r="G36" s="178"/>
-      <c r="H36" s="178"/>
-      <c r="I36" s="178"/>
-      <c r="J36" s="178"/>
-      <c r="K36" s="178"/>
-      <c r="L36" s="178"/>
-      <c r="M36" s="178"/>
-      <c r="N36" s="178"/>
-      <c r="O36" s="178"/>
-      <c r="P36" s="178"/>
-      <c r="Q36" s="178"/>
-      <c r="R36" s="178"/>
-      <c r="S36" s="179"/>
-      <c r="T36" s="177"/>
-      <c r="U36" s="178"/>
-      <c r="V36" s="178"/>
-      <c r="W36" s="178"/>
-      <c r="X36" s="178"/>
-      <c r="Y36" s="178"/>
-      <c r="Z36" s="178"/>
-      <c r="AA36" s="178"/>
-      <c r="AB36" s="178"/>
-      <c r="AC36" s="178"/>
-      <c r="AD36" s="178"/>
-      <c r="AE36" s="178"/>
-      <c r="AF36" s="178"/>
-      <c r="AG36" s="178"/>
-      <c r="AH36" s="178"/>
-      <c r="AI36" s="178"/>
-      <c r="AJ36" s="178"/>
-      <c r="AK36" s="179"/>
-    </row>
-    <row r="37" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="C36" s="176"/>
+      <c r="D36" s="177"/>
+      <c r="E36" s="177"/>
+      <c r="F36" s="177"/>
+      <c r="G36" s="177"/>
+      <c r="H36" s="177"/>
+      <c r="I36" s="177"/>
+      <c r="J36" s="177"/>
+      <c r="K36" s="177"/>
+      <c r="L36" s="177"/>
+      <c r="M36" s="177"/>
+      <c r="N36" s="177"/>
+      <c r="O36" s="177"/>
+      <c r="P36" s="177"/>
+      <c r="Q36" s="177"/>
+      <c r="R36" s="177"/>
+      <c r="S36" s="178"/>
+      <c r="T36" s="176"/>
+      <c r="U36" s="177"/>
+      <c r="V36" s="177"/>
+      <c r="W36" s="177"/>
+      <c r="X36" s="177"/>
+      <c r="Y36" s="177"/>
+      <c r="Z36" s="177"/>
+      <c r="AA36" s="177"/>
+      <c r="AB36" s="177"/>
+      <c r="AC36" s="177"/>
+      <c r="AD36" s="177"/>
+      <c r="AE36" s="177"/>
+      <c r="AF36" s="177"/>
+      <c r="AG36" s="177"/>
+      <c r="AH36" s="177"/>
+      <c r="AI36" s="177"/>
+      <c r="AJ36" s="177"/>
+      <c r="AK36" s="178"/>
+    </row>
+    <row r="37" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="60" t="s">
         <v>9</v>
       </c>
       <c r="B37" s="63"/>
-      <c r="C37" s="171" t="s">
+      <c r="C37" s="170" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="172"/>
-      <c r="E37" s="172"/>
-      <c r="F37" s="172"/>
-      <c r="G37" s="172"/>
-      <c r="H37" s="172"/>
-      <c r="I37" s="172"/>
-      <c r="J37" s="172"/>
-      <c r="K37" s="172"/>
-      <c r="L37" s="172"/>
-      <c r="M37" s="172"/>
-      <c r="N37" s="172"/>
-      <c r="O37" s="172"/>
-      <c r="P37" s="172"/>
-      <c r="Q37" s="172"/>
-      <c r="R37" s="172"/>
-      <c r="S37" s="173"/>
-      <c r="T37" s="171" t="s">
+      <c r="D37" s="171"/>
+      <c r="E37" s="171"/>
+      <c r="F37" s="171"/>
+      <c r="G37" s="171"/>
+      <c r="H37" s="171"/>
+      <c r="I37" s="171"/>
+      <c r="J37" s="171"/>
+      <c r="K37" s="171"/>
+      <c r="L37" s="171"/>
+      <c r="M37" s="171"/>
+      <c r="N37" s="171"/>
+      <c r="O37" s="171"/>
+      <c r="P37" s="171"/>
+      <c r="Q37" s="171"/>
+      <c r="R37" s="171"/>
+      <c r="S37" s="172"/>
+      <c r="T37" s="170" t="s">
         <v>68</v>
       </c>
-      <c r="U37" s="172"/>
-      <c r="V37" s="172"/>
-      <c r="W37" s="172"/>
-      <c r="X37" s="172"/>
-      <c r="Y37" s="172"/>
-      <c r="Z37" s="172"/>
-      <c r="AA37" s="172"/>
-      <c r="AB37" s="172"/>
-      <c r="AC37" s="172"/>
-      <c r="AD37" s="172"/>
-      <c r="AE37" s="172"/>
-      <c r="AF37" s="172"/>
-      <c r="AG37" s="172"/>
-      <c r="AH37" s="172"/>
-      <c r="AI37" s="172"/>
-      <c r="AJ37" s="172"/>
-      <c r="AK37" s="173"/>
-    </row>
-    <row r="38" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="U37" s="171"/>
+      <c r="V37" s="171"/>
+      <c r="W37" s="171"/>
+      <c r="X37" s="171"/>
+      <c r="Y37" s="171"/>
+      <c r="Z37" s="171"/>
+      <c r="AA37" s="171"/>
+      <c r="AB37" s="171"/>
+      <c r="AC37" s="171"/>
+      <c r="AD37" s="171"/>
+      <c r="AE37" s="171"/>
+      <c r="AF37" s="171"/>
+      <c r="AG37" s="171"/>
+      <c r="AH37" s="171"/>
+      <c r="AI37" s="171"/>
+      <c r="AJ37" s="171"/>
+      <c r="AK37" s="172"/>
+    </row>
+    <row r="38" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="61"/>
       <c r="B38" s="64"/>
-      <c r="C38" s="174"/>
-      <c r="D38" s="175"/>
-      <c r="E38" s="175"/>
-      <c r="F38" s="175"/>
-      <c r="G38" s="175"/>
-      <c r="H38" s="175"/>
-      <c r="I38" s="175"/>
-      <c r="J38" s="175"/>
-      <c r="K38" s="175"/>
-      <c r="L38" s="175"/>
-      <c r="M38" s="175"/>
-      <c r="N38" s="175"/>
-      <c r="O38" s="175"/>
-      <c r="P38" s="175"/>
-      <c r="Q38" s="175"/>
-      <c r="R38" s="175"/>
-      <c r="S38" s="176"/>
-      <c r="T38" s="174"/>
-      <c r="U38" s="175"/>
-      <c r="V38" s="175"/>
-      <c r="W38" s="175"/>
-      <c r="X38" s="175"/>
-      <c r="Y38" s="175"/>
-      <c r="Z38" s="175"/>
-      <c r="AA38" s="175"/>
-      <c r="AB38" s="175"/>
-      <c r="AC38" s="175"/>
-      <c r="AD38" s="175"/>
-      <c r="AE38" s="175"/>
-      <c r="AF38" s="175"/>
-      <c r="AG38" s="175"/>
-      <c r="AH38" s="175"/>
-      <c r="AI38" s="175"/>
-      <c r="AJ38" s="175"/>
-      <c r="AK38" s="176"/>
-    </row>
-    <row r="39" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="C38" s="173"/>
+      <c r="D38" s="174"/>
+      <c r="E38" s="174"/>
+      <c r="F38" s="174"/>
+      <c r="G38" s="174"/>
+      <c r="H38" s="174"/>
+      <c r="I38" s="174"/>
+      <c r="J38" s="174"/>
+      <c r="K38" s="174"/>
+      <c r="L38" s="174"/>
+      <c r="M38" s="174"/>
+      <c r="N38" s="174"/>
+      <c r="O38" s="174"/>
+      <c r="P38" s="174"/>
+      <c r="Q38" s="174"/>
+      <c r="R38" s="174"/>
+      <c r="S38" s="175"/>
+      <c r="T38" s="173"/>
+      <c r="U38" s="174"/>
+      <c r="V38" s="174"/>
+      <c r="W38" s="174"/>
+      <c r="X38" s="174"/>
+      <c r="Y38" s="174"/>
+      <c r="Z38" s="174"/>
+      <c r="AA38" s="174"/>
+      <c r="AB38" s="174"/>
+      <c r="AC38" s="174"/>
+      <c r="AD38" s="174"/>
+      <c r="AE38" s="174"/>
+      <c r="AF38" s="174"/>
+      <c r="AG38" s="174"/>
+      <c r="AH38" s="174"/>
+      <c r="AI38" s="174"/>
+      <c r="AJ38" s="174"/>
+      <c r="AK38" s="175"/>
+    </row>
+    <row r="39" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="61"/>
       <c r="B39" s="64"/>
-      <c r="C39" s="174"/>
-      <c r="D39" s="175"/>
-      <c r="E39" s="175"/>
-      <c r="F39" s="175"/>
-      <c r="G39" s="175"/>
-      <c r="H39" s="175"/>
-      <c r="I39" s="175"/>
-      <c r="J39" s="175"/>
-      <c r="K39" s="175"/>
-      <c r="L39" s="175"/>
-      <c r="M39" s="175"/>
-      <c r="N39" s="175"/>
-      <c r="O39" s="175"/>
-      <c r="P39" s="175"/>
-      <c r="Q39" s="175"/>
-      <c r="R39" s="175"/>
-      <c r="S39" s="176"/>
-      <c r="T39" s="174"/>
-      <c r="U39" s="175"/>
-      <c r="V39" s="175"/>
-      <c r="W39" s="175"/>
-      <c r="X39" s="175"/>
-      <c r="Y39" s="175"/>
-      <c r="Z39" s="175"/>
-      <c r="AA39" s="175"/>
-      <c r="AB39" s="175"/>
-      <c r="AC39" s="175"/>
-      <c r="AD39" s="175"/>
-      <c r="AE39" s="175"/>
-      <c r="AF39" s="175"/>
-      <c r="AG39" s="175"/>
-      <c r="AH39" s="175"/>
-      <c r="AI39" s="175"/>
-      <c r="AJ39" s="175"/>
-      <c r="AK39" s="176"/>
-    </row>
-    <row r="40" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="C39" s="173"/>
+      <c r="D39" s="174"/>
+      <c r="E39" s="174"/>
+      <c r="F39" s="174"/>
+      <c r="G39" s="174"/>
+      <c r="H39" s="174"/>
+      <c r="I39" s="174"/>
+      <c r="J39" s="174"/>
+      <c r="K39" s="174"/>
+      <c r="L39" s="174"/>
+      <c r="M39" s="174"/>
+      <c r="N39" s="174"/>
+      <c r="O39" s="174"/>
+      <c r="P39" s="174"/>
+      <c r="Q39" s="174"/>
+      <c r="R39" s="174"/>
+      <c r="S39" s="175"/>
+      <c r="T39" s="173"/>
+      <c r="U39" s="174"/>
+      <c r="V39" s="174"/>
+      <c r="W39" s="174"/>
+      <c r="X39" s="174"/>
+      <c r="Y39" s="174"/>
+      <c r="Z39" s="174"/>
+      <c r="AA39" s="174"/>
+      <c r="AB39" s="174"/>
+      <c r="AC39" s="174"/>
+      <c r="AD39" s="174"/>
+      <c r="AE39" s="174"/>
+      <c r="AF39" s="174"/>
+      <c r="AG39" s="174"/>
+      <c r="AH39" s="174"/>
+      <c r="AI39" s="174"/>
+      <c r="AJ39" s="174"/>
+      <c r="AK39" s="175"/>
+    </row>
+    <row r="40" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="61"/>
       <c r="B40" s="64"/>
-      <c r="C40" s="177"/>
-      <c r="D40" s="178"/>
-      <c r="E40" s="178"/>
-      <c r="F40" s="178"/>
-      <c r="G40" s="178"/>
-      <c r="H40" s="178"/>
-      <c r="I40" s="178"/>
-      <c r="J40" s="178"/>
-      <c r="K40" s="178"/>
-      <c r="L40" s="178"/>
-      <c r="M40" s="178"/>
-      <c r="N40" s="178"/>
-      <c r="O40" s="178"/>
-      <c r="P40" s="178"/>
-      <c r="Q40" s="178"/>
-      <c r="R40" s="178"/>
-      <c r="S40" s="179"/>
-      <c r="T40" s="177"/>
-      <c r="U40" s="178"/>
-      <c r="V40" s="178"/>
-      <c r="W40" s="178"/>
-      <c r="X40" s="178"/>
-      <c r="Y40" s="178"/>
-      <c r="Z40" s="178"/>
-      <c r="AA40" s="178"/>
-      <c r="AB40" s="178"/>
-      <c r="AC40" s="178"/>
-      <c r="AD40" s="178"/>
-      <c r="AE40" s="178"/>
-      <c r="AF40" s="178"/>
-      <c r="AG40" s="178"/>
-      <c r="AH40" s="178"/>
-      <c r="AI40" s="178"/>
-      <c r="AJ40" s="178"/>
-      <c r="AK40" s="179"/>
-    </row>
-    <row r="41" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C40" s="176"/>
+      <c r="D40" s="177"/>
+      <c r="E40" s="177"/>
+      <c r="F40" s="177"/>
+      <c r="G40" s="177"/>
+      <c r="H40" s="177"/>
+      <c r="I40" s="177"/>
+      <c r="J40" s="177"/>
+      <c r="K40" s="177"/>
+      <c r="L40" s="177"/>
+      <c r="M40" s="177"/>
+      <c r="N40" s="177"/>
+      <c r="O40" s="177"/>
+      <c r="P40" s="177"/>
+      <c r="Q40" s="177"/>
+      <c r="R40" s="177"/>
+      <c r="S40" s="178"/>
+      <c r="T40" s="176"/>
+      <c r="U40" s="177"/>
+      <c r="V40" s="177"/>
+      <c r="W40" s="177"/>
+      <c r="X40" s="177"/>
+      <c r="Y40" s="177"/>
+      <c r="Z40" s="177"/>
+      <c r="AA40" s="177"/>
+      <c r="AB40" s="177"/>
+      <c r="AC40" s="177"/>
+      <c r="AD40" s="177"/>
+      <c r="AE40" s="177"/>
+      <c r="AF40" s="177"/>
+      <c r="AG40" s="177"/>
+      <c r="AH40" s="177"/>
+      <c r="AI40" s="177"/>
+      <c r="AJ40" s="177"/>
+      <c r="AK40" s="178"/>
+    </row>
+    <row r="41" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="62"/>
       <c r="B41" s="65"/>
-      <c r="C41" s="174" t="s">
+      <c r="C41" s="173" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="175"/>
-      <c r="E41" s="175"/>
-      <c r="F41" s="175"/>
-      <c r="G41" s="175"/>
-      <c r="H41" s="175"/>
-      <c r="I41" s="175"/>
-      <c r="J41" s="175"/>
-      <c r="K41" s="175"/>
-      <c r="L41" s="175"/>
-      <c r="M41" s="175"/>
-      <c r="N41" s="175"/>
-      <c r="O41" s="175"/>
-      <c r="P41" s="175"/>
-      <c r="Q41" s="175"/>
-      <c r="R41" s="175"/>
-      <c r="S41" s="176"/>
-      <c r="T41" s="171" t="s">
+      <c r="D41" s="174"/>
+      <c r="E41" s="174"/>
+      <c r="F41" s="174"/>
+      <c r="G41" s="174"/>
+      <c r="H41" s="174"/>
+      <c r="I41" s="174"/>
+      <c r="J41" s="174"/>
+      <c r="K41" s="174"/>
+      <c r="L41" s="174"/>
+      <c r="M41" s="174"/>
+      <c r="N41" s="174"/>
+      <c r="O41" s="174"/>
+      <c r="P41" s="174"/>
+      <c r="Q41" s="174"/>
+      <c r="R41" s="174"/>
+      <c r="S41" s="175"/>
+      <c r="T41" s="170" t="s">
         <v>69</v>
       </c>
-      <c r="U41" s="172"/>
-      <c r="V41" s="172"/>
-      <c r="W41" s="172"/>
-      <c r="X41" s="172"/>
-      <c r="Y41" s="172"/>
-      <c r="Z41" s="172"/>
-      <c r="AA41" s="172"/>
-      <c r="AB41" s="172"/>
-      <c r="AC41" s="172"/>
-      <c r="AD41" s="172"/>
-      <c r="AE41" s="172"/>
-      <c r="AF41" s="172"/>
-      <c r="AG41" s="172"/>
-      <c r="AH41" s="172"/>
-      <c r="AI41" s="172"/>
-      <c r="AJ41" s="172"/>
-      <c r="AK41" s="173"/>
-    </row>
-    <row r="42" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="U41" s="171"/>
+      <c r="V41" s="171"/>
+      <c r="W41" s="171"/>
+      <c r="X41" s="171"/>
+      <c r="Y41" s="171"/>
+      <c r="Z41" s="171"/>
+      <c r="AA41" s="171"/>
+      <c r="AB41" s="171"/>
+      <c r="AC41" s="171"/>
+      <c r="AD41" s="171"/>
+      <c r="AE41" s="171"/>
+      <c r="AF41" s="171"/>
+      <c r="AG41" s="171"/>
+      <c r="AH41" s="171"/>
+      <c r="AI41" s="171"/>
+      <c r="AJ41" s="171"/>
+      <c r="AK41" s="172"/>
+    </row>
+    <row r="42" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="60" t="s">
         <v>8</v>
       </c>
       <c r="B42" s="63"/>
-      <c r="C42" s="174"/>
-      <c r="D42" s="175"/>
-      <c r="E42" s="175"/>
-      <c r="F42" s="175"/>
-      <c r="G42" s="175"/>
-      <c r="H42" s="175"/>
-      <c r="I42" s="175"/>
-      <c r="J42" s="175"/>
-      <c r="K42" s="175"/>
-      <c r="L42" s="175"/>
-      <c r="M42" s="175"/>
-      <c r="N42" s="175"/>
-      <c r="O42" s="175"/>
-      <c r="P42" s="175"/>
-      <c r="Q42" s="175"/>
-      <c r="R42" s="175"/>
-      <c r="S42" s="176"/>
-      <c r="T42" s="174"/>
-      <c r="U42" s="175"/>
-      <c r="V42" s="175"/>
-      <c r="W42" s="175"/>
-      <c r="X42" s="175"/>
-      <c r="Y42" s="175"/>
-      <c r="Z42" s="175"/>
-      <c r="AA42" s="175"/>
-      <c r="AB42" s="175"/>
-      <c r="AC42" s="175"/>
-      <c r="AD42" s="175"/>
-      <c r="AE42" s="175"/>
-      <c r="AF42" s="175"/>
-      <c r="AG42" s="175"/>
-      <c r="AH42" s="175"/>
-      <c r="AI42" s="175"/>
-      <c r="AJ42" s="175"/>
-      <c r="AK42" s="176"/>
-    </row>
-    <row r="43" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="C42" s="173"/>
+      <c r="D42" s="174"/>
+      <c r="E42" s="174"/>
+      <c r="F42" s="174"/>
+      <c r="G42" s="174"/>
+      <c r="H42" s="174"/>
+      <c r="I42" s="174"/>
+      <c r="J42" s="174"/>
+      <c r="K42" s="174"/>
+      <c r="L42" s="174"/>
+      <c r="M42" s="174"/>
+      <c r="N42" s="174"/>
+      <c r="O42" s="174"/>
+      <c r="P42" s="174"/>
+      <c r="Q42" s="174"/>
+      <c r="R42" s="174"/>
+      <c r="S42" s="175"/>
+      <c r="T42" s="173"/>
+      <c r="U42" s="174"/>
+      <c r="V42" s="174"/>
+      <c r="W42" s="174"/>
+      <c r="X42" s="174"/>
+      <c r="Y42" s="174"/>
+      <c r="Z42" s="174"/>
+      <c r="AA42" s="174"/>
+      <c r="AB42" s="174"/>
+      <c r="AC42" s="174"/>
+      <c r="AD42" s="174"/>
+      <c r="AE42" s="174"/>
+      <c r="AF42" s="174"/>
+      <c r="AG42" s="174"/>
+      <c r="AH42" s="174"/>
+      <c r="AI42" s="174"/>
+      <c r="AJ42" s="174"/>
+      <c r="AK42" s="175"/>
+    </row>
+    <row r="43" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="61"/>
       <c r="B43" s="64"/>
-      <c r="C43" s="177"/>
-      <c r="D43" s="178"/>
-      <c r="E43" s="178"/>
-      <c r="F43" s="178"/>
-      <c r="G43" s="178"/>
-      <c r="H43" s="178"/>
-      <c r="I43" s="178"/>
-      <c r="J43" s="178"/>
-      <c r="K43" s="178"/>
-      <c r="L43" s="178"/>
-      <c r="M43" s="178"/>
-      <c r="N43" s="178"/>
-      <c r="O43" s="178"/>
-      <c r="P43" s="178"/>
-      <c r="Q43" s="178"/>
-      <c r="R43" s="178"/>
-      <c r="S43" s="179"/>
-      <c r="T43" s="177"/>
-      <c r="U43" s="178"/>
-      <c r="V43" s="178"/>
-      <c r="W43" s="178"/>
-      <c r="X43" s="178"/>
-      <c r="Y43" s="178"/>
-      <c r="Z43" s="178"/>
-      <c r="AA43" s="178"/>
-      <c r="AB43" s="178"/>
-      <c r="AC43" s="178"/>
-      <c r="AD43" s="178"/>
-      <c r="AE43" s="178"/>
-      <c r="AF43" s="178"/>
-      <c r="AG43" s="178"/>
-      <c r="AH43" s="178"/>
-      <c r="AI43" s="178"/>
-      <c r="AJ43" s="178"/>
-      <c r="AK43" s="179"/>
-    </row>
-    <row r="44" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="C43" s="176"/>
+      <c r="D43" s="177"/>
+      <c r="E43" s="177"/>
+      <c r="F43" s="177"/>
+      <c r="G43" s="177"/>
+      <c r="H43" s="177"/>
+      <c r="I43" s="177"/>
+      <c r="J43" s="177"/>
+      <c r="K43" s="177"/>
+      <c r="L43" s="177"/>
+      <c r="M43" s="177"/>
+      <c r="N43" s="177"/>
+      <c r="O43" s="177"/>
+      <c r="P43" s="177"/>
+      <c r="Q43" s="177"/>
+      <c r="R43" s="177"/>
+      <c r="S43" s="178"/>
+      <c r="T43" s="176"/>
+      <c r="U43" s="177"/>
+      <c r="V43" s="177"/>
+      <c r="W43" s="177"/>
+      <c r="X43" s="177"/>
+      <c r="Y43" s="177"/>
+      <c r="Z43" s="177"/>
+      <c r="AA43" s="177"/>
+      <c r="AB43" s="177"/>
+      <c r="AC43" s="177"/>
+      <c r="AD43" s="177"/>
+      <c r="AE43" s="177"/>
+      <c r="AF43" s="177"/>
+      <c r="AG43" s="177"/>
+      <c r="AH43" s="177"/>
+      <c r="AI43" s="177"/>
+      <c r="AJ43" s="177"/>
+      <c r="AK43" s="178"/>
+    </row>
+    <row r="44" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="61"/>
       <c r="B44" s="64"/>
-      <c r="C44" s="174" t="s">
+      <c r="C44" s="173" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="175"/>
-      <c r="E44" s="175"/>
-      <c r="F44" s="175"/>
-      <c r="G44" s="175"/>
-      <c r="H44" s="175"/>
-      <c r="I44" s="175"/>
-      <c r="J44" s="175"/>
-      <c r="K44" s="175"/>
-      <c r="L44" s="175"/>
-      <c r="M44" s="175"/>
-      <c r="N44" s="175"/>
-      <c r="O44" s="175"/>
-      <c r="P44" s="175"/>
-      <c r="Q44" s="175"/>
-      <c r="R44" s="175"/>
-      <c r="S44" s="176"/>
-      <c r="T44" s="174" t="s">
+      <c r="D44" s="174"/>
+      <c r="E44" s="174"/>
+      <c r="F44" s="174"/>
+      <c r="G44" s="174"/>
+      <c r="H44" s="174"/>
+      <c r="I44" s="174"/>
+      <c r="J44" s="174"/>
+      <c r="K44" s="174"/>
+      <c r="L44" s="174"/>
+      <c r="M44" s="174"/>
+      <c r="N44" s="174"/>
+      <c r="O44" s="174"/>
+      <c r="P44" s="174"/>
+      <c r="Q44" s="174"/>
+      <c r="R44" s="174"/>
+      <c r="S44" s="175"/>
+      <c r="T44" s="173" t="s">
         <v>59</v>
       </c>
-      <c r="U44" s="175"/>
-      <c r="V44" s="175"/>
-      <c r="W44" s="175"/>
-      <c r="X44" s="175"/>
-      <c r="Y44" s="175"/>
-      <c r="Z44" s="175"/>
-      <c r="AA44" s="175"/>
-      <c r="AB44" s="175"/>
-      <c r="AC44" s="175"/>
-      <c r="AD44" s="175"/>
-      <c r="AE44" s="175"/>
-      <c r="AF44" s="175"/>
-      <c r="AG44" s="175"/>
-      <c r="AH44" s="175"/>
-      <c r="AI44" s="175"/>
-      <c r="AJ44" s="175"/>
-      <c r="AK44" s="176"/>
-    </row>
-    <row r="45" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="U44" s="174"/>
+      <c r="V44" s="174"/>
+      <c r="W44" s="174"/>
+      <c r="X44" s="174"/>
+      <c r="Y44" s="174"/>
+      <c r="Z44" s="174"/>
+      <c r="AA44" s="174"/>
+      <c r="AB44" s="174"/>
+      <c r="AC44" s="174"/>
+      <c r="AD44" s="174"/>
+      <c r="AE44" s="174"/>
+      <c r="AF44" s="174"/>
+      <c r="AG44" s="174"/>
+      <c r="AH44" s="174"/>
+      <c r="AI44" s="174"/>
+      <c r="AJ44" s="174"/>
+      <c r="AK44" s="175"/>
+    </row>
+    <row r="45" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="61"/>
       <c r="B45" s="64"/>
-      <c r="C45" s="174"/>
-      <c r="D45" s="175"/>
-      <c r="E45" s="175"/>
-      <c r="F45" s="175"/>
-      <c r="G45" s="175"/>
-      <c r="H45" s="175"/>
-      <c r="I45" s="175"/>
-      <c r="J45" s="175"/>
-      <c r="K45" s="175"/>
-      <c r="L45" s="175"/>
-      <c r="M45" s="175"/>
-      <c r="N45" s="175"/>
-      <c r="O45" s="175"/>
-      <c r="P45" s="175"/>
-      <c r="Q45" s="175"/>
-      <c r="R45" s="175"/>
-      <c r="S45" s="176"/>
-      <c r="T45" s="174"/>
-      <c r="U45" s="175"/>
-      <c r="V45" s="175"/>
-      <c r="W45" s="175"/>
-      <c r="X45" s="175"/>
-      <c r="Y45" s="175"/>
-      <c r="Z45" s="175"/>
-      <c r="AA45" s="175"/>
-      <c r="AB45" s="175"/>
-      <c r="AC45" s="175"/>
-      <c r="AD45" s="175"/>
-      <c r="AE45" s="175"/>
-      <c r="AF45" s="175"/>
-      <c r="AG45" s="175"/>
-      <c r="AH45" s="175"/>
-      <c r="AI45" s="175"/>
-      <c r="AJ45" s="175"/>
-      <c r="AK45" s="176"/>
-    </row>
-    <row r="46" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C45" s="173"/>
+      <c r="D45" s="174"/>
+      <c r="E45" s="174"/>
+      <c r="F45" s="174"/>
+      <c r="G45" s="174"/>
+      <c r="H45" s="174"/>
+      <c r="I45" s="174"/>
+      <c r="J45" s="174"/>
+      <c r="K45" s="174"/>
+      <c r="L45" s="174"/>
+      <c r="M45" s="174"/>
+      <c r="N45" s="174"/>
+      <c r="O45" s="174"/>
+      <c r="P45" s="174"/>
+      <c r="Q45" s="174"/>
+      <c r="R45" s="174"/>
+      <c r="S45" s="175"/>
+      <c r="T45" s="173"/>
+      <c r="U45" s="174"/>
+      <c r="V45" s="174"/>
+      <c r="W45" s="174"/>
+      <c r="X45" s="174"/>
+      <c r="Y45" s="174"/>
+      <c r="Z45" s="174"/>
+      <c r="AA45" s="174"/>
+      <c r="AB45" s="174"/>
+      <c r="AC45" s="174"/>
+      <c r="AD45" s="174"/>
+      <c r="AE45" s="174"/>
+      <c r="AF45" s="174"/>
+      <c r="AG45" s="174"/>
+      <c r="AH45" s="174"/>
+      <c r="AI45" s="174"/>
+      <c r="AJ45" s="174"/>
+      <c r="AK45" s="175"/>
+    </row>
+    <row r="46" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="61"/>
       <c r="B46" s="67"/>
-      <c r="C46" s="180"/>
-      <c r="D46" s="181"/>
-      <c r="E46" s="181"/>
-      <c r="F46" s="181"/>
-      <c r="G46" s="181"/>
-      <c r="H46" s="181"/>
-      <c r="I46" s="181"/>
-      <c r="J46" s="181"/>
-      <c r="K46" s="181"/>
-      <c r="L46" s="181"/>
-      <c r="M46" s="181"/>
-      <c r="N46" s="181"/>
-      <c r="O46" s="181"/>
-      <c r="P46" s="181"/>
-      <c r="Q46" s="181"/>
-      <c r="R46" s="181"/>
-      <c r="S46" s="182"/>
-      <c r="T46" s="180"/>
-      <c r="U46" s="181"/>
-      <c r="V46" s="181"/>
-      <c r="W46" s="181"/>
-      <c r="X46" s="181"/>
-      <c r="Y46" s="181"/>
-      <c r="Z46" s="181"/>
-      <c r="AA46" s="181"/>
-      <c r="AB46" s="181"/>
-      <c r="AC46" s="181"/>
-      <c r="AD46" s="181"/>
-      <c r="AE46" s="181"/>
-      <c r="AF46" s="181"/>
-      <c r="AG46" s="181"/>
-      <c r="AH46" s="181"/>
-      <c r="AI46" s="181"/>
-      <c r="AJ46" s="181"/>
-      <c r="AK46" s="182"/>
-    </row>
-    <row r="47" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="C46" s="179"/>
+      <c r="D46" s="180"/>
+      <c r="E46" s="180"/>
+      <c r="F46" s="180"/>
+      <c r="G46" s="180"/>
+      <c r="H46" s="180"/>
+      <c r="I46" s="180"/>
+      <c r="J46" s="180"/>
+      <c r="K46" s="180"/>
+      <c r="L46" s="180"/>
+      <c r="M46" s="180"/>
+      <c r="N46" s="180"/>
+      <c r="O46" s="180"/>
+      <c r="P46" s="180"/>
+      <c r="Q46" s="180"/>
+      <c r="R46" s="180"/>
+      <c r="S46" s="181"/>
+      <c r="T46" s="179"/>
+      <c r="U46" s="180"/>
+      <c r="V46" s="180"/>
+      <c r="W46" s="180"/>
+      <c r="X46" s="180"/>
+      <c r="Y46" s="180"/>
+      <c r="Z46" s="180"/>
+      <c r="AA46" s="180"/>
+      <c r="AB46" s="180"/>
+      <c r="AC46" s="180"/>
+      <c r="AD46" s="180"/>
+      <c r="AE46" s="180"/>
+      <c r="AF46" s="180"/>
+      <c r="AG46" s="180"/>
+      <c r="AH46" s="180"/>
+      <c r="AI46" s="180"/>
+      <c r="AJ46" s="180"/>
+      <c r="AK46" s="181"/>
+    </row>
+    <row r="47" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="61"/>
       <c r="B47" s="67"/>
       <c r="C47" s="48"/>
@@ -8127,7 +8124,7 @@
       <c r="AJ47" s="58"/>
       <c r="AK47" s="59"/>
     </row>
-    <row r="48" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="48" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="62"/>
       <c r="B48" s="68"/>
       <c r="C48" s="48"/>
@@ -8166,7 +8163,7 @@
       <c r="AJ48" s="58"/>
       <c r="AK48" s="59"/>
     </row>
-    <row r="49" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="49" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="60" t="s">
         <v>7</v>
       </c>
@@ -8207,7 +8204,7 @@
       <c r="AJ49" s="52"/>
       <c r="AK49" s="53"/>
     </row>
-    <row r="50" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="50" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="61"/>
       <c r="B50" s="67"/>
       <c r="C50" s="54"/>
@@ -8246,7 +8243,7 @@
       <c r="AJ50" s="55"/>
       <c r="AK50" s="57"/>
     </row>
-    <row r="51" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="51" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="61"/>
       <c r="B51" s="64"/>
       <c r="C51" s="164"/>
@@ -8289,22 +8286,22 @@
       <c r="AJ51" s="118"/>
       <c r="AK51" s="119"/>
     </row>
-    <row r="52" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="52" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="61"/>
       <c r="B52" s="64"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="87"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="87"/>
+      <c r="C52" s="103"/>
+      <c r="D52" s="104"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="104"/>
       <c r="G52" s="165"/>
       <c r="H52" s="166"/>
       <c r="I52" s="167"/>
       <c r="J52" s="166"/>
-      <c r="K52" s="86"/>
+      <c r="K52" s="103"/>
       <c r="L52" s="168"/>
-      <c r="M52" s="87"/>
-      <c r="N52" s="86"/>
-      <c r="O52" s="87"/>
+      <c r="M52" s="104"/>
+      <c r="N52" s="103"/>
+      <c r="O52" s="104"/>
       <c r="P52" s="108"/>
       <c r="Q52" s="109"/>
       <c r="R52" s="109"/>
@@ -8328,34 +8325,34 @@
       <c r="AJ52" s="129"/>
       <c r="AK52" s="130"/>
     </row>
-    <row r="53" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="53" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="62"/>
       <c r="B53" s="65"/>
-      <c r="C53" s="81" t="s">
+      <c r="C53" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="82"/>
-      <c r="E53" s="103" t="s">
+      <c r="D53" s="92"/>
+      <c r="E53" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="F53" s="82"/>
-      <c r="G53" s="104" t="s">
+      <c r="F53" s="92"/>
+      <c r="G53" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="H53" s="100"/>
-      <c r="I53" s="99" t="s">
+      <c r="H53" s="94"/>
+      <c r="I53" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="J53" s="100"/>
-      <c r="K53" s="104" t="s">
+      <c r="J53" s="94"/>
+      <c r="K53" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="L53" s="99"/>
-      <c r="M53" s="100"/>
-      <c r="N53" s="104" t="s">
+      <c r="L53" s="95"/>
+      <c r="M53" s="94"/>
+      <c r="N53" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="O53" s="100"/>
+      <c r="O53" s="94"/>
       <c r="P53" s="111"/>
       <c r="Q53" s="112"/>
       <c r="R53" s="112"/>
@@ -8395,6 +8392,8 @@
     <mergeCell ref="A49:A53"/>
     <mergeCell ref="B49:B53"/>
     <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
     <mergeCell ref="AI51:AK51"/>
     <mergeCell ref="G52:H52"/>
     <mergeCell ref="I52:J52"/>
@@ -8406,8 +8405,6 @@
     <mergeCell ref="N51:O51"/>
     <mergeCell ref="P51:AH53"/>
     <mergeCell ref="AI52:AK53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
     <mergeCell ref="G53:H53"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="K53:M53"/>
@@ -8456,24 +8453,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004009F7-098D-EC46-84C2-07CF91A4DD18}">
   <dimension ref="A1:BW53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="AK21" sqref="AK21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="2.5" style="6" customWidth="1"/>
-    <col min="5" max="6" width="2.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="2.42578125" style="6" customWidth="1"/>
+    <col min="5" max="6" width="2.7109375" style="6" customWidth="1"/>
     <col min="7" max="9" width="3" style="6" customWidth="1"/>
-    <col min="10" max="36" width="2.6640625" style="6" customWidth="1"/>
-    <col min="37" max="37" width="2.5" style="6" customWidth="1"/>
-    <col min="38" max="75" width="2.6640625" style="6" customWidth="1"/>
-    <col min="76" max="16384" width="8.83203125" style="5"/>
+    <col min="10" max="36" width="2.7109375" style="6" customWidth="1"/>
+    <col min="37" max="37" width="2.42578125" style="6" customWidth="1"/>
+    <col min="38" max="75" width="2.7109375" style="6" customWidth="1"/>
+    <col min="76" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="15.75" customHeight="1">
+    <row r="1" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -8550,7 +8547,7 @@
       <c r="BV1" s="1"/>
       <c r="BW1" s="1"/>
     </row>
-    <row r="2" spans="1:75" ht="15.75" customHeight="1">
+    <row r="2" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -8587,7 +8584,7 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="9"/>
     </row>
-    <row r="3" spans="1:75" ht="15.75" customHeight="1">
+    <row r="3" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -8624,7 +8621,7 @@
       <c r="AJ3" s="8"/>
       <c r="AK3" s="9"/>
     </row>
-    <row r="4" spans="1:75" ht="15.75" customHeight="1">
+    <row r="4" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="7"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -8661,7 +8658,7 @@
       <c r="AJ4" s="8"/>
       <c r="AK4" s="9"/>
     </row>
-    <row r="5" spans="1:75" ht="15.75" customHeight="1">
+    <row r="5" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="10"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -8669,7 +8666,7 @@
       <c r="AK5" s="12"/>
       <c r="AQ5" s="5"/>
     </row>
-    <row r="6" spans="1:75" ht="15.75" customHeight="1">
+    <row r="6" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -8706,7 +8703,7 @@
       <c r="AJ6" s="14"/>
       <c r="AK6" s="15"/>
     </row>
-    <row r="7" spans="1:75" ht="15.75" customHeight="1">
+    <row r="7" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="16"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -8743,11 +8740,11 @@
       <c r="AJ7" s="14"/>
       <c r="AK7" s="15"/>
     </row>
-    <row r="8" spans="1:75" ht="15.75" customHeight="1">
+    <row r="8" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="10"/>
       <c r="AK8" s="12"/>
     </row>
-    <row r="9" spans="1:75" ht="15.75" customHeight="1">
+    <row r="9" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="10"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -8784,7 +8781,7 @@
       <c r="AJ9" s="17"/>
       <c r="AK9" s="12"/>
     </row>
-    <row r="10" spans="1:75" ht="15.75" customHeight="1">
+    <row r="10" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="18"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -8821,7 +8818,7 @@
       <c r="AJ10" s="17"/>
       <c r="AK10" s="19"/>
     </row>
-    <row r="11" spans="1:75" ht="15.75" customHeight="1">
+    <row r="11" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="18"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -8858,11 +8855,11 @@
       <c r="AJ11" s="17"/>
       <c r="AK11" s="19"/>
     </row>
-    <row r="12" spans="1:75" ht="15.75" customHeight="1">
+    <row r="12" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="18"/>
       <c r="AK12" s="19"/>
     </row>
-    <row r="13" spans="1:75" ht="15.75" customHeight="1">
+    <row r="13" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="20"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
@@ -8899,7 +8896,7 @@
       <c r="AJ13" s="21"/>
       <c r="AK13" s="22"/>
     </row>
-    <row r="14" spans="1:75" ht="15.75" customHeight="1">
+    <row r="14" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="20"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -8936,7 +8933,7 @@
       <c r="AJ14" s="21"/>
       <c r="AK14" s="22"/>
     </row>
-    <row r="15" spans="1:75" ht="15.75" customHeight="1">
+    <row r="15" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="10"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -8973,7 +8970,7 @@
       <c r="AJ15" s="21"/>
       <c r="AK15" s="12"/>
     </row>
-    <row r="16" spans="1:75" ht="15.75" customHeight="1">
+    <row r="16" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="10"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -9010,7 +9007,7 @@
       <c r="AJ16" s="21"/>
       <c r="AK16" s="12"/>
     </row>
-    <row r="17" spans="1:37" s="6" customFormat="1" ht="16.75" customHeight="1">
+    <row r="17" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="10"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
@@ -9047,15 +9044,15 @@
       <c r="AJ17" s="21"/>
       <c r="AK17" s="12"/>
     </row>
-    <row r="18" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="18" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="10"/>
       <c r="AK18" s="12"/>
     </row>
-    <row r="19" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="10"/>
       <c r="AK19" s="12"/>
     </row>
-    <row r="20" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="20" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="10"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
@@ -9092,7 +9089,7 @@
       <c r="AJ20" s="23"/>
       <c r="AK20" s="12"/>
     </row>
-    <row r="21" spans="1:37" s="6" customFormat="1" ht="16.75" customHeight="1">
+    <row r="21" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="10"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -9129,15 +9126,15 @@
       <c r="AJ21" s="23"/>
       <c r="AK21" s="12"/>
     </row>
-    <row r="22" spans="1:37" s="6" customFormat="1" ht="16.75" customHeight="1">
+    <row r="22" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="10"/>
       <c r="AK22" s="12"/>
     </row>
-    <row r="23" spans="1:37" s="6" customFormat="1" ht="16.75" customHeight="1">
+    <row r="23" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="10"/>
       <c r="AK23" s="12"/>
     </row>
-    <row r="24" spans="1:37" s="6" customFormat="1" ht="16.75" customHeight="1" thickBot="1">
+    <row r="24" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C24" s="10"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
@@ -9174,7 +9171,7 @@
       <c r="AJ24" s="21"/>
       <c r="AK24" s="12"/>
     </row>
-    <row r="25" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="25" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="60" t="s">
         <v>8</v>
       </c>
@@ -9215,13 +9212,13 @@
       <c r="AJ25" s="21"/>
       <c r="AK25" s="12"/>
     </row>
-    <row r="26" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="26" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="61"/>
       <c r="B26" s="64"/>
       <c r="C26" s="10"/>
       <c r="AK26" s="12"/>
     </row>
-    <row r="27" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="27" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="61"/>
       <c r="B27" s="64"/>
       <c r="C27" s="10"/>
@@ -9260,7 +9257,7 @@
       <c r="AJ27" s="23"/>
       <c r="AK27" s="12"/>
     </row>
-    <row r="28" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="28" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="61"/>
       <c r="B28" s="64"/>
       <c r="C28" s="10"/>
@@ -9299,25 +9296,25 @@
       <c r="AJ28" s="23"/>
       <c r="AK28" s="12"/>
     </row>
-    <row r="29" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="29" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="61"/>
       <c r="B29" s="64"/>
       <c r="C29" s="10"/>
       <c r="AK29" s="12"/>
     </row>
-    <row r="30" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="30" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="61"/>
       <c r="B30" s="64"/>
       <c r="C30" s="10"/>
       <c r="AK30" s="12"/>
     </row>
-    <row r="31" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="31" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="62"/>
       <c r="B31" s="65"/>
       <c r="C31" s="10"/>
       <c r="AK31" s="12"/>
     </row>
-    <row r="32" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="32" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="60" t="s">
         <v>10</v>
       </c>
@@ -9325,31 +9322,31 @@
       <c r="C32" s="10"/>
       <c r="AK32" s="12"/>
     </row>
-    <row r="33" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="33" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="61"/>
       <c r="B33" s="64"/>
       <c r="C33" s="10"/>
       <c r="AK33" s="12"/>
     </row>
-    <row r="34" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="34" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="61"/>
       <c r="B34" s="64"/>
       <c r="C34" s="10"/>
       <c r="AK34" s="12"/>
     </row>
-    <row r="35" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="35" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="61"/>
       <c r="B35" s="64"/>
       <c r="C35" s="10"/>
       <c r="AK35" s="12"/>
     </row>
-    <row r="36" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="36" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="62"/>
       <c r="B36" s="65"/>
       <c r="C36" s="10"/>
       <c r="AK36" s="12"/>
     </row>
-    <row r="37" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="37" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="60" t="s">
         <v>9</v>
       </c>
@@ -9357,31 +9354,31 @@
       <c r="C37" s="10"/>
       <c r="AK37" s="12"/>
     </row>
-    <row r="38" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="38" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="61"/>
       <c r="B38" s="64"/>
       <c r="C38" s="10"/>
       <c r="AK38" s="12"/>
     </row>
-    <row r="39" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="39" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="61"/>
       <c r="B39" s="64"/>
       <c r="C39" s="10"/>
       <c r="AK39" s="12"/>
     </row>
-    <row r="40" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="40" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="61"/>
       <c r="B40" s="64"/>
       <c r="C40" s="10"/>
       <c r="AK40" s="12"/>
     </row>
-    <row r="41" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="41" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="62"/>
       <c r="B41" s="65"/>
       <c r="C41" s="7"/>
       <c r="AK41" s="9"/>
     </row>
-    <row r="42" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="42" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="60" t="s">
         <v>8</v>
       </c>
@@ -9389,7 +9386,7 @@
       <c r="C42" s="7"/>
       <c r="AK42" s="9"/>
     </row>
-    <row r="43" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="43" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="61"/>
       <c r="B43" s="64"/>
       <c r="C43" s="10"/>
@@ -9428,7 +9425,7 @@
       <c r="AJ43" s="8"/>
       <c r="AK43" s="9"/>
     </row>
-    <row r="44" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="44" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="61"/>
       <c r="B44" s="64"/>
       <c r="C44" s="10"/>
@@ -9467,12 +9464,12 @@
       <c r="AJ44" s="8"/>
       <c r="AK44" s="12"/>
     </row>
-    <row r="45" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="45" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="61"/>
       <c r="B45" s="64"/>
       <c r="AK45" s="12"/>
     </row>
-    <row r="46" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="46" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="61"/>
       <c r="B46" s="67"/>
       <c r="C46" s="10"/>
@@ -9499,7 +9496,7 @@
       <c r="AJ46" s="26"/>
       <c r="AK46" s="27"/>
     </row>
-    <row r="47" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="47" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="61"/>
       <c r="B47" s="67"/>
       <c r="C47" s="28"/>
@@ -9536,7 +9533,7 @@
       <c r="AJ47" s="26"/>
       <c r="AK47" s="27"/>
     </row>
-    <row r="48" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="48" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="62"/>
       <c r="B48" s="68"/>
       <c r="C48" s="10"/>
@@ -9563,7 +9560,7 @@
       <c r="AJ48" s="26"/>
       <c r="AK48" s="27"/>
     </row>
-    <row r="49" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="49" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="60" t="s">
         <v>7</v>
       </c>
@@ -9604,7 +9601,7 @@
       <c r="AJ49" s="14"/>
       <c r="AK49" s="15"/>
     </row>
-    <row r="50" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="50" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="61"/>
       <c r="B50" s="67"/>
       <c r="C50" s="30"/>
@@ -9643,7 +9640,7 @@
       <c r="AJ50" s="33"/>
       <c r="AK50" s="34"/>
     </row>
-    <row r="51" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="51" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="61"/>
       <c r="B51" s="64"/>
       <c r="C51" s="164"/>
@@ -9686,22 +9683,22 @@
       <c r="AJ51" s="118"/>
       <c r="AK51" s="119"/>
     </row>
-    <row r="52" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="52" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="61"/>
       <c r="B52" s="64"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="87"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="87"/>
+      <c r="C52" s="103"/>
+      <c r="D52" s="104"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="104"/>
       <c r="G52" s="165"/>
       <c r="H52" s="166"/>
       <c r="I52" s="167"/>
       <c r="J52" s="166"/>
-      <c r="K52" s="86"/>
+      <c r="K52" s="103"/>
       <c r="L52" s="168"/>
-      <c r="M52" s="87"/>
-      <c r="N52" s="86"/>
-      <c r="O52" s="87"/>
+      <c r="M52" s="104"/>
+      <c r="N52" s="103"/>
+      <c r="O52" s="104"/>
       <c r="P52" s="108"/>
       <c r="Q52" s="109"/>
       <c r="R52" s="109"/>
@@ -9725,34 +9722,34 @@
       <c r="AJ52" s="129"/>
       <c r="AK52" s="130"/>
     </row>
-    <row r="53" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="53" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="62"/>
       <c r="B53" s="65"/>
-      <c r="C53" s="81" t="s">
+      <c r="C53" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="82"/>
-      <c r="E53" s="103" t="s">
+      <c r="D53" s="92"/>
+      <c r="E53" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="F53" s="82"/>
-      <c r="G53" s="104" t="s">
+      <c r="F53" s="92"/>
+      <c r="G53" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="H53" s="100"/>
-      <c r="I53" s="99" t="s">
+      <c r="H53" s="94"/>
+      <c r="I53" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="J53" s="100"/>
-      <c r="K53" s="104" t="s">
+      <c r="J53" s="94"/>
+      <c r="K53" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="L53" s="99"/>
-      <c r="M53" s="100"/>
-      <c r="N53" s="104" t="s">
+      <c r="L53" s="95"/>
+      <c r="M53" s="94"/>
+      <c r="N53" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="O53" s="100"/>
+      <c r="O53" s="94"/>
       <c r="P53" s="111"/>
       <c r="Q53" s="112"/>
       <c r="R53" s="112"/>
@@ -9778,28 +9775,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AI52:AK53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="AI51:AK51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="N52:O52"/>
     <mergeCell ref="G51:H51"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="K51:M51"/>
     <mergeCell ref="N51:O51"/>
     <mergeCell ref="P51:AH53"/>
-    <mergeCell ref="AI51:AK51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="B42:B48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="AI52:AK53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="N53:O53"/>
     <mergeCell ref="E51:F51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="E52:F52"/>
@@ -9809,6 +9799,13 @@
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="A37:A41"/>
     <mergeCell ref="B37:B41"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="B42:B48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9820,24 +9817,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24761C3-1F59-40EE-B25E-2991B2C77F4C}">
   <dimension ref="A1:BW53"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="2.5" style="6" customWidth="1"/>
-    <col min="5" max="6" width="2.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="2.42578125" style="6" customWidth="1"/>
+    <col min="5" max="6" width="2.7109375" style="6" customWidth="1"/>
     <col min="7" max="9" width="3" style="6" customWidth="1"/>
-    <col min="10" max="36" width="2.6640625" style="6" customWidth="1"/>
-    <col min="37" max="37" width="2.5" style="6" customWidth="1"/>
-    <col min="38" max="75" width="2.6640625" style="6" customWidth="1"/>
-    <col min="76" max="16384" width="8.83203125" style="5"/>
+    <col min="10" max="36" width="2.7109375" style="6" customWidth="1"/>
+    <col min="37" max="37" width="2.42578125" style="6" customWidth="1"/>
+    <col min="38" max="75" width="2.7109375" style="6" customWidth="1"/>
+    <col min="76" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="15.75" customHeight="1">
+    <row r="1" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -9914,7 +9911,7 @@
       <c r="BV1" s="1"/>
       <c r="BW1" s="1"/>
     </row>
-    <row r="2" spans="1:75" ht="15.75" customHeight="1">
+    <row r="2" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -9951,7 +9948,7 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="9"/>
     </row>
-    <row r="3" spans="1:75" ht="15.75" customHeight="1">
+    <row r="3" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -9988,7 +9985,7 @@
       <c r="AJ3" s="8"/>
       <c r="AK3" s="9"/>
     </row>
-    <row r="4" spans="1:75" ht="15.75" customHeight="1">
+    <row r="4" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="7"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -10025,7 +10022,7 @@
       <c r="AJ4" s="8"/>
       <c r="AK4" s="9"/>
     </row>
-    <row r="5" spans="1:75" ht="15.75" customHeight="1">
+    <row r="5" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="10"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -10033,7 +10030,7 @@
       <c r="AK5" s="12"/>
       <c r="AQ5" s="5"/>
     </row>
-    <row r="6" spans="1:75" ht="15.75" customHeight="1">
+    <row r="6" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -10070,7 +10067,7 @@
       <c r="AJ6" s="14"/>
       <c r="AK6" s="15"/>
     </row>
-    <row r="7" spans="1:75" ht="15.75" customHeight="1">
+    <row r="7" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="16"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -10107,11 +10104,11 @@
       <c r="AJ7" s="14"/>
       <c r="AK7" s="15"/>
     </row>
-    <row r="8" spans="1:75" ht="15.75" customHeight="1">
+    <row r="8" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="10"/>
       <c r="AK8" s="12"/>
     </row>
-    <row r="9" spans="1:75" ht="15.75" customHeight="1">
+    <row r="9" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="10"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -10148,7 +10145,7 @@
       <c r="AJ9" s="17"/>
       <c r="AK9" s="12"/>
     </row>
-    <row r="10" spans="1:75" ht="15.75" customHeight="1">
+    <row r="10" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="18"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -10185,7 +10182,7 @@
       <c r="AJ10" s="17"/>
       <c r="AK10" s="19"/>
     </row>
-    <row r="11" spans="1:75" ht="15.75" customHeight="1">
+    <row r="11" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="18"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -10222,11 +10219,11 @@
       <c r="AJ11" s="17"/>
       <c r="AK11" s="19"/>
     </row>
-    <row r="12" spans="1:75" ht="15.75" customHeight="1">
+    <row r="12" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="18"/>
       <c r="AK12" s="19"/>
     </row>
-    <row r="13" spans="1:75" ht="15.75" customHeight="1">
+    <row r="13" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="20"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
@@ -10263,7 +10260,7 @@
       <c r="AJ13" s="21"/>
       <c r="AK13" s="22"/>
     </row>
-    <row r="14" spans="1:75" ht="15.75" customHeight="1">
+    <row r="14" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="20"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -10300,7 +10297,7 @@
       <c r="AJ14" s="21"/>
       <c r="AK14" s="22"/>
     </row>
-    <row r="15" spans="1:75" ht="15.75" customHeight="1">
+    <row r="15" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="10"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -10337,7 +10334,7 @@
       <c r="AJ15" s="21"/>
       <c r="AK15" s="12"/>
     </row>
-    <row r="16" spans="1:75" ht="15.75" customHeight="1">
+    <row r="16" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="10"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -10374,7 +10371,7 @@
       <c r="AJ16" s="21"/>
       <c r="AK16" s="12"/>
     </row>
-    <row r="17" spans="1:37" ht="16.75" customHeight="1">
+    <row r="17" spans="1:37" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="10"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
@@ -10411,15 +10408,15 @@
       <c r="AJ17" s="21"/>
       <c r="AK17" s="12"/>
     </row>
-    <row r="18" spans="1:37" ht="15.75" customHeight="1">
+    <row r="18" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="10"/>
       <c r="AK18" s="12"/>
     </row>
-    <row r="19" spans="1:37" ht="15.75" customHeight="1">
+    <row r="19" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="10"/>
       <c r="AK19" s="12"/>
     </row>
-    <row r="20" spans="1:37" ht="15.75" customHeight="1">
+    <row r="20" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="10"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
@@ -10456,7 +10453,7 @@
       <c r="AJ20" s="23"/>
       <c r="AK20" s="12"/>
     </row>
-    <row r="21" spans="1:37" ht="16.75" customHeight="1">
+    <row r="21" spans="1:37" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="10"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -10493,15 +10490,15 @@
       <c r="AJ21" s="23"/>
       <c r="AK21" s="12"/>
     </row>
-    <row r="22" spans="1:37" ht="16.75" customHeight="1">
+    <row r="22" spans="1:37" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="10"/>
       <c r="AK22" s="12"/>
     </row>
-    <row r="23" spans="1:37" ht="16.75" customHeight="1">
+    <row r="23" spans="1:37" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="10"/>
       <c r="AK23" s="12"/>
     </row>
-    <row r="24" spans="1:37" ht="16.75" customHeight="1" thickBot="1">
+    <row r="24" spans="1:37" ht="16.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C24" s="10"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
@@ -10538,7 +10535,7 @@
       <c r="AJ24" s="21"/>
       <c r="AK24" s="12"/>
     </row>
-    <row r="25" spans="1:37" ht="15.75" customHeight="1">
+    <row r="25" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="60" t="s">
         <v>8</v>
       </c>
@@ -10579,13 +10576,13 @@
       <c r="AJ25" s="21"/>
       <c r="AK25" s="12"/>
     </row>
-    <row r="26" spans="1:37" ht="15.75" customHeight="1">
+    <row r="26" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="61"/>
       <c r="B26" s="64"/>
       <c r="C26" s="10"/>
       <c r="AK26" s="12"/>
     </row>
-    <row r="27" spans="1:37" ht="15.75" customHeight="1">
+    <row r="27" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="61"/>
       <c r="B27" s="64"/>
       <c r="C27" s="10"/>
@@ -10624,7 +10621,7 @@
       <c r="AJ27" s="23"/>
       <c r="AK27" s="12"/>
     </row>
-    <row r="28" spans="1:37" ht="15.75" customHeight="1">
+    <row r="28" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="61"/>
       <c r="B28" s="64"/>
       <c r="C28" s="10"/>
@@ -10663,25 +10660,25 @@
       <c r="AJ28" s="23"/>
       <c r="AK28" s="12"/>
     </row>
-    <row r="29" spans="1:37" ht="15.75" customHeight="1">
+    <row r="29" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="61"/>
       <c r="B29" s="64"/>
       <c r="C29" s="10"/>
       <c r="AK29" s="12"/>
     </row>
-    <row r="30" spans="1:37" ht="15.75" customHeight="1">
+    <row r="30" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="61"/>
       <c r="B30" s="64"/>
       <c r="C30" s="10"/>
       <c r="AK30" s="12"/>
     </row>
-    <row r="31" spans="1:37" ht="15.75" customHeight="1" thickBot="1">
+    <row r="31" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="62"/>
       <c r="B31" s="65"/>
       <c r="C31" s="10"/>
       <c r="AK31" s="12"/>
     </row>
-    <row r="32" spans="1:37" ht="15.75" customHeight="1">
+    <row r="32" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="60" t="s">
         <v>10</v>
       </c>
@@ -10689,31 +10686,31 @@
       <c r="C32" s="10"/>
       <c r="AK32" s="12"/>
     </row>
-    <row r="33" spans="1:37" ht="15.75" customHeight="1">
+    <row r="33" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="61"/>
       <c r="B33" s="64"/>
       <c r="C33" s="10"/>
       <c r="AK33" s="12"/>
     </row>
-    <row r="34" spans="1:37" ht="15.75" customHeight="1">
+    <row r="34" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="61"/>
       <c r="B34" s="64"/>
       <c r="C34" s="10"/>
       <c r="AK34" s="12"/>
     </row>
-    <row r="35" spans="1:37" ht="15.75" customHeight="1">
+    <row r="35" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="61"/>
       <c r="B35" s="64"/>
       <c r="C35" s="10"/>
       <c r="AK35" s="12"/>
     </row>
-    <row r="36" spans="1:37" ht="15.75" customHeight="1" thickBot="1">
+    <row r="36" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="62"/>
       <c r="B36" s="65"/>
       <c r="C36" s="10"/>
       <c r="AK36" s="12"/>
     </row>
-    <row r="37" spans="1:37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="60" t="s">
         <v>9</v>
       </c>
@@ -10721,13 +10718,13 @@
       <c r="C37" s="10"/>
       <c r="AK37" s="12"/>
     </row>
-    <row r="38" spans="1:37" ht="15.75" customHeight="1">
+    <row r="38" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="61"/>
       <c r="B38" s="64"/>
       <c r="C38" s="10"/>
       <c r="AK38" s="12"/>
     </row>
-    <row r="39" spans="1:37" ht="15.75" customHeight="1">
+    <row r="39" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="61"/>
       <c r="B39" s="64"/>
       <c r="C39" s="10"/>
@@ -10762,7 +10759,7 @@
       <c r="AG39" s="25"/>
       <c r="AK39" s="12"/>
     </row>
-    <row r="40" spans="1:37" ht="15.75" customHeight="1">
+    <row r="40" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="61"/>
       <c r="B40" s="64"/>
       <c r="C40" s="10"/>
@@ -10797,7 +10794,7 @@
       <c r="AG40" s="25"/>
       <c r="AK40" s="12"/>
     </row>
-    <row r="41" spans="1:37" ht="15.75" customHeight="1" thickBot="1">
+    <row r="41" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="62"/>
       <c r="B41" s="65"/>
       <c r="C41" s="7"/>
@@ -10832,7 +10829,7 @@
       <c r="AG41" s="25"/>
       <c r="AK41" s="9"/>
     </row>
-    <row r="42" spans="1:37" ht="15.75" customHeight="1">
+    <row r="42" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="60" t="s">
         <v>8</v>
       </c>
@@ -10869,7 +10866,7 @@
       <c r="AG42" s="25"/>
       <c r="AK42" s="9"/>
     </row>
-    <row r="43" spans="1:37" ht="15.75" customHeight="1">
+    <row r="43" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="61"/>
       <c r="B43" s="64"/>
       <c r="C43" s="10"/>
@@ -10908,7 +10905,7 @@
       <c r="AJ43" s="8"/>
       <c r="AK43" s="9"/>
     </row>
-    <row r="44" spans="1:37" ht="15.75" customHeight="1">
+    <row r="44" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="61"/>
       <c r="B44" s="64"/>
       <c r="C44" s="10"/>
@@ -10947,27 +10944,27 @@
       <c r="AJ44" s="8"/>
       <c r="AK44" s="12"/>
     </row>
-    <row r="45" spans="1:37" ht="15.75" customHeight="1" thickBot="1">
+    <row r="45" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="61"/>
       <c r="B45" s="64"/>
       <c r="AK45" s="24"/>
     </row>
-    <row r="46" spans="1:37" ht="15.75" customHeight="1">
+    <row r="46" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="61"/>
       <c r="B46" s="64"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="84"/>
-      <c r="I46" s="85"/>
-      <c r="J46" s="84"/>
-      <c r="K46" s="83"/>
-      <c r="L46" s="85"/>
-      <c r="M46" s="84"/>
-      <c r="N46" s="83"/>
-      <c r="O46" s="84"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="101"/>
+      <c r="I46" s="102"/>
+      <c r="J46" s="101"/>
+      <c r="K46" s="100"/>
+      <c r="L46" s="102"/>
+      <c r="M46" s="101"/>
+      <c r="N46" s="100"/>
+      <c r="O46" s="101"/>
       <c r="P46" s="105" t="s">
         <v>27</v>
       </c>
@@ -10993,22 +10990,22 @@
       <c r="AJ46" s="106"/>
       <c r="AK46" s="107"/>
     </row>
-    <row r="47" spans="1:37" ht="15.75" customHeight="1" thickBot="1">
+    <row r="47" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="61"/>
       <c r="B47" s="64"/>
-      <c r="C47" s="88"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="88"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="90"/>
-      <c r="J47" s="89"/>
-      <c r="K47" s="88"/>
-      <c r="L47" s="90"/>
-      <c r="M47" s="89"/>
-      <c r="N47" s="88"/>
-      <c r="O47" s="89"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="104"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="98"/>
+      <c r="I47" s="97"/>
+      <c r="J47" s="98"/>
+      <c r="K47" s="96"/>
+      <c r="L47" s="97"/>
+      <c r="M47" s="98"/>
+      <c r="N47" s="96"/>
+      <c r="O47" s="98"/>
       <c r="P47" s="108"/>
       <c r="Q47" s="109"/>
       <c r="R47" s="109"/>
@@ -11032,34 +11029,34 @@
       <c r="AJ47" s="109"/>
       <c r="AK47" s="110"/>
     </row>
-    <row r="48" spans="1:37" ht="15.75" customHeight="1" thickBot="1">
+    <row r="48" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="62"/>
       <c r="B48" s="65"/>
-      <c r="C48" s="81" t="s">
+      <c r="C48" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="82"/>
-      <c r="E48" s="103" t="s">
+      <c r="D48" s="92"/>
+      <c r="E48" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="F48" s="82"/>
-      <c r="G48" s="104" t="s">
+      <c r="F48" s="92"/>
+      <c r="G48" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="H48" s="100"/>
-      <c r="I48" s="99" t="s">
+      <c r="H48" s="94"/>
+      <c r="I48" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="J48" s="100"/>
-      <c r="K48" s="104" t="s">
+      <c r="J48" s="94"/>
+      <c r="K48" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="L48" s="99"/>
-      <c r="M48" s="100"/>
-      <c r="N48" s="104" t="s">
+      <c r="L48" s="95"/>
+      <c r="M48" s="94"/>
+      <c r="N48" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="O48" s="100"/>
+      <c r="O48" s="94"/>
       <c r="P48" s="111"/>
       <c r="Q48" s="112"/>
       <c r="R48" s="112"/>
@@ -11083,26 +11080,26 @@
       <c r="AJ48" s="112"/>
       <c r="AK48" s="113"/>
     </row>
-    <row r="49" spans="1:37" ht="15.75" customHeight="1" thickBot="1">
+    <row r="49" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="60" t="s">
         <v>7</v>
       </c>
       <c r="B49" s="63"/>
-      <c r="C49" s="91" t="s">
+      <c r="C49" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="92"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="93"/>
-      <c r="G49" s="94" t="s">
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="H49" s="94"/>
-      <c r="I49" s="94"/>
-      <c r="J49" s="95"/>
-      <c r="K49" s="96"/>
-      <c r="L49" s="97"/>
-      <c r="M49" s="98"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="85"/>
+      <c r="K49" s="86"/>
+      <c r="L49" s="87"/>
+      <c r="M49" s="88"/>
       <c r="N49" s="142" t="s">
         <v>15</v>
       </c>
@@ -11138,7 +11135,7 @@
       <c r="AJ49" s="137"/>
       <c r="AK49" s="138"/>
     </row>
-    <row r="50" spans="1:37" ht="15.75" customHeight="1">
+    <row r="50" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="61"/>
       <c r="B50" s="64"/>
       <c r="C50" s="120"/>
@@ -11179,7 +11176,7 @@
       <c r="AJ50" s="115"/>
       <c r="AK50" s="116"/>
     </row>
-    <row r="51" spans="1:37" ht="15.75" customHeight="1" thickBot="1">
+    <row r="51" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="61"/>
       <c r="B51" s="64"/>
       <c r="C51" s="120"/>
@@ -11218,7 +11215,7 @@
       <c r="AJ51" s="118"/>
       <c r="AK51" s="119"/>
     </row>
-    <row r="52" spans="1:37" ht="15.75" customHeight="1">
+    <row r="52" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="61"/>
       <c r="B52" s="64"/>
       <c r="C52" s="120" t="s">
@@ -11265,7 +11262,7 @@
       <c r="AJ52" s="129"/>
       <c r="AK52" s="130"/>
     </row>
-    <row r="53" spans="1:37" ht="15.75" customHeight="1" thickBot="1">
+    <row r="53" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="62"/>
       <c r="B53" s="65"/>
       <c r="C53" s="144" t="s">
@@ -11386,20 +11383,20 @@
       <selection activeCell="AK21" sqref="AK21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="2.5" style="6" customWidth="1"/>
-    <col min="5" max="6" width="2.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="2.42578125" style="6" customWidth="1"/>
+    <col min="5" max="6" width="2.7109375" style="6" customWidth="1"/>
     <col min="7" max="9" width="3" style="6" customWidth="1"/>
-    <col min="10" max="36" width="2.6640625" style="6" customWidth="1"/>
-    <col min="37" max="37" width="2.5" style="6" customWidth="1"/>
-    <col min="38" max="75" width="2.6640625" style="6" customWidth="1"/>
-    <col min="76" max="16384" width="8.83203125" style="5"/>
+    <col min="10" max="36" width="2.7109375" style="6" customWidth="1"/>
+    <col min="37" max="37" width="2.42578125" style="6" customWidth="1"/>
+    <col min="38" max="75" width="2.7109375" style="6" customWidth="1"/>
+    <col min="76" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="15.75" customHeight="1">
+    <row r="1" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -11476,7 +11473,7 @@
       <c r="BV1" s="1"/>
       <c r="BW1" s="1"/>
     </row>
-    <row r="2" spans="1:75" ht="15.75" customHeight="1">
+    <row r="2" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -11513,7 +11510,7 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="9"/>
     </row>
-    <row r="3" spans="1:75" ht="15.75" customHeight="1">
+    <row r="3" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -11550,7 +11547,7 @@
       <c r="AJ3" s="8"/>
       <c r="AK3" s="9"/>
     </row>
-    <row r="4" spans="1:75" ht="15.75" customHeight="1">
+    <row r="4" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="7"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -11587,7 +11584,7 @@
       <c r="AJ4" s="8"/>
       <c r="AK4" s="9"/>
     </row>
-    <row r="5" spans="1:75" ht="15.75" customHeight="1">
+    <row r="5" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="10"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -11595,7 +11592,7 @@
       <c r="AK5" s="12"/>
       <c r="AQ5" s="5"/>
     </row>
-    <row r="6" spans="1:75" ht="15.75" customHeight="1">
+    <row r="6" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -11632,7 +11629,7 @@
       <c r="AJ6" s="14"/>
       <c r="AK6" s="15"/>
     </row>
-    <row r="7" spans="1:75" ht="15.75" customHeight="1">
+    <row r="7" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="16"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -11669,11 +11666,11 @@
       <c r="AJ7" s="14"/>
       <c r="AK7" s="15"/>
     </row>
-    <row r="8" spans="1:75" ht="15.75" customHeight="1">
+    <row r="8" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="10"/>
       <c r="AK8" s="12"/>
     </row>
-    <row r="9" spans="1:75" ht="15.75" customHeight="1">
+    <row r="9" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="10"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -11710,7 +11707,7 @@
       <c r="AJ9" s="17"/>
       <c r="AK9" s="12"/>
     </row>
-    <row r="10" spans="1:75" ht="15.75" customHeight="1">
+    <row r="10" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="18"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -11747,7 +11744,7 @@
       <c r="AJ10" s="17"/>
       <c r="AK10" s="19"/>
     </row>
-    <row r="11" spans="1:75" ht="15.75" customHeight="1">
+    <row r="11" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="18"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -11784,11 +11781,11 @@
       <c r="AJ11" s="17"/>
       <c r="AK11" s="19"/>
     </row>
-    <row r="12" spans="1:75" ht="15.75" customHeight="1">
+    <row r="12" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="18"/>
       <c r="AK12" s="19"/>
     </row>
-    <row r="13" spans="1:75" ht="15.75" customHeight="1">
+    <row r="13" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="20"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
@@ -11825,7 +11822,7 @@
       <c r="AJ13" s="21"/>
       <c r="AK13" s="22"/>
     </row>
-    <row r="14" spans="1:75" ht="15.75" customHeight="1">
+    <row r="14" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="20"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -11862,7 +11859,7 @@
       <c r="AJ14" s="21"/>
       <c r="AK14" s="22"/>
     </row>
-    <row r="15" spans="1:75" ht="15.75" customHeight="1">
+    <row r="15" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="10"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -11899,7 +11896,7 @@
       <c r="AJ15" s="21"/>
       <c r="AK15" s="12"/>
     </row>
-    <row r="16" spans="1:75" ht="15.75" customHeight="1">
+    <row r="16" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="10"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -11936,7 +11933,7 @@
       <c r="AJ16" s="21"/>
       <c r="AK16" s="12"/>
     </row>
-    <row r="17" spans="1:37" s="6" customFormat="1" ht="16.75" customHeight="1">
+    <row r="17" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="10"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
@@ -11973,15 +11970,15 @@
       <c r="AJ17" s="21"/>
       <c r="AK17" s="12"/>
     </row>
-    <row r="18" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="18" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="10"/>
       <c r="AK18" s="12"/>
     </row>
-    <row r="19" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="10"/>
       <c r="AK19" s="12"/>
     </row>
-    <row r="20" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="20" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="10"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
@@ -12018,7 +12015,7 @@
       <c r="AJ20" s="23"/>
       <c r="AK20" s="12"/>
     </row>
-    <row r="21" spans="1:37" s="6" customFormat="1" ht="16.75" customHeight="1">
+    <row r="21" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="10"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -12055,15 +12052,15 @@
       <c r="AJ21" s="23"/>
       <c r="AK21" s="12"/>
     </row>
-    <row r="22" spans="1:37" s="6" customFormat="1" ht="16.75" customHeight="1">
+    <row r="22" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="10"/>
       <c r="AK22" s="12"/>
     </row>
-    <row r="23" spans="1:37" s="6" customFormat="1" ht="16.75" customHeight="1">
+    <row r="23" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="10"/>
       <c r="AK23" s="12"/>
     </row>
-    <row r="24" spans="1:37" s="6" customFormat="1" ht="16.75" customHeight="1" thickBot="1">
+    <row r="24" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C24" s="10"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
@@ -12100,7 +12097,7 @@
       <c r="AJ24" s="21"/>
       <c r="AK24" s="12"/>
     </row>
-    <row r="25" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="25" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="60" t="s">
         <v>8</v>
       </c>
@@ -12141,13 +12138,13 @@
       <c r="AJ25" s="21"/>
       <c r="AK25" s="12"/>
     </row>
-    <row r="26" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="26" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="61"/>
       <c r="B26" s="64"/>
       <c r="C26" s="10"/>
       <c r="AK26" s="12"/>
     </row>
-    <row r="27" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="27" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="61"/>
       <c r="B27" s="64"/>
       <c r="C27" s="10"/>
@@ -12186,7 +12183,7 @@
       <c r="AJ27" s="23"/>
       <c r="AK27" s="12"/>
     </row>
-    <row r="28" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="28" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="61"/>
       <c r="B28" s="64"/>
       <c r="C28" s="10"/>
@@ -12225,25 +12222,25 @@
       <c r="AJ28" s="23"/>
       <c r="AK28" s="12"/>
     </row>
-    <row r="29" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="29" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="61"/>
       <c r="B29" s="64"/>
       <c r="C29" s="10"/>
       <c r="AK29" s="12"/>
     </row>
-    <row r="30" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="30" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="61"/>
       <c r="B30" s="64"/>
       <c r="C30" s="10"/>
       <c r="AK30" s="12"/>
     </row>
-    <row r="31" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="31" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="62"/>
       <c r="B31" s="65"/>
       <c r="C31" s="10"/>
       <c r="AK31" s="12"/>
     </row>
-    <row r="32" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="32" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="60" t="s">
         <v>10</v>
       </c>
@@ -12251,31 +12248,31 @@
       <c r="C32" s="10"/>
       <c r="AK32" s="12"/>
     </row>
-    <row r="33" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="33" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="61"/>
       <c r="B33" s="64"/>
       <c r="C33" s="10"/>
       <c r="AK33" s="12"/>
     </row>
-    <row r="34" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="34" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="61"/>
       <c r="B34" s="64"/>
       <c r="C34" s="10"/>
       <c r="AK34" s="12"/>
     </row>
-    <row r="35" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="35" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="61"/>
       <c r="B35" s="64"/>
       <c r="C35" s="10"/>
       <c r="AK35" s="12"/>
     </row>
-    <row r="36" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="36" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="62"/>
       <c r="B36" s="65"/>
       <c r="C36" s="10"/>
       <c r="AK36" s="12"/>
     </row>
-    <row r="37" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="37" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="60" t="s">
         <v>9</v>
       </c>
@@ -12283,31 +12280,31 @@
       <c r="C37" s="10"/>
       <c r="AK37" s="12"/>
     </row>
-    <row r="38" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="38" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="61"/>
       <c r="B38" s="64"/>
       <c r="C38" s="10"/>
       <c r="AK38" s="12"/>
     </row>
-    <row r="39" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="39" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="61"/>
       <c r="B39" s="64"/>
       <c r="C39" s="10"/>
       <c r="AK39" s="12"/>
     </row>
-    <row r="40" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="40" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="61"/>
       <c r="B40" s="64"/>
       <c r="C40" s="10"/>
       <c r="AK40" s="12"/>
     </row>
-    <row r="41" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="41" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="62"/>
       <c r="B41" s="65"/>
       <c r="C41" s="7"/>
       <c r="AK41" s="9"/>
     </row>
-    <row r="42" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="42" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="60" t="s">
         <v>8</v>
       </c>
@@ -12315,7 +12312,7 @@
       <c r="C42" s="7"/>
       <c r="AK42" s="9"/>
     </row>
-    <row r="43" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="43" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="61"/>
       <c r="B43" s="64"/>
       <c r="C43" s="10"/>
@@ -12354,7 +12351,7 @@
       <c r="AJ43" s="8"/>
       <c r="AK43" s="9"/>
     </row>
-    <row r="44" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="44" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="61"/>
       <c r="B44" s="64"/>
       <c r="C44" s="10"/>
@@ -12393,12 +12390,12 @@
       <c r="AJ44" s="8"/>
       <c r="AK44" s="12"/>
     </row>
-    <row r="45" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="45" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="61"/>
       <c r="B45" s="64"/>
       <c r="AK45" s="12"/>
     </row>
-    <row r="46" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="46" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="61"/>
       <c r="B46" s="67"/>
       <c r="C46" s="10"/>
@@ -12425,7 +12422,7 @@
       <c r="AJ46" s="26"/>
       <c r="AK46" s="27"/>
     </row>
-    <row r="47" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="47" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="61"/>
       <c r="B47" s="67"/>
       <c r="C47" s="28"/>
@@ -12462,7 +12459,7 @@
       <c r="AJ47" s="26"/>
       <c r="AK47" s="27"/>
     </row>
-    <row r="48" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="48" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="62"/>
       <c r="B48" s="68"/>
       <c r="C48" s="10"/>
@@ -12489,7 +12486,7 @@
       <c r="AJ48" s="26"/>
       <c r="AK48" s="27"/>
     </row>
-    <row r="49" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="49" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="60" t="s">
         <v>7</v>
       </c>
@@ -12530,7 +12527,7 @@
       <c r="AJ49" s="14"/>
       <c r="AK49" s="15"/>
     </row>
-    <row r="50" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="50" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="61"/>
       <c r="B50" s="67"/>
       <c r="C50" s="30"/>
@@ -12569,7 +12566,7 @@
       <c r="AJ50" s="33"/>
       <c r="AK50" s="34"/>
     </row>
-    <row r="51" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="51" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="61"/>
       <c r="B51" s="64"/>
       <c r="C51" s="164"/>
@@ -12612,22 +12609,22 @@
       <c r="AJ51" s="118"/>
       <c r="AK51" s="119"/>
     </row>
-    <row r="52" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="52" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="61"/>
       <c r="B52" s="64"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="87"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="87"/>
+      <c r="C52" s="103"/>
+      <c r="D52" s="104"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="104"/>
       <c r="G52" s="165"/>
       <c r="H52" s="166"/>
       <c r="I52" s="167"/>
       <c r="J52" s="166"/>
-      <c r="K52" s="86"/>
+      <c r="K52" s="103"/>
       <c r="L52" s="168"/>
-      <c r="M52" s="87"/>
-      <c r="N52" s="86"/>
-      <c r="O52" s="87"/>
+      <c r="M52" s="104"/>
+      <c r="N52" s="103"/>
+      <c r="O52" s="104"/>
       <c r="P52" s="108"/>
       <c r="Q52" s="109"/>
       <c r="R52" s="109"/>
@@ -12651,34 +12648,34 @@
       <c r="AJ52" s="129"/>
       <c r="AK52" s="130"/>
     </row>
-    <row r="53" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="53" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="62"/>
       <c r="B53" s="65"/>
-      <c r="C53" s="81" t="s">
+      <c r="C53" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="82"/>
-      <c r="E53" s="103" t="s">
+      <c r="D53" s="92"/>
+      <c r="E53" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="F53" s="82"/>
-      <c r="G53" s="104" t="s">
+      <c r="F53" s="92"/>
+      <c r="G53" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="H53" s="100"/>
-      <c r="I53" s="99" t="s">
+      <c r="H53" s="94"/>
+      <c r="I53" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="J53" s="100"/>
-      <c r="K53" s="104" t="s">
+      <c r="J53" s="94"/>
+      <c r="K53" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="L53" s="99"/>
-      <c r="M53" s="100"/>
-      <c r="N53" s="104" t="s">
+      <c r="L53" s="95"/>
+      <c r="M53" s="94"/>
+      <c r="N53" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="O53" s="100"/>
+      <c r="O53" s="94"/>
       <c r="P53" s="111"/>
       <c r="Q53" s="112"/>
       <c r="R53" s="112"/>

--- a/utils/report.xlsx
+++ b/utils/report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steel\OneDrive\Документы\Github\spouralExcel\utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pomid\repos\spouralExcel\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B4C736-D5BB-4109-9060-8C7B5995A57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258F8B66-BF93-45DA-92EC-55450916D8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="1035" windowWidth="20325" windowHeight="15345" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный лист" sheetId="8" r:id="rId1"/>
@@ -697,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1275,10 +1275,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1465,9 +1461,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1505,7 +1501,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1611,7 +1607,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1753,7 +1749,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1764,20 +1760,20 @@
   <dimension ref="A1:BW53"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A5" zoomScale="115" zoomScaleNormal="160" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q1:Q1048576"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="6"/>
-    <col min="2" max="2" width="2.85546875" style="6" customWidth="1"/>
-    <col min="3" max="15" width="2.7109375" style="6"/>
-    <col min="16" max="17" width="2.85546875" style="6" customWidth="1"/>
-    <col min="18" max="75" width="2.7109375" style="6"/>
-    <col min="76" max="16384" width="2.7109375" style="5"/>
+    <col min="1" max="1" width="2.6640625" style="6"/>
+    <col min="2" max="2" width="2.6640625" style="6" customWidth="1"/>
+    <col min="3" max="15" width="2.6640625" style="6"/>
+    <col min="16" max="17" width="2.88671875" style="6" customWidth="1"/>
+    <col min="18" max="75" width="2.6640625" style="6"/>
+    <col min="76" max="16384" width="2.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="35"/>
@@ -1856,7 +1852,7 @@
       <c r="BV1" s="1"/>
       <c r="BW1" s="1"/>
     </row>
-    <row r="2" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="37"/>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
@@ -1893,7 +1889,7 @@
       <c r="AJ2" s="72"/>
       <c r="AK2" s="73"/>
     </row>
-    <row r="3" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="37"/>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
@@ -1930,7 +1926,7 @@
       <c r="AJ3" s="72"/>
       <c r="AK3" s="73"/>
     </row>
-    <row r="4" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="39"/>
       <c r="D4" s="40"/>
       <c r="E4" s="38"/>
@@ -1967,7 +1963,7 @@
       <c r="AJ4" s="72"/>
       <c r="AK4" s="73"/>
     </row>
-    <row r="5" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="10"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -1975,7 +1971,7 @@
       <c r="AK5" s="12"/>
       <c r="AQ5" s="5"/>
     </row>
-    <row r="6" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="13"/>
       <c r="D6" s="78" t="s">
         <v>20</v>
@@ -2014,7 +2010,7 @@
       <c r="AJ6" s="78"/>
       <c r="AK6" s="15"/>
     </row>
-    <row r="7" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="16"/>
       <c r="D7" s="78"/>
       <c r="E7" s="78"/>
@@ -2051,11 +2047,11 @@
       <c r="AJ7" s="78"/>
       <c r="AK7" s="15"/>
     </row>
-    <row r="8" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="10"/>
       <c r="AK8" s="12"/>
     </row>
-    <row r="9" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="10"/>
       <c r="D9" s="77" t="s">
         <v>21</v>
@@ -2094,7 +2090,7 @@
       <c r="AJ9" s="77"/>
       <c r="AK9" s="12"/>
     </row>
-    <row r="10" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="18"/>
       <c r="D10" s="77"/>
       <c r="E10" s="77"/>
@@ -2131,7 +2127,7 @@
       <c r="AJ10" s="77"/>
       <c r="AK10" s="19"/>
     </row>
-    <row r="11" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="18"/>
       <c r="D11" s="77"/>
       <c r="E11" s="77"/>
@@ -2168,11 +2164,11 @@
       <c r="AJ11" s="77"/>
       <c r="AK11" s="19"/>
     </row>
-    <row r="12" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="18"/>
       <c r="AK12" s="19"/>
     </row>
-    <row r="13" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="20"/>
       <c r="D13" s="74" t="s">
         <v>12</v>
@@ -2211,7 +2207,7 @@
       <c r="AJ13" s="74"/>
       <c r="AK13" s="22"/>
     </row>
-    <row r="14" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="20"/>
       <c r="D14" s="74"/>
       <c r="E14" s="74"/>
@@ -2248,7 +2244,7 @@
       <c r="AJ14" s="74"/>
       <c r="AK14" s="22"/>
     </row>
-    <row r="15" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="10"/>
       <c r="D15" s="74"/>
       <c r="E15" s="74"/>
@@ -2285,7 +2281,7 @@
       <c r="AJ15" s="74"/>
       <c r="AK15" s="12"/>
     </row>
-    <row r="16" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="10"/>
       <c r="D16" s="74"/>
       <c r="E16" s="74"/>
@@ -2322,7 +2318,7 @@
       <c r="AJ16" s="74"/>
       <c r="AK16" s="12"/>
     </row>
-    <row r="17" spans="1:37" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="10"/>
       <c r="D17" s="74"/>
       <c r="E17" s="74"/>
@@ -2359,15 +2355,15 @@
       <c r="AJ17" s="74"/>
       <c r="AK17" s="12"/>
     </row>
-    <row r="18" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="10"/>
       <c r="AK18" s="12"/>
     </row>
-    <row r="19" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="10"/>
       <c r="AK19" s="12"/>
     </row>
-    <row r="20" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="10"/>
       <c r="D20" s="79" t="s">
         <v>18</v>
@@ -2406,7 +2402,7 @@
       <c r="AJ20" s="79"/>
       <c r="AK20" s="12"/>
     </row>
-    <row r="21" spans="1:37" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="10"/>
       <c r="D21" s="79"/>
       <c r="E21" s="79"/>
@@ -2443,19 +2439,19 @@
       <c r="AJ21" s="79"/>
       <c r="AK21" s="12"/>
     </row>
-    <row r="22" spans="1:37" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="10"/>
       <c r="AK22" s="12"/>
     </row>
-    <row r="23" spans="1:37" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="10"/>
       <c r="AK23" s="12"/>
     </row>
-    <row r="24" spans="1:37" ht="16.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="16.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="10"/>
       <c r="AK24" s="12"/>
     </row>
-    <row r="25" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="60" t="s">
         <v>8</v>
       </c>
@@ -2498,7 +2494,7 @@
       <c r="AJ25" s="74"/>
       <c r="AK25" s="12"/>
     </row>
-    <row r="26" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="61"/>
       <c r="B26" s="64"/>
       <c r="C26" s="10"/>
@@ -2537,13 +2533,13 @@
       <c r="AJ26" s="74"/>
       <c r="AK26" s="12"/>
     </row>
-    <row r="27" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="61"/>
       <c r="B27" s="64"/>
       <c r="C27" s="10"/>
       <c r="AK27" s="12"/>
     </row>
-    <row r="28" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="61"/>
       <c r="B28" s="64"/>
       <c r="C28" s="10"/>
@@ -2584,7 +2580,7 @@
       <c r="AJ28" s="79"/>
       <c r="AK28" s="12"/>
     </row>
-    <row r="29" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="61"/>
       <c r="B29" s="64"/>
       <c r="C29" s="10"/>
@@ -2623,19 +2619,19 @@
       <c r="AJ29" s="79"/>
       <c r="AK29" s="12"/>
     </row>
-    <row r="30" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="61"/>
       <c r="B30" s="64"/>
       <c r="C30" s="10"/>
       <c r="AK30" s="12"/>
     </row>
-    <row r="31" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="62"/>
       <c r="B31" s="65"/>
       <c r="C31" s="10"/>
       <c r="AK31" s="12"/>
     </row>
-    <row r="32" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="60" t="s">
         <v>10</v>
       </c>
@@ -2643,31 +2639,31 @@
       <c r="C32" s="10"/>
       <c r="AK32" s="12"/>
     </row>
-    <row r="33" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="61"/>
       <c r="B33" s="64"/>
       <c r="C33" s="10"/>
       <c r="AK33" s="12"/>
     </row>
-    <row r="34" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="61"/>
       <c r="B34" s="64"/>
       <c r="C34" s="10"/>
       <c r="AK34" s="12"/>
     </row>
-    <row r="35" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="61"/>
       <c r="B35" s="64"/>
       <c r="C35" s="10"/>
       <c r="AK35" s="12"/>
     </row>
-    <row r="36" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="62"/>
       <c r="B36" s="65"/>
       <c r="C36" s="10"/>
       <c r="AK36" s="12"/>
     </row>
-    <row r="37" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="60" t="s">
         <v>9</v>
       </c>
@@ -2675,19 +2671,19 @@
       <c r="C37" s="10"/>
       <c r="AK37" s="12"/>
     </row>
-    <row r="38" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="61"/>
       <c r="B38" s="64"/>
       <c r="C38" s="10"/>
       <c r="AK38" s="12"/>
     </row>
-    <row r="39" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="61"/>
       <c r="B39" s="64"/>
       <c r="C39" s="10"/>
       <c r="AK39" s="12"/>
     </row>
-    <row r="40" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="61"/>
       <c r="B40" s="64"/>
       <c r="C40" s="10"/>
@@ -2730,7 +2726,7 @@
       <c r="AJ40" s="76"/>
       <c r="AK40" s="12"/>
     </row>
-    <row r="41" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="62"/>
       <c r="B41" s="65"/>
       <c r="C41" s="7"/>
@@ -2754,7 +2750,7 @@
       <c r="AJ41" s="76"/>
       <c r="AK41" s="9"/>
     </row>
-    <row r="42" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="60" t="s">
         <v>8</v>
       </c>
@@ -2762,24 +2758,24 @@
       <c r="C42" s="7"/>
       <c r="AK42" s="9"/>
     </row>
-    <row r="43" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="61"/>
       <c r="B43" s="64"/>
       <c r="C43" s="10"/>
       <c r="AK43" s="9"/>
     </row>
-    <row r="44" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="61"/>
       <c r="B44" s="64"/>
       <c r="C44" s="10"/>
       <c r="AK44" s="12"/>
     </row>
-    <row r="45" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="61"/>
       <c r="B45" s="64"/>
       <c r="AK45" s="12"/>
     </row>
-    <row r="46" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="61"/>
       <c r="B46" s="67"/>
       <c r="C46" s="10"/>
@@ -2806,7 +2802,7 @@
       <c r="AJ46" s="26"/>
       <c r="AK46" s="27"/>
     </row>
-    <row r="47" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="61"/>
       <c r="B47" s="67"/>
       <c r="C47" s="28"/>
@@ -2843,7 +2839,7 @@
       <c r="AJ47" s="26"/>
       <c r="AK47" s="27"/>
     </row>
-    <row r="48" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="62"/>
       <c r="B48" s="68"/>
       <c r="C48" s="42"/>
@@ -2882,7 +2878,7 @@
       <c r="AJ48" s="26"/>
       <c r="AK48" s="27"/>
     </row>
-    <row r="49" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="60" t="s">
         <v>7</v>
       </c>
@@ -2923,7 +2919,7 @@
       <c r="AJ49" s="14"/>
       <c r="AK49" s="15"/>
     </row>
-    <row r="50" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="61"/>
       <c r="B50" s="67"/>
       <c r="C50" s="28"/>
@@ -2962,7 +2958,7 @@
       <c r="AJ50" s="29"/>
       <c r="AK50" s="43"/>
     </row>
-    <row r="51" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="61"/>
       <c r="B51" s="67"/>
       <c r="C51" s="28"/>
@@ -3003,7 +2999,7 @@
       <c r="AJ51" s="69"/>
       <c r="AK51" s="43"/>
     </row>
-    <row r="52" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="61"/>
       <c r="B52" s="67"/>
       <c r="C52" s="28"/>
@@ -3045,7 +3041,7 @@
       <c r="AJ52" s="69"/>
       <c r="AK52" s="15"/>
     </row>
-    <row r="53" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="62"/>
       <c r="B53" s="68"/>
       <c r="C53" s="30"/>
@@ -3121,19 +3117,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7FCCDD-5EAB-4EE3-8581-1153B0B05959}">
   <dimension ref="A1:BW53"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="15" width="2.7109375" style="6"/>
-    <col min="16" max="17" width="2.85546875" style="6" customWidth="1"/>
-    <col min="18" max="75" width="2.7109375" style="6"/>
-    <col min="76" max="16384" width="2.7109375" style="5"/>
+    <col min="1" max="15" width="2.6640625" style="6"/>
+    <col min="16" max="17" width="2.88671875" style="6" customWidth="1"/>
+    <col min="18" max="75" width="2.6640625" style="6"/>
+    <col min="76" max="16384" width="2.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="89" t="s">
@@ -3212,7 +3208,7 @@
       <c r="BV1" s="1"/>
       <c r="BW1" s="1"/>
     </row>
-    <row r="2" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
       <c r="E2" s="89"/>
@@ -3249,7 +3245,7 @@
       <c r="AJ2" s="89"/>
       <c r="AK2" s="89"/>
     </row>
-    <row r="3" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
       <c r="E3" s="89"/>
@@ -3286,7 +3282,7 @@
       <c r="AJ3" s="89"/>
       <c r="AK3" s="89"/>
     </row>
-    <row r="4" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
       <c r="E4" s="89"/>
@@ -3323,7 +3319,7 @@
       <c r="AJ4" s="89"/>
       <c r="AK4" s="89"/>
     </row>
-    <row r="5" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="90" t="s">
         <v>32</v>
       </c>
@@ -3367,7 +3363,7 @@
       <c r="AK5" s="80"/>
       <c r="AQ5" s="5"/>
     </row>
-    <row r="6" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="90"/>
       <c r="D6" s="90"/>
       <c r="E6" s="90"/>
@@ -3404,7 +3400,7 @@
       <c r="AJ6" s="80"/>
       <c r="AK6" s="80"/>
     </row>
-    <row r="7" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="90"/>
       <c r="D7" s="90"/>
       <c r="E7" s="90"/>
@@ -3441,11 +3437,11 @@
       <c r="AJ7" s="80"/>
       <c r="AK7" s="80"/>
     </row>
-    <row r="8" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="10"/>
       <c r="AK8" s="12"/>
     </row>
-    <row r="9" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="10"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -3482,7 +3478,7 @@
       <c r="AJ9" s="17"/>
       <c r="AK9" s="12"/>
     </row>
-    <row r="10" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="18"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -3519,7 +3515,7 @@
       <c r="AJ10" s="17"/>
       <c r="AK10" s="19"/>
     </row>
-    <row r="11" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="18"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -3556,11 +3552,11 @@
       <c r="AJ11" s="17"/>
       <c r="AK11" s="19"/>
     </row>
-    <row r="12" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="18"/>
       <c r="AK12" s="19"/>
     </row>
-    <row r="13" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="20"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
@@ -3597,7 +3593,7 @@
       <c r="AJ13" s="21"/>
       <c r="AK13" s="22"/>
     </row>
-    <row r="14" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="20"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -3634,7 +3630,7 @@
       <c r="AJ14" s="21"/>
       <c r="AK14" s="22"/>
     </row>
-    <row r="15" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="10"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -3671,7 +3667,7 @@
       <c r="AJ15" s="21"/>
       <c r="AK15" s="12"/>
     </row>
-    <row r="16" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="10"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -3708,7 +3704,7 @@
       <c r="AJ16" s="21"/>
       <c r="AK16" s="12"/>
     </row>
-    <row r="17" spans="1:37" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="10"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
@@ -3745,15 +3741,15 @@
       <c r="AJ17" s="21"/>
       <c r="AK17" s="12"/>
     </row>
-    <row r="18" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="10"/>
       <c r="AK18" s="12"/>
     </row>
-    <row r="19" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="10"/>
       <c r="AK19" s="12"/>
     </row>
-    <row r="20" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="10"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
@@ -3790,7 +3786,7 @@
       <c r="AJ20" s="23"/>
       <c r="AK20" s="12"/>
     </row>
-    <row r="21" spans="1:37" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="10"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -3827,15 +3823,15 @@
       <c r="AJ21" s="23"/>
       <c r="AK21" s="12"/>
     </row>
-    <row r="22" spans="1:37" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="10"/>
       <c r="AK22" s="12"/>
     </row>
-    <row r="23" spans="1:37" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="10"/>
       <c r="AK23" s="12"/>
     </row>
-    <row r="24" spans="1:37" ht="16.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="16.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="10"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
@@ -3872,7 +3868,7 @@
       <c r="AJ24" s="21"/>
       <c r="AK24" s="12"/>
     </row>
-    <row r="25" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="60" t="s">
         <v>8</v>
       </c>
@@ -3913,13 +3909,13 @@
       <c r="AJ25" s="21"/>
       <c r="AK25" s="12"/>
     </row>
-    <row r="26" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="61"/>
       <c r="B26" s="64"/>
       <c r="C26" s="10"/>
       <c r="AK26" s="12"/>
     </row>
-    <row r="27" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="61"/>
       <c r="B27" s="64"/>
       <c r="C27" s="10"/>
@@ -3958,7 +3954,7 @@
       <c r="AJ27" s="23"/>
       <c r="AK27" s="12"/>
     </row>
-    <row r="28" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="61"/>
       <c r="B28" s="64"/>
       <c r="C28" s="10"/>
@@ -3997,25 +3993,25 @@
       <c r="AJ28" s="23"/>
       <c r="AK28" s="12"/>
     </row>
-    <row r="29" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="61"/>
       <c r="B29" s="64"/>
       <c r="C29" s="10"/>
       <c r="AK29" s="12"/>
     </row>
-    <row r="30" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="61"/>
       <c r="B30" s="64"/>
       <c r="C30" s="10"/>
       <c r="AK30" s="12"/>
     </row>
-    <row r="31" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="62"/>
       <c r="B31" s="65"/>
       <c r="C31" s="10"/>
       <c r="AK31" s="12"/>
     </row>
-    <row r="32" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="60" t="s">
         <v>10</v>
       </c>
@@ -4023,31 +4019,31 @@
       <c r="C32" s="10"/>
       <c r="AK32" s="12"/>
     </row>
-    <row r="33" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="61"/>
       <c r="B33" s="64"/>
       <c r="C33" s="10"/>
       <c r="AK33" s="12"/>
     </row>
-    <row r="34" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="61"/>
       <c r="B34" s="64"/>
       <c r="C34" s="10"/>
       <c r="AK34" s="12"/>
     </row>
-    <row r="35" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="61"/>
       <c r="B35" s="64"/>
       <c r="C35" s="10"/>
       <c r="AK35" s="12"/>
     </row>
-    <row r="36" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="62"/>
       <c r="B36" s="65"/>
       <c r="C36" s="10"/>
       <c r="AK36" s="12"/>
     </row>
-    <row r="37" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="60" t="s">
         <v>9</v>
       </c>
@@ -4055,13 +4051,13 @@
       <c r="C37" s="10"/>
       <c r="AK37" s="12"/>
     </row>
-    <row r="38" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="61"/>
       <c r="B38" s="64"/>
       <c r="C38" s="10"/>
       <c r="AK38" s="12"/>
     </row>
-    <row r="39" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="61"/>
       <c r="B39" s="64"/>
       <c r="C39" s="10"/>
@@ -4096,7 +4092,7 @@
       <c r="AG39" s="25"/>
       <c r="AK39" s="12"/>
     </row>
-    <row r="40" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="61"/>
       <c r="B40" s="64"/>
       <c r="C40" s="10"/>
@@ -4131,7 +4127,7 @@
       <c r="AG40" s="25"/>
       <c r="AK40" s="12"/>
     </row>
-    <row r="41" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="62"/>
       <c r="B41" s="65"/>
       <c r="C41" s="7"/>
@@ -4166,7 +4162,7 @@
       <c r="AG41" s="25"/>
       <c r="AK41" s="9"/>
     </row>
-    <row r="42" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="60" t="s">
         <v>8</v>
       </c>
@@ -4203,7 +4199,7 @@
       <c r="AG42" s="25"/>
       <c r="AK42" s="9"/>
     </row>
-    <row r="43" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="61"/>
       <c r="B43" s="64"/>
       <c r="C43" s="10"/>
@@ -4242,7 +4238,7 @@
       <c r="AJ43" s="8"/>
       <c r="AK43" s="9"/>
     </row>
-    <row r="44" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="61"/>
       <c r="B44" s="64"/>
       <c r="C44" s="10"/>
@@ -4281,12 +4277,12 @@
       <c r="AJ44" s="8"/>
       <c r="AK44" s="12"/>
     </row>
-    <row r="45" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="61"/>
       <c r="B45" s="64"/>
       <c r="AK45" s="24"/>
     </row>
-    <row r="46" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="61"/>
       <c r="B46" s="64"/>
       <c r="C46" s="100"/>
@@ -4327,7 +4323,7 @@
       <c r="AJ46" s="106"/>
       <c r="AK46" s="107"/>
     </row>
-    <row r="47" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="61"/>
       <c r="B47" s="64"/>
       <c r="C47" s="96"/>
@@ -4366,7 +4362,7 @@
       <c r="AJ47" s="109"/>
       <c r="AK47" s="110"/>
     </row>
-    <row r="48" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="62"/>
       <c r="B48" s="65"/>
       <c r="C48" s="99" t="s">
@@ -4417,7 +4413,7 @@
       <c r="AJ48" s="112"/>
       <c r="AK48" s="113"/>
     </row>
-    <row r="49" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="60" t="s">
         <v>7</v>
       </c>
@@ -4472,7 +4468,7 @@
       <c r="AJ49" s="137"/>
       <c r="AK49" s="138"/>
     </row>
-    <row r="50" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="61"/>
       <c r="B50" s="64"/>
       <c r="C50" s="120"/>
@@ -4513,7 +4509,7 @@
       <c r="AJ50" s="115"/>
       <c r="AK50" s="116"/>
     </row>
-    <row r="51" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="61"/>
       <c r="B51" s="64"/>
       <c r="C51" s="120"/>
@@ -4552,7 +4548,7 @@
       <c r="AJ51" s="118"/>
       <c r="AK51" s="119"/>
     </row>
-    <row r="52" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="61"/>
       <c r="B52" s="64"/>
       <c r="C52" s="120" t="s">
@@ -4599,7 +4595,7 @@
       <c r="AJ52" s="129"/>
       <c r="AK52" s="130"/>
     </row>
-    <row r="53" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="62"/>
       <c r="B53" s="65"/>
       <c r="C53" s="144" t="s">
@@ -4720,21 +4716,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95880E5D-F500-3242-A423-888689946DB1}">
   <dimension ref="A1:BW53"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AD37" sqref="AD37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="6"/>
-    <col min="2" max="2" width="2.85546875" style="6" customWidth="1"/>
-    <col min="3" max="15" width="2.7109375" style="6"/>
-    <col min="16" max="17" width="2.85546875" style="6" customWidth="1"/>
-    <col min="18" max="75" width="2.7109375" style="6"/>
-    <col min="76" max="16384" width="2.7109375" style="5"/>
+    <col min="1" max="1" width="2.6640625" style="6"/>
+    <col min="2" max="2" width="2.6640625" style="6" customWidth="1"/>
+    <col min="3" max="15" width="2.6640625" style="6"/>
+    <col min="16" max="17" width="2.88671875" style="6" customWidth="1"/>
+    <col min="18" max="75" width="2.6640625" style="6"/>
+    <col min="76" max="16384" width="2.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="89" t="s">
@@ -4813,7 +4809,7 @@
       <c r="BV1" s="1"/>
       <c r="BW1" s="1"/>
     </row>
-    <row r="2" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="89"/>
       <c r="D2" s="89"/>
       <c r="E2" s="89"/>
@@ -4850,7 +4846,7 @@
       <c r="AJ2" s="89"/>
       <c r="AK2" s="89"/>
     </row>
-    <row r="3" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="89"/>
       <c r="D3" s="89"/>
       <c r="E3" s="89"/>
@@ -4887,7 +4883,7 @@
       <c r="AJ3" s="89"/>
       <c r="AK3" s="89"/>
     </row>
-    <row r="4" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
       <c r="E4" s="89"/>
@@ -4924,14 +4920,14 @@
       <c r="AJ4" s="89"/>
       <c r="AK4" s="89"/>
     </row>
-    <row r="5" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="10"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="AK5" s="12"/>
       <c r="AQ5" s="5"/>
     </row>
-    <row r="6" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="13"/>
       <c r="D6" s="169" t="s">
         <v>34</v>
@@ -4970,7 +4966,7 @@
       <c r="AJ6" s="169"/>
       <c r="AK6" s="15"/>
     </row>
-    <row r="7" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="16"/>
       <c r="D7" s="169"/>
       <c r="E7" s="169"/>
@@ -5007,7 +5003,7 @@
       <c r="AJ7" s="169"/>
       <c r="AK7" s="15"/>
     </row>
-    <row r="8" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="10"/>
       <c r="D8" s="169"/>
       <c r="E8" s="169"/>
@@ -5044,7 +5040,7 @@
       <c r="AJ8" s="169"/>
       <c r="AK8" s="12"/>
     </row>
-    <row r="9" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="10"/>
       <c r="D9" s="169"/>
       <c r="E9" s="169"/>
@@ -5081,7 +5077,7 @@
       <c r="AJ9" s="169"/>
       <c r="AK9" s="12"/>
     </row>
-    <row r="10" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="18"/>
       <c r="D10" s="169"/>
       <c r="E10" s="169"/>
@@ -5118,7 +5114,7 @@
       <c r="AJ10" s="169"/>
       <c r="AK10" s="19"/>
     </row>
-    <row r="11" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="18"/>
       <c r="D11" s="169"/>
       <c r="E11" s="169"/>
@@ -5155,7 +5151,7 @@
       <c r="AJ11" s="169"/>
       <c r="AK11" s="19"/>
     </row>
-    <row r="12" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="18"/>
       <c r="D12" s="169"/>
       <c r="E12" s="169"/>
@@ -5192,7 +5188,7 @@
       <c r="AJ12" s="169"/>
       <c r="AK12" s="19"/>
     </row>
-    <row r="13" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="20"/>
       <c r="D13" s="46"/>
       <c r="E13" s="46"/>
@@ -5229,7 +5225,7 @@
       <c r="AJ13" s="46"/>
       <c r="AK13" s="22"/>
     </row>
-    <row r="14" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="20"/>
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
@@ -5266,7 +5262,7 @@
       <c r="AJ14" s="46"/>
       <c r="AK14" s="22"/>
     </row>
-    <row r="15" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="10"/>
       <c r="D15" s="46"/>
       <c r="E15" s="46"/>
@@ -5303,7 +5299,7 @@
       <c r="AJ15" s="46"/>
       <c r="AK15" s="12"/>
     </row>
-    <row r="16" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="10"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -5340,7 +5336,7 @@
       <c r="AJ16" s="21"/>
       <c r="AK16" s="12"/>
     </row>
-    <row r="17" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" s="6" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="10"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
@@ -5377,7 +5373,7 @@
       <c r="AJ17" s="21"/>
       <c r="AK17" s="12"/>
     </row>
-    <row r="18" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="10"/>
       <c r="D18" s="75" t="s">
         <v>35</v>
@@ -5418,11 +5414,11 @@
       <c r="AJ18" s="76"/>
       <c r="AK18" s="12"/>
     </row>
-    <row r="19" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="10"/>
       <c r="AK19" s="12"/>
     </row>
-    <row r="20" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="10"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
@@ -5459,7 +5455,7 @@
       <c r="AJ20" s="23"/>
       <c r="AK20" s="12"/>
     </row>
-    <row r="21" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" s="6" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="10"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -5496,15 +5492,15 @@
       <c r="AJ21" s="23"/>
       <c r="AK21" s="12"/>
     </row>
-    <row r="22" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" s="6" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="10"/>
       <c r="AK22" s="12"/>
     </row>
-    <row r="23" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" s="6" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="10"/>
       <c r="AK23" s="12"/>
     </row>
-    <row r="24" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" s="6" customFormat="1" ht="16.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="10"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
@@ -5541,7 +5537,7 @@
       <c r="AJ24" s="21"/>
       <c r="AK24" s="12"/>
     </row>
-    <row r="25" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="60" t="s">
         <v>8</v>
       </c>
@@ -5582,13 +5578,13 @@
       <c r="AJ25" s="21"/>
       <c r="AK25" s="12"/>
     </row>
-    <row r="26" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="61"/>
       <c r="B26" s="64"/>
       <c r="C26" s="10"/>
       <c r="AK26" s="12"/>
     </row>
-    <row r="27" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="61"/>
       <c r="B27" s="64"/>
       <c r="C27" s="10"/>
@@ -5627,7 +5623,7 @@
       <c r="AJ27" s="23"/>
       <c r="AK27" s="12"/>
     </row>
-    <row r="28" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="61"/>
       <c r="B28" s="64"/>
       <c r="C28" s="10"/>
@@ -5666,25 +5662,25 @@
       <c r="AJ28" s="23"/>
       <c r="AK28" s="12"/>
     </row>
-    <row r="29" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="61"/>
       <c r="B29" s="64"/>
       <c r="C29" s="10"/>
       <c r="AK29" s="12"/>
     </row>
-    <row r="30" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="61"/>
       <c r="B30" s="64"/>
       <c r="C30" s="10"/>
       <c r="AK30" s="12"/>
     </row>
-    <row r="31" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="62"/>
       <c r="B31" s="65"/>
       <c r="C31" s="10"/>
       <c r="AK31" s="12"/>
     </row>
-    <row r="32" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="60" t="s">
         <v>10</v>
       </c>
@@ -5692,31 +5688,31 @@
       <c r="C32" s="10"/>
       <c r="AK32" s="12"/>
     </row>
-    <row r="33" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="61"/>
       <c r="B33" s="64"/>
       <c r="C33" s="10"/>
       <c r="AK33" s="12"/>
     </row>
-    <row r="34" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="61"/>
       <c r="B34" s="64"/>
       <c r="C34" s="10"/>
       <c r="AK34" s="12"/>
     </row>
-    <row r="35" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="61"/>
       <c r="B35" s="64"/>
       <c r="C35" s="10"/>
       <c r="AK35" s="12"/>
     </row>
-    <row r="36" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="62"/>
       <c r="B36" s="65"/>
       <c r="C36" s="10"/>
       <c r="AK36" s="12"/>
     </row>
-    <row r="37" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="60" t="s">
         <v>9</v>
       </c>
@@ -5724,31 +5720,31 @@
       <c r="C37" s="10"/>
       <c r="AK37" s="12"/>
     </row>
-    <row r="38" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="61"/>
       <c r="B38" s="64"/>
       <c r="C38" s="10"/>
       <c r="AK38" s="12"/>
     </row>
-    <row r="39" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="61"/>
       <c r="B39" s="64"/>
       <c r="C39" s="10"/>
       <c r="AK39" s="12"/>
     </row>
-    <row r="40" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="61"/>
       <c r="B40" s="64"/>
       <c r="C40" s="10"/>
       <c r="AK40" s="12"/>
     </row>
-    <row r="41" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="62"/>
       <c r="B41" s="65"/>
       <c r="C41" s="7"/>
       <c r="AK41" s="9"/>
     </row>
-    <row r="42" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="60" t="s">
         <v>8</v>
       </c>
@@ -5756,7 +5752,7 @@
       <c r="C42" s="7"/>
       <c r="AK42" s="9"/>
     </row>
-    <row r="43" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="61"/>
       <c r="B43" s="64"/>
       <c r="C43" s="10"/>
@@ -5795,7 +5791,7 @@
       <c r="AJ43" s="8"/>
       <c r="AK43" s="9"/>
     </row>
-    <row r="44" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="61"/>
       <c r="B44" s="64"/>
       <c r="C44" s="10"/>
@@ -5834,12 +5830,12 @@
       <c r="AJ44" s="8"/>
       <c r="AK44" s="12"/>
     </row>
-    <row r="45" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="61"/>
       <c r="B45" s="64"/>
       <c r="AK45" s="12"/>
     </row>
-    <row r="46" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="61"/>
       <c r="B46" s="67"/>
       <c r="C46" s="10"/>
@@ -5866,7 +5862,7 @@
       <c r="AJ46" s="26"/>
       <c r="AK46" s="27"/>
     </row>
-    <row r="47" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="61"/>
       <c r="B47" s="67"/>
       <c r="C47" s="28"/>
@@ -5903,7 +5899,7 @@
       <c r="AJ47" s="26"/>
       <c r="AK47" s="27"/>
     </row>
-    <row r="48" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="62"/>
       <c r="B48" s="68"/>
       <c r="C48" s="10"/>
@@ -5930,7 +5926,7 @@
       <c r="AJ48" s="26"/>
       <c r="AK48" s="27"/>
     </row>
-    <row r="49" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="60" t="s">
         <v>7</v>
       </c>
@@ -5971,7 +5967,7 @@
       <c r="AJ49" s="14"/>
       <c r="AK49" s="15"/>
     </row>
-    <row r="50" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="61"/>
       <c r="B50" s="67"/>
       <c r="C50" s="30"/>
@@ -6010,7 +6006,7 @@
       <c r="AJ50" s="33"/>
       <c r="AK50" s="34"/>
     </row>
-    <row r="51" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="61"/>
       <c r="B51" s="64"/>
       <c r="C51" s="164"/>
@@ -6053,7 +6049,7 @@
       <c r="AJ51" s="118"/>
       <c r="AK51" s="119"/>
     </row>
-    <row r="52" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="61"/>
       <c r="B52" s="64"/>
       <c r="C52" s="103"/>
@@ -6092,7 +6088,7 @@
       <c r="AJ52" s="129"/>
       <c r="AK52" s="130"/>
     </row>
-    <row r="53" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="62"/>
       <c r="B53" s="65"/>
       <c r="C53" s="99" t="s">
@@ -6192,20 +6188,20 @@
   <dimension ref="A1:BW53"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="AN11" sqref="AN11"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="6"/>
-    <col min="2" max="2" width="2.85546875" style="6" customWidth="1"/>
-    <col min="3" max="15" width="2.7109375" style="6"/>
-    <col min="16" max="17" width="2.85546875" style="6" customWidth="1"/>
-    <col min="18" max="75" width="2.7109375" style="6"/>
-    <col min="76" max="16384" width="2.7109375" style="5"/>
+    <col min="1" max="1" width="2.6640625" style="6"/>
+    <col min="2" max="2" width="2.6640625" style="6" customWidth="1"/>
+    <col min="3" max="15" width="2.6640625" style="6"/>
+    <col min="16" max="17" width="2.88671875" style="6" customWidth="1"/>
+    <col min="18" max="75" width="2.6640625" style="6"/>
+    <col min="76" max="16384" width="2.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="197" t="s">
@@ -6284,7 +6280,7 @@
       <c r="BV1" s="1"/>
       <c r="BW1" s="1"/>
     </row>
-    <row r="2" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="197"/>
       <c r="D2" s="197"/>
       <c r="E2" s="197"/>
@@ -6321,7 +6317,7 @@
       <c r="AJ2" s="197"/>
       <c r="AK2" s="197"/>
     </row>
-    <row r="3" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="197"/>
       <c r="D3" s="197"/>
       <c r="E3" s="197"/>
@@ -6358,7 +6354,7 @@
       <c r="AJ3" s="197"/>
       <c r="AK3" s="197"/>
     </row>
-    <row r="4" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:75" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="197"/>
       <c r="D4" s="197"/>
       <c r="E4" s="197"/>
@@ -6395,7 +6391,7 @@
       <c r="AJ4" s="197"/>
       <c r="AK4" s="197"/>
     </row>
-    <row r="5" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="198" t="s">
         <v>39</v>
       </c>
@@ -6437,7 +6433,7 @@
       <c r="AK5" s="200"/>
       <c r="AQ5" s="5"/>
     </row>
-    <row r="6" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="173"/>
       <c r="D6" s="174"/>
       <c r="E6" s="174"/>
@@ -6474,7 +6470,7 @@
       <c r="AJ6" s="174"/>
       <c r="AK6" s="175"/>
     </row>
-    <row r="7" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="176"/>
       <c r="D7" s="177"/>
       <c r="E7" s="177"/>
@@ -6511,7 +6507,7 @@
       <c r="AJ7" s="174"/>
       <c r="AK7" s="175"/>
     </row>
-    <row r="8" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="170" t="s">
         <v>40</v>
       </c>
@@ -6552,7 +6548,7 @@
       <c r="AJ8" s="171"/>
       <c r="AK8" s="172"/>
     </row>
-    <row r="9" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="176"/>
       <c r="D9" s="177"/>
       <c r="E9" s="177"/>
@@ -6589,7 +6585,7 @@
       <c r="AJ9" s="177"/>
       <c r="AK9" s="178"/>
     </row>
-    <row r="10" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="C10" s="173" t="s">
         <v>41</v>
@@ -6630,9 +6626,8 @@
       <c r="AI10" s="171"/>
       <c r="AJ10" s="171"/>
       <c r="AK10" s="172"/>
-      <c r="AL10" s="202"/>
-    </row>
-    <row r="11" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
       <c r="C11" s="173"/>
       <c r="D11" s="174"/>
@@ -6652,26 +6647,25 @@
       <c r="R11" s="174"/>
       <c r="S11" s="175"/>
       <c r="T11" s="173"/>
-      <c r="U11" s="201"/>
-      <c r="V11" s="201"/>
-      <c r="W11" s="201"/>
-      <c r="X11" s="201"/>
-      <c r="Y11" s="201"/>
-      <c r="Z11" s="201"/>
-      <c r="AA11" s="201"/>
-      <c r="AB11" s="201"/>
-      <c r="AC11" s="201"/>
-      <c r="AD11" s="201"/>
-      <c r="AE11" s="201"/>
-      <c r="AF11" s="201"/>
-      <c r="AG11" s="201"/>
-      <c r="AH11" s="201"/>
-      <c r="AI11" s="201"/>
-      <c r="AJ11" s="201"/>
+      <c r="U11" s="174"/>
+      <c r="V11" s="174"/>
+      <c r="W11" s="174"/>
+      <c r="X11" s="174"/>
+      <c r="Y11" s="174"/>
+      <c r="Z11" s="174"/>
+      <c r="AA11" s="174"/>
+      <c r="AB11" s="174"/>
+      <c r="AC11" s="174"/>
+      <c r="AD11" s="174"/>
+      <c r="AE11" s="174"/>
+      <c r="AF11" s="174"/>
+      <c r="AG11" s="174"/>
+      <c r="AH11" s="174"/>
+      <c r="AI11" s="174"/>
+      <c r="AJ11" s="174"/>
       <c r="AK11" s="175"/>
-      <c r="AL11" s="202"/>
-    </row>
-    <row r="12" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="176"/>
       <c r="D12" s="177"/>
       <c r="E12" s="177"/>
@@ -6707,9 +6701,8 @@
       <c r="AI12" s="177"/>
       <c r="AJ12" s="177"/>
       <c r="AK12" s="178"/>
-      <c r="AL12" s="202"/>
-    </row>
-    <row r="13" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="173" t="s">
         <v>44</v>
       </c>
@@ -6749,9 +6742,8 @@
       <c r="AI13" s="171"/>
       <c r="AJ13" s="171"/>
       <c r="AK13" s="172"/>
-      <c r="AL13" s="202"/>
-    </row>
-    <row r="14" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="173"/>
       <c r="D14" s="174"/>
       <c r="E14" s="174"/>
@@ -6770,25 +6762,25 @@
       <c r="R14" s="174"/>
       <c r="S14" s="175"/>
       <c r="T14" s="173"/>
-      <c r="U14" s="201"/>
-      <c r="V14" s="201"/>
-      <c r="W14" s="201"/>
-      <c r="X14" s="201"/>
-      <c r="Y14" s="201"/>
-      <c r="Z14" s="201"/>
-      <c r="AA14" s="201"/>
-      <c r="AB14" s="201"/>
-      <c r="AC14" s="201"/>
-      <c r="AD14" s="201"/>
-      <c r="AE14" s="201"/>
-      <c r="AF14" s="201"/>
-      <c r="AG14" s="201"/>
-      <c r="AH14" s="201"/>
-      <c r="AI14" s="201"/>
-      <c r="AJ14" s="201"/>
+      <c r="U14" s="174"/>
+      <c r="V14" s="174"/>
+      <c r="W14" s="174"/>
+      <c r="X14" s="174"/>
+      <c r="Y14" s="174"/>
+      <c r="Z14" s="174"/>
+      <c r="AA14" s="174"/>
+      <c r="AB14" s="174"/>
+      <c r="AC14" s="174"/>
+      <c r="AD14" s="174"/>
+      <c r="AE14" s="174"/>
+      <c r="AF14" s="174"/>
+      <c r="AG14" s="174"/>
+      <c r="AH14" s="174"/>
+      <c r="AI14" s="174"/>
+      <c r="AJ14" s="174"/>
       <c r="AK14" s="175"/>
     </row>
-    <row r="15" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="173"/>
       <c r="D15" s="174"/>
       <c r="E15" s="174"/>
@@ -6825,7 +6817,7 @@
       <c r="AJ15" s="177"/>
       <c r="AK15" s="178"/>
     </row>
-    <row r="16" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="170" t="s">
         <v>45</v>
       </c>
@@ -6866,7 +6858,7 @@
       <c r="AJ16" s="183"/>
       <c r="AK16" s="184"/>
     </row>
-    <row r="17" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" s="6" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="176"/>
       <c r="D17" s="177"/>
       <c r="E17" s="177"/>
@@ -6903,7 +6895,7 @@
       <c r="AJ17" s="186"/>
       <c r="AK17" s="187"/>
     </row>
-    <row r="18" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="173" t="s">
         <v>46</v>
@@ -6945,7 +6937,7 @@
       <c r="AJ18" s="171"/>
       <c r="AK18" s="172"/>
     </row>
-    <row r="19" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="173"/>
       <c r="D19" s="174"/>
@@ -6983,7 +6975,7 @@
       <c r="AJ19" s="174"/>
       <c r="AK19" s="175"/>
     </row>
-    <row r="20" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="173"/>
       <c r="D20" s="174"/>
@@ -7021,7 +7013,7 @@
       <c r="AJ20" s="177"/>
       <c r="AK20" s="178"/>
     </row>
-    <row r="21" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" s="6" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="170" t="s">
         <v>47</v>
       </c>
@@ -7062,7 +7054,7 @@
       <c r="AJ21" s="189"/>
       <c r="AK21" s="190"/>
     </row>
-    <row r="22" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" s="6" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="173"/>
       <c r="D22" s="174"/>
       <c r="E22" s="174"/>
@@ -7099,7 +7091,7 @@
       <c r="AJ22" s="192"/>
       <c r="AK22" s="193"/>
     </row>
-    <row r="23" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" s="6" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="176"/>
       <c r="D23" s="177"/>
       <c r="E23" s="177"/>
@@ -7136,7 +7128,7 @@
       <c r="AJ23" s="195"/>
       <c r="AK23" s="196"/>
     </row>
-    <row r="24" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" s="6" customFormat="1" ht="16.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="170" t="s">
         <v>48</v>
       </c>
@@ -7177,7 +7169,7 @@
       <c r="AJ24" s="189"/>
       <c r="AK24" s="190"/>
     </row>
-    <row r="25" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="60" t="s">
         <v>8</v>
       </c>
@@ -7218,7 +7210,7 @@
       <c r="AJ25" s="195"/>
       <c r="AK25" s="196"/>
     </row>
-    <row r="26" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="61"/>
       <c r="B26" s="64"/>
       <c r="C26" s="170" t="s">
@@ -7261,7 +7253,7 @@
       <c r="AJ26" s="171"/>
       <c r="AK26" s="172"/>
     </row>
-    <row r="27" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="61"/>
       <c r="B27" s="64"/>
       <c r="C27" s="173"/>
@@ -7300,7 +7292,7 @@
       <c r="AJ27" s="174"/>
       <c r="AK27" s="175"/>
     </row>
-    <row r="28" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="61"/>
       <c r="B28" s="64"/>
       <c r="C28" s="176"/>
@@ -7339,7 +7331,7 @@
       <c r="AJ28" s="177"/>
       <c r="AK28" s="178"/>
     </row>
-    <row r="29" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="61"/>
       <c r="B29" s="64"/>
       <c r="C29" s="170" t="s">
@@ -7382,7 +7374,7 @@
       <c r="AJ29" s="171"/>
       <c r="AK29" s="172"/>
     </row>
-    <row r="30" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="61"/>
       <c r="B30" s="64"/>
       <c r="C30" s="176"/>
@@ -7421,7 +7413,7 @@
       <c r="AJ30" s="177"/>
       <c r="AK30" s="178"/>
     </row>
-    <row r="31" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="62"/>
       <c r="B31" s="65"/>
       <c r="C31" s="170" t="s">
@@ -7464,7 +7456,7 @@
       <c r="AJ31" s="171"/>
       <c r="AK31" s="172"/>
     </row>
-    <row r="32" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="60" t="s">
         <v>10</v>
       </c>
@@ -7505,7 +7497,7 @@
       <c r="AJ32" s="177"/>
       <c r="AK32" s="178"/>
     </row>
-    <row r="33" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="61"/>
       <c r="B33" s="64"/>
       <c r="C33" s="170" t="s">
@@ -7548,7 +7540,7 @@
       <c r="AJ33" s="171"/>
       <c r="AK33" s="172"/>
     </row>
-    <row r="34" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="61"/>
       <c r="B34" s="64"/>
       <c r="C34" s="176"/>
@@ -7587,7 +7579,7 @@
       <c r="AJ34" s="177"/>
       <c r="AK34" s="178"/>
     </row>
-    <row r="35" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="61"/>
       <c r="B35" s="64"/>
       <c r="C35" s="170" t="s">
@@ -7630,7 +7622,7 @@
       <c r="AJ35" s="171"/>
       <c r="AK35" s="172"/>
     </row>
-    <row r="36" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="62"/>
       <c r="B36" s="65"/>
       <c r="C36" s="176"/>
@@ -7669,7 +7661,7 @@
       <c r="AJ36" s="177"/>
       <c r="AK36" s="178"/>
     </row>
-    <row r="37" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="60" t="s">
         <v>9</v>
       </c>
@@ -7714,7 +7706,7 @@
       <c r="AJ37" s="171"/>
       <c r="AK37" s="172"/>
     </row>
-    <row r="38" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="61"/>
       <c r="B38" s="64"/>
       <c r="C38" s="173"/>
@@ -7753,7 +7745,7 @@
       <c r="AJ38" s="174"/>
       <c r="AK38" s="175"/>
     </row>
-    <row r="39" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="61"/>
       <c r="B39" s="64"/>
       <c r="C39" s="173"/>
@@ -7792,7 +7784,7 @@
       <c r="AJ39" s="174"/>
       <c r="AK39" s="175"/>
     </row>
-    <row r="40" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="61"/>
       <c r="B40" s="64"/>
       <c r="C40" s="176"/>
@@ -7831,7 +7823,7 @@
       <c r="AJ40" s="177"/>
       <c r="AK40" s="178"/>
     </row>
-    <row r="41" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="62"/>
       <c r="B41" s="65"/>
       <c r="C41" s="173" t="s">
@@ -7874,7 +7866,7 @@
       <c r="AJ41" s="171"/>
       <c r="AK41" s="172"/>
     </row>
-    <row r="42" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="60" t="s">
         <v>8</v>
       </c>
@@ -7915,7 +7907,7 @@
       <c r="AJ42" s="174"/>
       <c r="AK42" s="175"/>
     </row>
-    <row r="43" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="61"/>
       <c r="B43" s="64"/>
       <c r="C43" s="176"/>
@@ -7954,7 +7946,7 @@
       <c r="AJ43" s="177"/>
       <c r="AK43" s="178"/>
     </row>
-    <row r="44" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="61"/>
       <c r="B44" s="64"/>
       <c r="C44" s="173" t="s">
@@ -7997,7 +7989,7 @@
       <c r="AJ44" s="174"/>
       <c r="AK44" s="175"/>
     </row>
-    <row r="45" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="61"/>
       <c r="B45" s="64"/>
       <c r="C45" s="173"/>
@@ -8036,7 +8028,7 @@
       <c r="AJ45" s="174"/>
       <c r="AK45" s="175"/>
     </row>
-    <row r="46" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="61"/>
       <c r="B46" s="67"/>
       <c r="C46" s="179"/>
@@ -8075,7 +8067,7 @@
       <c r="AJ46" s="180"/>
       <c r="AK46" s="181"/>
     </row>
-    <row r="47" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="61"/>
       <c r="B47" s="67"/>
       <c r="C47" s="48"/>
@@ -8114,7 +8106,7 @@
       <c r="AJ47" s="58"/>
       <c r="AK47" s="59"/>
     </row>
-    <row r="48" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="62"/>
       <c r="B48" s="68"/>
       <c r="C48" s="48"/>
@@ -8153,7 +8145,7 @@
       <c r="AJ48" s="58"/>
       <c r="AK48" s="59"/>
     </row>
-    <row r="49" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="60" t="s">
         <v>7</v>
       </c>
@@ -8194,7 +8186,7 @@
       <c r="AJ49" s="52"/>
       <c r="AK49" s="53"/>
     </row>
-    <row r="50" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="61"/>
       <c r="B50" s="67"/>
       <c r="C50" s="54"/>
@@ -8233,7 +8225,7 @@
       <c r="AJ50" s="55"/>
       <c r="AK50" s="57"/>
     </row>
-    <row r="51" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="61"/>
       <c r="B51" s="64"/>
       <c r="C51" s="164"/>
@@ -8276,7 +8268,7 @@
       <c r="AJ51" s="118"/>
       <c r="AK51" s="119"/>
     </row>
-    <row r="52" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="61"/>
       <c r="B52" s="64"/>
       <c r="C52" s="103"/>
@@ -8315,7 +8307,7 @@
       <c r="AJ52" s="129"/>
       <c r="AK52" s="130"/>
     </row>
-    <row r="53" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="62"/>
       <c r="B53" s="65"/>
       <c r="C53" s="99" t="s">
@@ -8443,21 +8435,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004009F7-098D-EC46-84C2-07CF91A4DD18}">
   <dimension ref="A1:BW53"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A33" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="6"/>
-    <col min="2" max="2" width="2.85546875" style="6" customWidth="1"/>
-    <col min="3" max="15" width="2.7109375" style="6"/>
-    <col min="16" max="17" width="2.85546875" style="6" customWidth="1"/>
-    <col min="18" max="75" width="2.7109375" style="6"/>
-    <col min="76" max="16384" width="2.7109375" style="5"/>
+    <col min="1" max="1" width="2.6640625" style="6"/>
+    <col min="2" max="2" width="2.5546875" style="6" customWidth="1"/>
+    <col min="3" max="15" width="2.6640625" style="6"/>
+    <col min="16" max="17" width="2.88671875" style="6" customWidth="1"/>
+    <col min="18" max="75" width="2.6640625" style="6"/>
+    <col min="76" max="16384" width="2.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -8534,7 +8526,7 @@
       <c r="BV1" s="1"/>
       <c r="BW1" s="1"/>
     </row>
-    <row r="2" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -8571,7 +8563,7 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="9"/>
     </row>
-    <row r="3" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -8608,7 +8600,7 @@
       <c r="AJ3" s="8"/>
       <c r="AK3" s="9"/>
     </row>
-    <row r="4" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="7"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -8645,7 +8637,7 @@
       <c r="AJ4" s="8"/>
       <c r="AK4" s="9"/>
     </row>
-    <row r="5" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="10"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -8653,7 +8645,7 @@
       <c r="AK5" s="12"/>
       <c r="AQ5" s="5"/>
     </row>
-    <row r="6" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -8690,7 +8682,7 @@
       <c r="AJ6" s="14"/>
       <c r="AK6" s="15"/>
     </row>
-    <row r="7" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="16"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -8727,11 +8719,11 @@
       <c r="AJ7" s="14"/>
       <c r="AK7" s="15"/>
     </row>
-    <row r="8" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="10"/>
       <c r="AK8" s="12"/>
     </row>
-    <row r="9" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="10"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -8768,7 +8760,7 @@
       <c r="AJ9" s="17"/>
       <c r="AK9" s="12"/>
     </row>
-    <row r="10" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="18"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -8805,7 +8797,7 @@
       <c r="AJ10" s="17"/>
       <c r="AK10" s="19"/>
     </row>
-    <row r="11" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="18"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -8842,11 +8834,11 @@
       <c r="AJ11" s="17"/>
       <c r="AK11" s="19"/>
     </row>
-    <row r="12" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="18"/>
       <c r="AK12" s="19"/>
     </row>
-    <row r="13" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="20"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
@@ -8883,7 +8875,7 @@
       <c r="AJ13" s="21"/>
       <c r="AK13" s="22"/>
     </row>
-    <row r="14" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="20"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -8920,7 +8912,7 @@
       <c r="AJ14" s="21"/>
       <c r="AK14" s="22"/>
     </row>
-    <row r="15" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="10"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -8957,7 +8949,7 @@
       <c r="AJ15" s="21"/>
       <c r="AK15" s="12"/>
     </row>
-    <row r="16" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="10"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -8994,7 +8986,7 @@
       <c r="AJ16" s="21"/>
       <c r="AK16" s="12"/>
     </row>
-    <row r="17" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" s="6" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="10"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
@@ -9031,15 +9023,15 @@
       <c r="AJ17" s="21"/>
       <c r="AK17" s="12"/>
     </row>
-    <row r="18" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="10"/>
       <c r="AK18" s="12"/>
     </row>
-    <row r="19" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="10"/>
       <c r="AK19" s="12"/>
     </row>
-    <row r="20" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="10"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
@@ -9076,7 +9068,7 @@
       <c r="AJ20" s="23"/>
       <c r="AK20" s="12"/>
     </row>
-    <row r="21" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" s="6" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="10"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -9113,15 +9105,15 @@
       <c r="AJ21" s="23"/>
       <c r="AK21" s="12"/>
     </row>
-    <row r="22" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" s="6" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="10"/>
       <c r="AK22" s="12"/>
     </row>
-    <row r="23" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" s="6" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="10"/>
       <c r="AK23" s="12"/>
     </row>
-    <row r="24" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" s="6" customFormat="1" ht="16.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="10"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
@@ -9158,7 +9150,7 @@
       <c r="AJ24" s="21"/>
       <c r="AK24" s="12"/>
     </row>
-    <row r="25" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="60" t="s">
         <v>8</v>
       </c>
@@ -9199,13 +9191,13 @@
       <c r="AJ25" s="21"/>
       <c r="AK25" s="12"/>
     </row>
-    <row r="26" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="61"/>
       <c r="B26" s="64"/>
       <c r="C26" s="10"/>
       <c r="AK26" s="12"/>
     </row>
-    <row r="27" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="61"/>
       <c r="B27" s="64"/>
       <c r="C27" s="10"/>
@@ -9244,7 +9236,7 @@
       <c r="AJ27" s="23"/>
       <c r="AK27" s="12"/>
     </row>
-    <row r="28" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="61"/>
       <c r="B28" s="64"/>
       <c r="C28" s="10"/>
@@ -9283,25 +9275,25 @@
       <c r="AJ28" s="23"/>
       <c r="AK28" s="12"/>
     </row>
-    <row r="29" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="61"/>
       <c r="B29" s="64"/>
       <c r="C29" s="10"/>
       <c r="AK29" s="12"/>
     </row>
-    <row r="30" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="61"/>
       <c r="B30" s="64"/>
       <c r="C30" s="10"/>
       <c r="AK30" s="12"/>
     </row>
-    <row r="31" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="62"/>
       <c r="B31" s="65"/>
       <c r="C31" s="10"/>
       <c r="AK31" s="12"/>
     </row>
-    <row r="32" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="60" t="s">
         <v>10</v>
       </c>
@@ -9309,31 +9301,31 @@
       <c r="C32" s="10"/>
       <c r="AK32" s="12"/>
     </row>
-    <row r="33" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="61"/>
       <c r="B33" s="64"/>
       <c r="C33" s="10"/>
       <c r="AK33" s="12"/>
     </row>
-    <row r="34" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="61"/>
       <c r="B34" s="64"/>
       <c r="C34" s="10"/>
       <c r="AK34" s="12"/>
     </row>
-    <row r="35" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="61"/>
       <c r="B35" s="64"/>
       <c r="C35" s="10"/>
       <c r="AK35" s="12"/>
     </row>
-    <row r="36" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="62"/>
       <c r="B36" s="65"/>
       <c r="C36" s="10"/>
       <c r="AK36" s="12"/>
     </row>
-    <row r="37" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="60" t="s">
         <v>9</v>
       </c>
@@ -9341,31 +9333,31 @@
       <c r="C37" s="10"/>
       <c r="AK37" s="12"/>
     </row>
-    <row r="38" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="61"/>
       <c r="B38" s="64"/>
       <c r="C38" s="10"/>
       <c r="AK38" s="12"/>
     </row>
-    <row r="39" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="61"/>
       <c r="B39" s="64"/>
       <c r="C39" s="10"/>
       <c r="AK39" s="12"/>
     </row>
-    <row r="40" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="61"/>
       <c r="B40" s="64"/>
       <c r="C40" s="10"/>
       <c r="AK40" s="12"/>
     </row>
-    <row r="41" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="62"/>
       <c r="B41" s="65"/>
       <c r="C41" s="7"/>
       <c r="AK41" s="9"/>
     </row>
-    <row r="42" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="60" t="s">
         <v>8</v>
       </c>
@@ -9373,7 +9365,7 @@
       <c r="C42" s="7"/>
       <c r="AK42" s="9"/>
     </row>
-    <row r="43" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="61"/>
       <c r="B43" s="64"/>
       <c r="C43" s="10"/>
@@ -9412,7 +9404,7 @@
       <c r="AJ43" s="8"/>
       <c r="AK43" s="9"/>
     </row>
-    <row r="44" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="61"/>
       <c r="B44" s="64"/>
       <c r="C44" s="10"/>
@@ -9451,12 +9443,12 @@
       <c r="AJ44" s="8"/>
       <c r="AK44" s="12"/>
     </row>
-    <row r="45" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="61"/>
       <c r="B45" s="64"/>
       <c r="AK45" s="12"/>
     </row>
-    <row r="46" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="61"/>
       <c r="B46" s="67"/>
       <c r="C46" s="10"/>
@@ -9483,7 +9475,7 @@
       <c r="AJ46" s="26"/>
       <c r="AK46" s="27"/>
     </row>
-    <row r="47" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="61"/>
       <c r="B47" s="67"/>
       <c r="C47" s="28"/>
@@ -9520,7 +9512,7 @@
       <c r="AJ47" s="26"/>
       <c r="AK47" s="27"/>
     </row>
-    <row r="48" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="62"/>
       <c r="B48" s="68"/>
       <c r="C48" s="10"/>
@@ -9547,7 +9539,7 @@
       <c r="AJ48" s="26"/>
       <c r="AK48" s="27"/>
     </row>
-    <row r="49" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="60" t="s">
         <v>7</v>
       </c>
@@ -9588,7 +9580,7 @@
       <c r="AJ49" s="14"/>
       <c r="AK49" s="15"/>
     </row>
-    <row r="50" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="61"/>
       <c r="B50" s="67"/>
       <c r="C50" s="30"/>
@@ -9627,7 +9619,7 @@
       <c r="AJ50" s="33"/>
       <c r="AK50" s="34"/>
     </row>
-    <row r="51" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="61"/>
       <c r="B51" s="64"/>
       <c r="C51" s="164"/>
@@ -9670,7 +9662,7 @@
       <c r="AJ51" s="118"/>
       <c r="AK51" s="119"/>
     </row>
-    <row r="52" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="61"/>
       <c r="B52" s="64"/>
       <c r="C52" s="103"/>
@@ -9709,7 +9701,7 @@
       <c r="AJ52" s="129"/>
       <c r="AK52" s="130"/>
     </row>
-    <row r="53" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="62"/>
       <c r="B53" s="65"/>
       <c r="C53" s="99" t="s">
@@ -9805,20 +9797,20 @@
   <dimension ref="A1:BW53"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="6"/>
-    <col min="2" max="2" width="2.85546875" style="6" customWidth="1"/>
-    <col min="3" max="15" width="2.7109375" style="6"/>
-    <col min="16" max="17" width="2.85546875" style="6" customWidth="1"/>
-    <col min="18" max="75" width="2.7109375" style="6"/>
-    <col min="76" max="16384" width="2.7109375" style="5"/>
+    <col min="1" max="1" width="2.6640625" style="6"/>
+    <col min="2" max="2" width="2.6640625" style="6" customWidth="1"/>
+    <col min="3" max="15" width="2.6640625" style="6"/>
+    <col min="16" max="17" width="2.88671875" style="6" customWidth="1"/>
+    <col min="18" max="75" width="2.6640625" style="6"/>
+    <col min="76" max="16384" width="2.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -9895,7 +9887,7 @@
       <c r="BV1" s="1"/>
       <c r="BW1" s="1"/>
     </row>
-    <row r="2" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -9932,7 +9924,7 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="9"/>
     </row>
-    <row r="3" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -9969,7 +9961,7 @@
       <c r="AJ3" s="8"/>
       <c r="AK3" s="9"/>
     </row>
-    <row r="4" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="7"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -10006,7 +9998,7 @@
       <c r="AJ4" s="8"/>
       <c r="AK4" s="9"/>
     </row>
-    <row r="5" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="10"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -10014,7 +10006,7 @@
       <c r="AK5" s="12"/>
       <c r="AQ5" s="5"/>
     </row>
-    <row r="6" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -10051,7 +10043,7 @@
       <c r="AJ6" s="14"/>
       <c r="AK6" s="15"/>
     </row>
-    <row r="7" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="16"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -10088,11 +10080,11 @@
       <c r="AJ7" s="14"/>
       <c r="AK7" s="15"/>
     </row>
-    <row r="8" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="10"/>
       <c r="AK8" s="12"/>
     </row>
-    <row r="9" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="10"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -10129,7 +10121,7 @@
       <c r="AJ9" s="17"/>
       <c r="AK9" s="12"/>
     </row>
-    <row r="10" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="18"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -10166,7 +10158,7 @@
       <c r="AJ10" s="17"/>
       <c r="AK10" s="19"/>
     </row>
-    <row r="11" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="18"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -10203,11 +10195,11 @@
       <c r="AJ11" s="17"/>
       <c r="AK11" s="19"/>
     </row>
-    <row r="12" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="18"/>
       <c r="AK12" s="19"/>
     </row>
-    <row r="13" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="20"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
@@ -10244,7 +10236,7 @@
       <c r="AJ13" s="21"/>
       <c r="AK13" s="22"/>
     </row>
-    <row r="14" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="20"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -10281,7 +10273,7 @@
       <c r="AJ14" s="21"/>
       <c r="AK14" s="22"/>
     </row>
-    <row r="15" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="10"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -10318,7 +10310,7 @@
       <c r="AJ15" s="21"/>
       <c r="AK15" s="12"/>
     </row>
-    <row r="16" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="10"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -10355,7 +10347,7 @@
       <c r="AJ16" s="21"/>
       <c r="AK16" s="12"/>
     </row>
-    <row r="17" spans="1:37" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="10"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
@@ -10392,15 +10384,15 @@
       <c r="AJ17" s="21"/>
       <c r="AK17" s="12"/>
     </row>
-    <row r="18" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="10"/>
       <c r="AK18" s="12"/>
     </row>
-    <row r="19" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="10"/>
       <c r="AK19" s="12"/>
     </row>
-    <row r="20" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="10"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
@@ -10437,7 +10429,7 @@
       <c r="AJ20" s="23"/>
       <c r="AK20" s="12"/>
     </row>
-    <row r="21" spans="1:37" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="10"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -10474,15 +10466,15 @@
       <c r="AJ21" s="23"/>
       <c r="AK21" s="12"/>
     </row>
-    <row r="22" spans="1:37" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="10"/>
       <c r="AK22" s="12"/>
     </row>
-    <row r="23" spans="1:37" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="10"/>
       <c r="AK23" s="12"/>
     </row>
-    <row r="24" spans="1:37" ht="16.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="16.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="10"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
@@ -10519,7 +10511,7 @@
       <c r="AJ24" s="21"/>
       <c r="AK24" s="12"/>
     </row>
-    <row r="25" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="60" t="s">
         <v>8</v>
       </c>
@@ -10560,13 +10552,13 @@
       <c r="AJ25" s="21"/>
       <c r="AK25" s="12"/>
     </row>
-    <row r="26" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="61"/>
       <c r="B26" s="64"/>
       <c r="C26" s="10"/>
       <c r="AK26" s="12"/>
     </row>
-    <row r="27" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="61"/>
       <c r="B27" s="64"/>
       <c r="C27" s="10"/>
@@ -10605,7 +10597,7 @@
       <c r="AJ27" s="23"/>
       <c r="AK27" s="12"/>
     </row>
-    <row r="28" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="61"/>
       <c r="B28" s="64"/>
       <c r="C28" s="10"/>
@@ -10644,25 +10636,25 @@
       <c r="AJ28" s="23"/>
       <c r="AK28" s="12"/>
     </row>
-    <row r="29" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="61"/>
       <c r="B29" s="64"/>
       <c r="C29" s="10"/>
       <c r="AK29" s="12"/>
     </row>
-    <row r="30" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="61"/>
       <c r="B30" s="64"/>
       <c r="C30" s="10"/>
       <c r="AK30" s="12"/>
     </row>
-    <row r="31" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="62"/>
       <c r="B31" s="65"/>
       <c r="C31" s="10"/>
       <c r="AK31" s="12"/>
     </row>
-    <row r="32" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="60" t="s">
         <v>10</v>
       </c>
@@ -10670,31 +10662,31 @@
       <c r="C32" s="10"/>
       <c r="AK32" s="12"/>
     </row>
-    <row r="33" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="61"/>
       <c r="B33" s="64"/>
       <c r="C33" s="10"/>
       <c r="AK33" s="12"/>
     </row>
-    <row r="34" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="61"/>
       <c r="B34" s="64"/>
       <c r="C34" s="10"/>
       <c r="AK34" s="12"/>
     </row>
-    <row r="35" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="61"/>
       <c r="B35" s="64"/>
       <c r="C35" s="10"/>
       <c r="AK35" s="12"/>
     </row>
-    <row r="36" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="62"/>
       <c r="B36" s="65"/>
       <c r="C36" s="10"/>
       <c r="AK36" s="12"/>
     </row>
-    <row r="37" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="60" t="s">
         <v>9</v>
       </c>
@@ -10702,13 +10694,13 @@
       <c r="C37" s="10"/>
       <c r="AK37" s="12"/>
     </row>
-    <row r="38" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="61"/>
       <c r="B38" s="64"/>
       <c r="C38" s="10"/>
       <c r="AK38" s="12"/>
     </row>
-    <row r="39" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="61"/>
       <c r="B39" s="64"/>
       <c r="C39" s="10"/>
@@ -10743,7 +10735,7 @@
       <c r="AG39" s="25"/>
       <c r="AK39" s="12"/>
     </row>
-    <row r="40" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="61"/>
       <c r="B40" s="64"/>
       <c r="C40" s="10"/>
@@ -10778,7 +10770,7 @@
       <c r="AG40" s="25"/>
       <c r="AK40" s="12"/>
     </row>
-    <row r="41" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="62"/>
       <c r="B41" s="65"/>
       <c r="C41" s="7"/>
@@ -10813,7 +10805,7 @@
       <c r="AG41" s="25"/>
       <c r="AK41" s="9"/>
     </row>
-    <row r="42" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="60" t="s">
         <v>8</v>
       </c>
@@ -10850,7 +10842,7 @@
       <c r="AG42" s="25"/>
       <c r="AK42" s="9"/>
     </row>
-    <row r="43" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="61"/>
       <c r="B43" s="64"/>
       <c r="C43" s="10"/>
@@ -10889,7 +10881,7 @@
       <c r="AJ43" s="8"/>
       <c r="AK43" s="9"/>
     </row>
-    <row r="44" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="61"/>
       <c r="B44" s="64"/>
       <c r="C44" s="10"/>
@@ -10928,12 +10920,12 @@
       <c r="AJ44" s="8"/>
       <c r="AK44" s="12"/>
     </row>
-    <row r="45" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="61"/>
       <c r="B45" s="64"/>
       <c r="AK45" s="24"/>
     </row>
-    <row r="46" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="61"/>
       <c r="B46" s="64"/>
       <c r="C46" s="100"/>
@@ -10974,7 +10966,7 @@
       <c r="AJ46" s="106"/>
       <c r="AK46" s="107"/>
     </row>
-    <row r="47" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="61"/>
       <c r="B47" s="64"/>
       <c r="C47" s="96"/>
@@ -11013,7 +11005,7 @@
       <c r="AJ47" s="109"/>
       <c r="AK47" s="110"/>
     </row>
-    <row r="48" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="62"/>
       <c r="B48" s="65"/>
       <c r="C48" s="99" t="s">
@@ -11064,7 +11056,7 @@
       <c r="AJ48" s="112"/>
       <c r="AK48" s="113"/>
     </row>
-    <row r="49" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="60" t="s">
         <v>7</v>
       </c>
@@ -11119,7 +11111,7 @@
       <c r="AJ49" s="137"/>
       <c r="AK49" s="138"/>
     </row>
-    <row r="50" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="61"/>
       <c r="B50" s="64"/>
       <c r="C50" s="120"/>
@@ -11160,7 +11152,7 @@
       <c r="AJ50" s="115"/>
       <c r="AK50" s="116"/>
     </row>
-    <row r="51" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="61"/>
       <c r="B51" s="64"/>
       <c r="C51" s="120"/>
@@ -11199,7 +11191,7 @@
       <c r="AJ51" s="118"/>
       <c r="AK51" s="119"/>
     </row>
-    <row r="52" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="61"/>
       <c r="B52" s="64"/>
       <c r="C52" s="120" t="s">
@@ -11246,7 +11238,7 @@
       <c r="AJ52" s="129"/>
       <c r="AK52" s="130"/>
     </row>
-    <row r="53" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="62"/>
       <c r="B53" s="65"/>
       <c r="C53" s="144" t="s">
@@ -11363,21 +11355,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A799A7-5474-4EE0-88FB-BF028C29C22B}">
   <dimension ref="A1:BW53"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A29" zoomScale="145" zoomScaleNormal="175" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A29" zoomScale="145" zoomScaleNormal="175" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="V37" sqref="V37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" style="6" customWidth="1"/>
-    <col min="3" max="15" width="2.7109375" style="6" customWidth="1"/>
-    <col min="16" max="17" width="2.85546875" style="6" customWidth="1"/>
-    <col min="18" max="75" width="2.7109375" style="6" customWidth="1"/>
-    <col min="76" max="16384" width="8.85546875" style="5"/>
+    <col min="1" max="15" width="2.6640625" style="6" customWidth="1"/>
+    <col min="16" max="17" width="2.88671875" style="6" customWidth="1"/>
+    <col min="18" max="75" width="2.6640625" style="6" customWidth="1"/>
+    <col min="76" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -11454,7 +11444,7 @@
       <c r="BV1" s="1"/>
       <c r="BW1" s="1"/>
     </row>
-    <row r="2" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -11491,7 +11481,7 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="9"/>
     </row>
-    <row r="3" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -11528,7 +11518,7 @@
       <c r="AJ3" s="8"/>
       <c r="AK3" s="9"/>
     </row>
-    <row r="4" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="7"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -11565,7 +11555,7 @@
       <c r="AJ4" s="8"/>
       <c r="AK4" s="9"/>
     </row>
-    <row r="5" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="10"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -11573,7 +11563,7 @@
       <c r="AK5" s="12"/>
       <c r="AQ5" s="5"/>
     </row>
-    <row r="6" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -11610,7 +11600,7 @@
       <c r="AJ6" s="14"/>
       <c r="AK6" s="15"/>
     </row>
-    <row r="7" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="16"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -11647,11 +11637,11 @@
       <c r="AJ7" s="14"/>
       <c r="AK7" s="15"/>
     </row>
-    <row r="8" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="10"/>
       <c r="AK8" s="12"/>
     </row>
-    <row r="9" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="10"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -11688,7 +11678,7 @@
       <c r="AJ9" s="17"/>
       <c r="AK9" s="12"/>
     </row>
-    <row r="10" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="18"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -11725,7 +11715,7 @@
       <c r="AJ10" s="17"/>
       <c r="AK10" s="19"/>
     </row>
-    <row r="11" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="18"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -11762,11 +11752,11 @@
       <c r="AJ11" s="17"/>
       <c r="AK11" s="19"/>
     </row>
-    <row r="12" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="18"/>
       <c r="AK12" s="19"/>
     </row>
-    <row r="13" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="20"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
@@ -11803,7 +11793,7 @@
       <c r="AJ13" s="21"/>
       <c r="AK13" s="22"/>
     </row>
-    <row r="14" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="20"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -11840,7 +11830,7 @@
       <c r="AJ14" s="21"/>
       <c r="AK14" s="22"/>
     </row>
-    <row r="15" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="10"/>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -11877,7 +11867,7 @@
       <c r="AJ15" s="21"/>
       <c r="AK15" s="12"/>
     </row>
-    <row r="16" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="10"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -11914,7 +11904,7 @@
       <c r="AJ16" s="21"/>
       <c r="AK16" s="12"/>
     </row>
-    <row r="17" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" s="6" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="10"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
@@ -11951,15 +11941,15 @@
       <c r="AJ17" s="21"/>
       <c r="AK17" s="12"/>
     </row>
-    <row r="18" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="10"/>
       <c r="AK18" s="12"/>
     </row>
-    <row r="19" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="10"/>
       <c r="AK19" s="12"/>
     </row>
-    <row r="20" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="10"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
@@ -11996,7 +11986,7 @@
       <c r="AJ20" s="23"/>
       <c r="AK20" s="12"/>
     </row>
-    <row r="21" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" s="6" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="10"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -12033,15 +12023,15 @@
       <c r="AJ21" s="23"/>
       <c r="AK21" s="12"/>
     </row>
-    <row r="22" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" s="6" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="10"/>
       <c r="AK22" s="12"/>
     </row>
-    <row r="23" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" s="6" customFormat="1" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="10"/>
       <c r="AK23" s="12"/>
     </row>
-    <row r="24" spans="1:37" s="6" customFormat="1" ht="16.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" s="6" customFormat="1" ht="16.649999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="10"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
@@ -12078,7 +12068,7 @@
       <c r="AJ24" s="21"/>
       <c r="AK24" s="12"/>
     </row>
-    <row r="25" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="60" t="s">
         <v>8</v>
       </c>
@@ -12119,13 +12109,13 @@
       <c r="AJ25" s="21"/>
       <c r="AK25" s="12"/>
     </row>
-    <row r="26" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="61"/>
       <c r="B26" s="64"/>
       <c r="C26" s="10"/>
       <c r="AK26" s="12"/>
     </row>
-    <row r="27" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="61"/>
       <c r="B27" s="64"/>
       <c r="C27" s="10"/>
@@ -12164,7 +12154,7 @@
       <c r="AJ27" s="23"/>
       <c r="AK27" s="12"/>
     </row>
-    <row r="28" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="61"/>
       <c r="B28" s="64"/>
       <c r="C28" s="10"/>
@@ -12203,25 +12193,25 @@
       <c r="AJ28" s="23"/>
       <c r="AK28" s="12"/>
     </row>
-    <row r="29" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="61"/>
       <c r="B29" s="64"/>
       <c r="C29" s="10"/>
       <c r="AK29" s="12"/>
     </row>
-    <row r="30" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="61"/>
       <c r="B30" s="64"/>
       <c r="C30" s="10"/>
       <c r="AK30" s="12"/>
     </row>
-    <row r="31" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="62"/>
       <c r="B31" s="65"/>
       <c r="C31" s="10"/>
       <c r="AK31" s="12"/>
     </row>
-    <row r="32" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="60" t="s">
         <v>10</v>
       </c>
@@ -12229,31 +12219,31 @@
       <c r="C32" s="10"/>
       <c r="AK32" s="12"/>
     </row>
-    <row r="33" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="61"/>
       <c r="B33" s="64"/>
       <c r="C33" s="10"/>
       <c r="AK33" s="12"/>
     </row>
-    <row r="34" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="61"/>
       <c r="B34" s="64"/>
       <c r="C34" s="10"/>
       <c r="AK34" s="12"/>
     </row>
-    <row r="35" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="61"/>
       <c r="B35" s="64"/>
       <c r="C35" s="10"/>
       <c r="AK35" s="12"/>
     </row>
-    <row r="36" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="62"/>
       <c r="B36" s="65"/>
       <c r="C36" s="10"/>
       <c r="AK36" s="12"/>
     </row>
-    <row r="37" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="60" t="s">
         <v>9</v>
       </c>
@@ -12261,31 +12251,31 @@
       <c r="C37" s="10"/>
       <c r="AK37" s="12"/>
     </row>
-    <row r="38" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="61"/>
       <c r="B38" s="64"/>
       <c r="C38" s="10"/>
       <c r="AK38" s="12"/>
     </row>
-    <row r="39" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="61"/>
       <c r="B39" s="64"/>
       <c r="C39" s="10"/>
       <c r="AK39" s="12"/>
     </row>
-    <row r="40" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="61"/>
       <c r="B40" s="64"/>
       <c r="C40" s="10"/>
       <c r="AK40" s="12"/>
     </row>
-    <row r="41" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="62"/>
       <c r="B41" s="65"/>
       <c r="C41" s="7"/>
       <c r="AK41" s="9"/>
     </row>
-    <row r="42" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="60" t="s">
         <v>8</v>
       </c>
@@ -12293,7 +12283,7 @@
       <c r="C42" s="7"/>
       <c r="AK42" s="9"/>
     </row>
-    <row r="43" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="61"/>
       <c r="B43" s="64"/>
       <c r="C43" s="10"/>
@@ -12332,7 +12322,7 @@
       <c r="AJ43" s="8"/>
       <c r="AK43" s="9"/>
     </row>
-    <row r="44" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="61"/>
       <c r="B44" s="64"/>
       <c r="C44" s="10"/>
@@ -12371,12 +12361,12 @@
       <c r="AJ44" s="8"/>
       <c r="AK44" s="12"/>
     </row>
-    <row r="45" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="61"/>
       <c r="B45" s="64"/>
       <c r="AK45" s="12"/>
     </row>
-    <row r="46" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="61"/>
       <c r="B46" s="67"/>
       <c r="C46" s="10"/>
@@ -12403,7 +12393,7 @@
       <c r="AJ46" s="26"/>
       <c r="AK46" s="27"/>
     </row>
-    <row r="47" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="61"/>
       <c r="B47" s="67"/>
       <c r="C47" s="28"/>
@@ -12440,7 +12430,7 @@
       <c r="AJ47" s="26"/>
       <c r="AK47" s="27"/>
     </row>
-    <row r="48" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="62"/>
       <c r="B48" s="68"/>
       <c r="C48" s="10"/>
@@ -12467,7 +12457,7 @@
       <c r="AJ48" s="26"/>
       <c r="AK48" s="27"/>
     </row>
-    <row r="49" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="60" t="s">
         <v>7</v>
       </c>
@@ -12508,7 +12498,7 @@
       <c r="AJ49" s="14"/>
       <c r="AK49" s="15"/>
     </row>
-    <row r="50" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="61"/>
       <c r="B50" s="67"/>
       <c r="C50" s="30"/>
@@ -12547,7 +12537,7 @@
       <c r="AJ50" s="33"/>
       <c r="AK50" s="34"/>
     </row>
-    <row r="51" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="61"/>
       <c r="B51" s="64"/>
       <c r="C51" s="164"/>
@@ -12590,7 +12580,7 @@
       <c r="AJ51" s="118"/>
       <c r="AK51" s="119"/>
     </row>
-    <row r="52" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="61"/>
       <c r="B52" s="64"/>
       <c r="C52" s="103"/>
@@ -12629,7 +12619,7 @@
       <c r="AJ52" s="129"/>
       <c r="AK52" s="130"/>
     </row>
-    <row r="53" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="62"/>
       <c r="B53" s="65"/>
       <c r="C53" s="99" t="s">

--- a/utils/report.xlsx
+++ b/utils/report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="1" state="visible" r:id="rId3"/>
@@ -259,7 +259,7 @@
     <t xml:space="preserve">1. Введение</t>
   </si>
   <si>
-    <t xml:space="preserve">Работы по обследованию и оценке технического состояния строительных конструкции {Тип Помещения.Родительный}, расположенного по адресу: {Адрес}, выполнены на основании {Договора / Муниципального контракта} {№ Договора / Муниципального контракта}.
+    <t xml:space="preserve">Работы по обследованию и оценке технического состояния строительных конструкции {Тип Помещения.Родительный}, расположенного по адресу: {Адрес}, выполнены на основании {Договор/Муниципальный контракт.родительный} {№ Договора / Муниципального контракта}.
 Работы выполнены в соответствии с ГОСТ 31937-2011 «Здания и сооружения. Правила обследования и мониторинга технического состояния», СП 454.1325800.2019 «Здания жилые многоквартирные. Правила оценки аварийного и ограниченно-работоспособного технического состояния», действующими строительными нормами и правилами, с использованием приборов и оборудования, отвечающих требованиям действующих государственных стандартов. Сведения о приборах и оборудовании, применяемом в процессе обследования строительных конструкций дома, см. Таблица 1.
 Цель проведения обследования - определение фактического технического состояния элементов ограждающих и несущих конструкции {Тип помещения.Родительный}, расположенного по адресу: {Адрес}, с выявлением возможности дальнейшей безопасной эксплуатации</t>
   </si>
@@ -434,16 +434,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1080,11 +1083,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1116,15 +1119,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1160,7 +1163,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1251,9 +1254,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>64080</xdr:colOff>
+      <xdr:colOff>63720</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1267,7 +1270,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="177840" y="68040"/>
-          <a:ext cx="1220400" cy="557640"/>
+          <a:ext cx="1220040" cy="557280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1293,9 +1296,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>26640</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1309,7 +1312,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="500040" y="75960"/>
-          <a:ext cx="1220400" cy="557640"/>
+          <a:ext cx="1220040" cy="557280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1335,9 +1338,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>109080</xdr:colOff>
+      <xdr:colOff>108720</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1351,7 +1354,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5842440" y="10004040"/>
-          <a:ext cx="632520" cy="288720"/>
+          <a:ext cx="632160" cy="288360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1479,7 +1482,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -3129,7 +3132,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="X29" activeCellId="0" sqref="X29"/>
     </sheetView>
   </sheetViews>
@@ -4711,7 +4714,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -6359,7 +6362,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -8074,8 +8077,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L18" activeCellId="0" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9744,8 +9747,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AQ20" activeCellId="0" sqref="AQ20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U36" activeCellId="0" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12193,8 +12196,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14398,41 +14401,41 @@
       <c r="A54" s="49"/>
       <c r="B54" s="55"/>
       <c r="C54" s="113"/>
-      <c r="D54" s="0"/>
-      <c r="E54" s="0"/>
-      <c r="F54" s="0"/>
-      <c r="G54" s="0"/>
-      <c r="H54" s="0"/>
-      <c r="I54" s="0"/>
-      <c r="J54" s="0"/>
-      <c r="K54" s="0"/>
-      <c r="L54" s="0"/>
-      <c r="M54" s="0"/>
-      <c r="N54" s="0"/>
-      <c r="O54" s="0"/>
-      <c r="P54" s="0"/>
-      <c r="Q54" s="0"/>
-      <c r="R54" s="0"/>
-      <c r="S54" s="0"/>
-      <c r="T54" s="0"/>
-      <c r="U54" s="0"/>
-      <c r="V54" s="0"/>
-      <c r="W54" s="0"/>
-      <c r="X54" s="0"/>
-      <c r="Y54" s="0"/>
-      <c r="Z54" s="0"/>
-      <c r="AA54" s="0"/>
-      <c r="AB54" s="0"/>
-      <c r="AC54" s="0"/>
-      <c r="AD54" s="0"/>
-      <c r="AE54" s="0"/>
-      <c r="AF54" s="0"/>
-      <c r="AG54" s="0"/>
-      <c r="AH54" s="0"/>
-      <c r="AI54" s="0"/>
-      <c r="AJ54" s="0"/>
-      <c r="AK54" s="0"/>
-      <c r="AL54" s="0"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="8"/>
+      <c r="AD54" s="8"/>
+      <c r="AE54" s="8"/>
+      <c r="AF54" s="8"/>
+      <c r="AG54" s="8"/>
+      <c r="AH54" s="8"/>
+      <c r="AI54" s="8"/>
+      <c r="AJ54" s="8"/>
+      <c r="AK54" s="8"/>
+      <c r="AL54" s="8"/>
       <c r="AM54" s="114"/>
     </row>
     <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14662,7 +14665,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AS47" activeCellId="0" sqref="AS47"/>
     </sheetView>
   </sheetViews>
@@ -17080,7 +17083,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -19568,7 +19571,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P23" activeCellId="0" sqref="P23"/>
     </sheetView>
   </sheetViews>

--- a/utils/report.xlsx
+++ b/utils/report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="1" state="visible" r:id="rId3"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="124">
   <si>
     <t xml:space="preserve">ООО «Строительно-производственно объединение «УРАЛ»</t>
   </si>
@@ -41,7 +41,7 @@
     <t xml:space="preserve">Заказчик - {Заказчик}</t>
   </si>
   <si>
-    <t xml:space="preserve">{Тип помещения}, расположенный по адресу: {Адрес}</t>
+    <t xml:space="preserve">{Тип помещения}, {расположенный.род.тип помещения} по адресу: {Адрес}</t>
   </si>
   <si>
     <t xml:space="preserve">Заключение</t>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t xml:space="preserve">Екатеринбург</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{Тип помещения}, расположенный по адресу: {Адрес}</t>
   </si>
   <si>
     <t xml:space="preserve">Подп. и дата</t>
@@ -1482,8 +1485,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B56" activeCellId="0" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3132,7 +3135,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="X29" activeCellId="0" sqref="X29"/>
     </sheetView>
   </sheetViews>
@@ -4025,7 +4028,7 @@
     </row>
     <row r="29" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="40"/>
@@ -4175,7 +4178,7 @@
     </row>
     <row r="36" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" s="50"/>
       <c r="C36" s="40"/>
@@ -4212,7 +4215,7 @@
     </row>
     <row r="41" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41" s="50"/>
       <c r="C41" s="40"/>
@@ -4249,7 +4252,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B46" s="50"/>
       <c r="C46" s="51"/>
@@ -4439,7 +4442,7 @@
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B53" s="55"/>
       <c r="C53" s="54"/>
@@ -4560,7 +4563,7 @@
       <c r="AI55" s="89"/>
       <c r="AJ55" s="89"/>
       <c r="AK55" s="77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL55" s="77"/>
       <c r="AM55" s="77"/>
@@ -4610,30 +4613,30 @@
       <c r="A57" s="49"/>
       <c r="B57" s="55"/>
       <c r="C57" s="71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D57" s="71"/>
       <c r="E57" s="72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F57" s="72"/>
       <c r="G57" s="72"/>
       <c r="H57" s="73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I57" s="73"/>
       <c r="J57" s="74" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K57" s="74"/>
       <c r="L57" s="74"/>
       <c r="M57" s="73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N57" s="73"/>
       <c r="O57" s="73"/>
       <c r="P57" s="73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q57" s="73"/>
       <c r="R57" s="89"/>
@@ -4714,8 +4717,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z15" activeCellId="0" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5261,7 +5264,7 @@
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C16" s="40"/>
       <c r="D16" s="19" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
@@ -5666,7 +5669,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="40"/>
@@ -5817,7 +5820,7 @@
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" s="50"/>
       <c r="C36" s="40"/>
@@ -5849,7 +5852,7 @@
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41" s="50"/>
       <c r="C41" s="40"/>
@@ -5940,7 +5943,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B46" s="50"/>
       <c r="C46" s="51"/>
@@ -6105,7 +6108,7 @@
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B53" s="55"/>
       <c r="C53" s="54"/>
@@ -6362,7 +6365,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -6380,7 +6383,7 @@
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="64" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="64"/>
       <c r="E1" s="64"/>
@@ -6574,14 +6577,14 @@
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="65" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="65"/>
       <c r="E5" s="65"/>
       <c r="F5" s="65"/>
       <c r="G5" s="65"/>
       <c r="H5" s="65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" s="65"/>
       <c r="J5" s="65"/>
@@ -6610,7 +6613,7 @@
       <c r="AG5" s="65"/>
       <c r="AH5" s="65"/>
       <c r="AI5" s="66" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ5" s="66"/>
       <c r="AK5" s="66"/>
@@ -7298,7 +7301,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="40"/>
@@ -7448,7 +7451,7 @@
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" s="50"/>
       <c r="C36" s="40"/>
@@ -7485,7 +7488,7 @@
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41" s="50"/>
       <c r="C41" s="40"/>
@@ -7522,7 +7525,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B46" s="50"/>
       <c r="C46" s="51"/>
@@ -7635,7 +7638,7 @@
       <c r="P50" s="68"/>
       <c r="Q50" s="68"/>
       <c r="R50" s="70" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S50" s="70"/>
       <c r="T50" s="70"/>
@@ -7704,30 +7707,30 @@
       <c r="A52" s="49"/>
       <c r="B52" s="50"/>
       <c r="C52" s="71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D52" s="71"/>
       <c r="E52" s="72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F52" s="72"/>
       <c r="G52" s="72"/>
       <c r="H52" s="73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I52" s="73"/>
       <c r="J52" s="74" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K52" s="74"/>
       <c r="L52" s="74"/>
       <c r="M52" s="73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N52" s="73"/>
       <c r="O52" s="73"/>
       <c r="P52" s="73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q52" s="73"/>
       <c r="R52" s="70"/>
@@ -7755,18 +7758,18 @@
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B53" s="55"/>
       <c r="C53" s="75" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D53" s="75"/>
       <c r="E53" s="75"/>
       <c r="F53" s="75"/>
       <c r="G53" s="75"/>
       <c r="H53" s="73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I53" s="73"/>
       <c r="J53" s="73"/>
@@ -7776,11 +7779,11 @@
       <c r="N53" s="68"/>
       <c r="O53" s="68"/>
       <c r="P53" s="73" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q53" s="73"/>
       <c r="R53" s="76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S53" s="76"/>
       <c r="T53" s="76"/>
@@ -7794,17 +7797,17 @@
       <c r="AB53" s="76"/>
       <c r="AC53" s="76"/>
       <c r="AD53" s="77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AE53" s="77"/>
       <c r="AF53" s="77"/>
       <c r="AG53" s="77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH53" s="77"/>
       <c r="AI53" s="77"/>
       <c r="AJ53" s="77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AK53" s="77"/>
       <c r="AL53" s="77"/>
@@ -7841,7 +7844,7 @@
       <c r="AB54" s="76"/>
       <c r="AC54" s="76"/>
       <c r="AD54" s="77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AE54" s="77"/>
       <c r="AF54" s="77"/>
@@ -7898,14 +7901,14 @@
       <c r="A56" s="49"/>
       <c r="B56" s="55"/>
       <c r="C56" s="78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D56" s="78"/>
       <c r="E56" s="78"/>
       <c r="F56" s="78"/>
       <c r="G56" s="78"/>
       <c r="H56" s="73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I56" s="73"/>
       <c r="J56" s="73"/>
@@ -7915,7 +7918,7 @@
       <c r="N56" s="79"/>
       <c r="O56" s="79"/>
       <c r="P56" s="73" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q56" s="73"/>
       <c r="R56" s="80" t="s">
@@ -7947,14 +7950,14 @@
       <c r="A57" s="49"/>
       <c r="B57" s="55"/>
       <c r="C57" s="78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D57" s="78"/>
       <c r="E57" s="78"/>
       <c r="F57" s="78"/>
       <c r="G57" s="78"/>
       <c r="H57" s="73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I57" s="73"/>
       <c r="J57" s="73"/>
@@ -7964,7 +7967,7 @@
       <c r="N57" s="79"/>
       <c r="O57" s="79"/>
       <c r="P57" s="73" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q57" s="73"/>
       <c r="R57" s="80"/>
@@ -8095,7 +8098,7 @@
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="64"/>
       <c r="E1" s="64"/>
@@ -8299,7 +8302,7 @@
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C6" s="42"/>
       <c r="D6" s="82" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" s="82"/>
       <c r="F6" s="82"/>
@@ -8688,7 +8691,7 @@
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C16" s="40"/>
       <c r="D16" s="83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E16" s="83"/>
       <c r="F16" s="83"/>
@@ -8718,7 +8721,7 @@
       <c r="AD16" s="25"/>
       <c r="AE16" s="25"/>
       <c r="AF16" s="26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG16" s="26"/>
       <c r="AH16" s="26"/>
@@ -9054,7 +9057,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="40"/>
@@ -9204,7 +9207,7 @@
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" s="50"/>
       <c r="C36" s="40"/>
@@ -9241,7 +9244,7 @@
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41" s="50"/>
       <c r="C41" s="40"/>
@@ -9278,7 +9281,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B46" s="50"/>
       <c r="C46" s="51"/>
@@ -9468,7 +9471,7 @@
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B53" s="55"/>
       <c r="C53" s="54"/>
@@ -9589,7 +9592,7 @@
       <c r="AI55" s="89"/>
       <c r="AJ55" s="89"/>
       <c r="AK55" s="77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL55" s="77"/>
       <c r="AM55" s="77"/>
@@ -9639,30 +9642,30 @@
       <c r="A57" s="49"/>
       <c r="B57" s="55"/>
       <c r="C57" s="71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D57" s="71"/>
       <c r="E57" s="72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F57" s="72"/>
       <c r="G57" s="72"/>
       <c r="H57" s="73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I57" s="73"/>
       <c r="J57" s="74" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K57" s="74"/>
       <c r="L57" s="74"/>
       <c r="M57" s="73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N57" s="73"/>
       <c r="O57" s="73"/>
       <c r="P57" s="73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q57" s="73"/>
       <c r="R57" s="89"/>
@@ -9747,7 +9750,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AO25" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="U36" activeCellId="0" sqref="U36"/>
     </sheetView>
   </sheetViews>
@@ -9765,7 +9768,7 @@
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="93" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="93"/>
       <c r="E1" s="93"/>
@@ -9959,7 +9962,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="94" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" s="94"/>
       <c r="E5" s="94"/>
@@ -9979,7 +9982,7 @@
       <c r="S5" s="94"/>
       <c r="T5" s="94"/>
       <c r="U5" s="95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V5" s="95"/>
       <c r="W5" s="95"/>
@@ -10081,7 +10084,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C8" s="94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
@@ -10101,7 +10104,7 @@
       <c r="S8" s="94"/>
       <c r="T8" s="94"/>
       <c r="U8" s="94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V8" s="94"/>
       <c r="W8" s="94"/>
@@ -10163,7 +10166,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C10" s="96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="96"/>
       <c r="E10" s="96"/>
@@ -10183,7 +10186,7 @@
       <c r="S10" s="96"/>
       <c r="T10" s="96"/>
       <c r="U10" s="94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V10" s="94"/>
       <c r="W10" s="94"/>
@@ -10284,7 +10287,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C13" s="97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" s="97"/>
       <c r="E13" s="97"/>
@@ -10304,7 +10307,7 @@
       <c r="S13" s="97"/>
       <c r="T13" s="97"/>
       <c r="U13" s="94" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V13" s="94"/>
       <c r="W13" s="94"/>
@@ -10405,7 +10408,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C16" s="94" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="94"/>
       <c r="E16" s="94"/>
@@ -10425,7 +10428,7 @@
       <c r="S16" s="94"/>
       <c r="T16" s="94"/>
       <c r="U16" s="98" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V16" s="98"/>
       <c r="W16" s="98"/>
@@ -10487,7 +10490,7 @@
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C18" s="97" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="97"/>
       <c r="E18" s="97"/>
@@ -10507,7 +10510,7 @@
       <c r="S18" s="97"/>
       <c r="T18" s="97"/>
       <c r="U18" s="94" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V18" s="94"/>
       <c r="W18" s="94"/>
@@ -10608,7 +10611,7 @@
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C21" s="94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D21" s="94"/>
       <c r="E21" s="94"/>
@@ -10628,7 +10631,7 @@
       <c r="S21" s="94"/>
       <c r="T21" s="94"/>
       <c r="U21" s="94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V21" s="94"/>
       <c r="W21" s="94"/>
@@ -10729,7 +10732,7 @@
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C24" s="94" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D24" s="94"/>
       <c r="E24" s="94"/>
@@ -10749,7 +10752,7 @@
       <c r="S24" s="94"/>
       <c r="T24" s="94"/>
       <c r="U24" s="94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V24" s="94"/>
       <c r="W24" s="94"/>
@@ -10811,7 +10814,7 @@
     </row>
     <row r="26" customFormat="false" ht="15.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C26" s="94" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D26" s="94"/>
       <c r="E26" s="94"/>
@@ -10831,7 +10834,7 @@
       <c r="S26" s="94"/>
       <c r="T26" s="94"/>
       <c r="U26" s="94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V26" s="94"/>
       <c r="W26" s="94"/>
@@ -10932,11 +10935,11 @@
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="94" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -10956,7 +10959,7 @@
       <c r="S29" s="94"/>
       <c r="T29" s="94"/>
       <c r="U29" s="94" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V29" s="94"/>
       <c r="W29" s="94"/>
@@ -11022,7 +11025,7 @@
       <c r="A31" s="49"/>
       <c r="B31" s="50"/>
       <c r="C31" s="94" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D31" s="94"/>
       <c r="E31" s="94"/>
@@ -11042,7 +11045,7 @@
       <c r="S31" s="94"/>
       <c r="T31" s="94"/>
       <c r="U31" s="94" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V31" s="94"/>
       <c r="W31" s="94"/>
@@ -11149,7 +11152,7 @@
       <c r="A34" s="49"/>
       <c r="B34" s="50"/>
       <c r="C34" s="94" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D34" s="94"/>
       <c r="E34" s="94"/>
@@ -11169,7 +11172,7 @@
       <c r="S34" s="94"/>
       <c r="T34" s="94"/>
       <c r="U34" s="94" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V34" s="94"/>
       <c r="W34" s="94"/>
@@ -11233,11 +11236,11 @@
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" s="50"/>
       <c r="C36" s="94" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D36" s="94"/>
       <c r="E36" s="94"/>
@@ -11257,7 +11260,7 @@
       <c r="S36" s="94"/>
       <c r="T36" s="94"/>
       <c r="U36" s="94" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="V36" s="94"/>
       <c r="W36" s="94"/>
@@ -11323,7 +11326,7 @@
       <c r="A38" s="49"/>
       <c r="B38" s="50"/>
       <c r="C38" s="94" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D38" s="94"/>
       <c r="E38" s="94"/>
@@ -11343,7 +11346,7 @@
       <c r="S38" s="94"/>
       <c r="T38" s="94"/>
       <c r="U38" s="94" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="V38" s="94"/>
       <c r="W38" s="94"/>
@@ -11448,7 +11451,7 @@
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41" s="50"/>
       <c r="C41" s="94"/>
@@ -11493,7 +11496,7 @@
       <c r="A42" s="49"/>
       <c r="B42" s="50"/>
       <c r="C42" s="96" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D42" s="96"/>
       <c r="E42" s="96"/>
@@ -11513,7 +11516,7 @@
       <c r="S42" s="96"/>
       <c r="T42" s="96"/>
       <c r="U42" s="94" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V42" s="94"/>
       <c r="W42" s="94"/>
@@ -11620,7 +11623,7 @@
       <c r="A45" s="49"/>
       <c r="B45" s="50"/>
       <c r="C45" s="96" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D45" s="96"/>
       <c r="E45" s="96"/>
@@ -11640,7 +11643,7 @@
       <c r="S45" s="96"/>
       <c r="T45" s="96"/>
       <c r="U45" s="96" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V45" s="96"/>
       <c r="W45" s="96"/>
@@ -11663,7 +11666,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B46" s="50"/>
       <c r="C46" s="96"/>
@@ -11888,7 +11891,7 @@
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B53" s="55"/>
       <c r="C53" s="54"/>
@@ -12009,7 +12012,7 @@
       <c r="AI55" s="89"/>
       <c r="AJ55" s="89"/>
       <c r="AK55" s="77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL55" s="77"/>
       <c r="AM55" s="77"/>
@@ -12059,30 +12062,30 @@
       <c r="A57" s="49"/>
       <c r="B57" s="55"/>
       <c r="C57" s="71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D57" s="71"/>
       <c r="E57" s="72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F57" s="72"/>
       <c r="G57" s="72"/>
       <c r="H57" s="73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I57" s="73"/>
       <c r="J57" s="74" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K57" s="74"/>
       <c r="L57" s="74"/>
       <c r="M57" s="73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N57" s="73"/>
       <c r="O57" s="73"/>
       <c r="P57" s="73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q57" s="73"/>
       <c r="R57" s="89"/>
@@ -12196,7 +12199,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -12290,7 +12293,7 @@
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C2" s="51"/>
       <c r="D2" s="104" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E2" s="104"/>
       <c r="F2" s="104"/>
@@ -12408,7 +12411,7 @@
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="40"/>
       <c r="D5" s="105" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E5" s="105"/>
       <c r="F5" s="105"/>
@@ -13273,7 +13276,7 @@
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C28" s="106" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D28" s="106"/>
       <c r="E28" s="106"/>
@@ -13314,7 +13317,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="106"/>
@@ -13359,11 +13362,11 @@
       <c r="A30" s="49"/>
       <c r="B30" s="50"/>
       <c r="C30" s="107" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D30" s="107"/>
       <c r="E30" s="107" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F30" s="107"/>
       <c r="G30" s="107"/>
@@ -13378,14 +13381,14 @@
       <c r="P30" s="107"/>
       <c r="Q30" s="107"/>
       <c r="R30" s="108" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S30" s="108"/>
       <c r="T30" s="108"/>
       <c r="U30" s="108"/>
       <c r="V30" s="108"/>
       <c r="W30" s="107" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X30" s="107"/>
       <c r="Y30" s="107"/>
@@ -13494,7 +13497,7 @@
       </c>
       <c r="D33" s="109"/>
       <c r="E33" s="110" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F33" s="110"/>
       <c r="G33" s="110"/>
@@ -13516,7 +13519,7 @@
       <c r="U33" s="109"/>
       <c r="V33" s="109"/>
       <c r="W33" s="111" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X33" s="111"/>
       <c r="Y33" s="111"/>
@@ -13584,7 +13587,7 @@
       </c>
       <c r="D35" s="109"/>
       <c r="E35" s="110" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F35" s="110"/>
       <c r="G35" s="110"/>
@@ -13599,7 +13602,7 @@
       <c r="P35" s="110"/>
       <c r="Q35" s="110"/>
       <c r="R35" s="109" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S35" s="109"/>
       <c r="T35" s="109"/>
@@ -13625,7 +13628,7 @@
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" s="50"/>
       <c r="C36" s="109"/>
@@ -13674,7 +13677,7 @@
       </c>
       <c r="D37" s="109"/>
       <c r="E37" s="110" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F37" s="110"/>
       <c r="G37" s="110"/>
@@ -13694,7 +13697,7 @@
       <c r="U37" s="112"/>
       <c r="V37" s="112"/>
       <c r="W37" s="110" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X37" s="110"/>
       <c r="Y37" s="110"/>
@@ -13803,7 +13806,7 @@
       </c>
       <c r="D40" s="109"/>
       <c r="E40" s="110" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F40" s="110"/>
       <c r="G40" s="110"/>
@@ -13823,7 +13826,7 @@
       <c r="U40" s="112"/>
       <c r="V40" s="112"/>
       <c r="W40" s="111" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X40" s="111"/>
       <c r="Y40" s="111"/>
@@ -13844,7 +13847,7 @@
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41" s="50"/>
       <c r="C41" s="109"/>
@@ -13934,7 +13937,7 @@
       </c>
       <c r="D43" s="109"/>
       <c r="E43" s="110" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F43" s="110"/>
       <c r="G43" s="110"/>
@@ -14055,7 +14058,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B46" s="50"/>
       <c r="C46" s="109" t="n">
@@ -14063,7 +14066,7 @@
       </c>
       <c r="D46" s="109"/>
       <c r="E46" s="110" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F46" s="110"/>
       <c r="G46" s="110"/>
@@ -14083,7 +14086,7 @@
       <c r="U46" s="112"/>
       <c r="V46" s="112"/>
       <c r="W46" s="110" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X46" s="110"/>
       <c r="Y46" s="110"/>
@@ -14274,7 +14277,7 @@
       </c>
       <c r="D51" s="109"/>
       <c r="E51" s="110" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F51" s="110"/>
       <c r="G51" s="110"/>
@@ -14294,7 +14297,7 @@
       <c r="U51" s="112"/>
       <c r="V51" s="112"/>
       <c r="W51" s="110" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="X51" s="110"/>
       <c r="Y51" s="110"/>
@@ -14356,7 +14359,7 @@
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B53" s="55"/>
       <c r="C53" s="109"/>
@@ -14478,7 +14481,7 @@
       <c r="AI55" s="89"/>
       <c r="AJ55" s="89"/>
       <c r="AK55" s="77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL55" s="77"/>
       <c r="AM55" s="77"/>
@@ -14528,30 +14531,30 @@
       <c r="A57" s="49"/>
       <c r="B57" s="55"/>
       <c r="C57" s="71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D57" s="71"/>
       <c r="E57" s="72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F57" s="72"/>
       <c r="G57" s="72"/>
       <c r="H57" s="73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I57" s="73"/>
       <c r="J57" s="74" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K57" s="74"/>
       <c r="L57" s="74"/>
       <c r="M57" s="73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N57" s="73"/>
       <c r="O57" s="73"/>
       <c r="P57" s="73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q57" s="73"/>
       <c r="R57" s="89"/>
@@ -14665,7 +14668,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AS47" activeCellId="0" sqref="AS47"/>
     </sheetView>
   </sheetViews>
@@ -14759,7 +14762,7 @@
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C2" s="51"/>
       <c r="D2" s="105" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E2" s="105"/>
       <c r="F2" s="105"/>
@@ -15814,7 +15817,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="40"/>
@@ -16103,7 +16106,7 @@
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" s="50"/>
       <c r="C36" s="40"/>
@@ -16310,7 +16313,7 @@
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41" s="50"/>
       <c r="C41" s="40"/>
@@ -16517,7 +16520,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B46" s="50"/>
       <c r="C46" s="51"/>
@@ -16806,7 +16809,7 @@
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B53" s="55"/>
       <c r="C53" s="54"/>
@@ -16928,7 +16931,7 @@
       <c r="AI55" s="89"/>
       <c r="AJ55" s="89"/>
       <c r="AK55" s="77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL55" s="77"/>
       <c r="AM55" s="77"/>
@@ -16978,30 +16981,30 @@
       <c r="A57" s="49"/>
       <c r="B57" s="55"/>
       <c r="C57" s="71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D57" s="71"/>
       <c r="E57" s="72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F57" s="72"/>
       <c r="G57" s="72"/>
       <c r="H57" s="73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I57" s="73"/>
       <c r="J57" s="74" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K57" s="74"/>
       <c r="L57" s="74"/>
       <c r="M57" s="73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N57" s="73"/>
       <c r="O57" s="73"/>
       <c r="P57" s="73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q57" s="73"/>
       <c r="R57" s="89"/>
@@ -17083,7 +17086,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -17177,7 +17180,7 @@
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C2" s="51"/>
       <c r="D2" s="115" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E2" s="115"/>
       <c r="F2" s="115"/>
@@ -17295,7 +17298,7 @@
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="40"/>
       <c r="D5" s="115" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E5" s="115"/>
       <c r="F5" s="115"/>
@@ -17419,7 +17422,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C9" s="116" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D9" s="116"/>
       <c r="E9" s="116"/>
@@ -17538,11 +17541,11 @@
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C12" s="80" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D12" s="80"/>
       <c r="E12" s="117" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F12" s="117"/>
       <c r="G12" s="117"/>
@@ -17569,7 +17572,7 @@
       <c r="AB12" s="117"/>
       <c r="AC12" s="117"/>
       <c r="AD12" s="117" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AE12" s="117"/>
       <c r="AF12" s="117"/>
@@ -17665,7 +17668,7 @@
       </c>
       <c r="D15" s="118"/>
       <c r="E15" s="111" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F15" s="111"/>
       <c r="G15" s="111"/>
@@ -17692,7 +17695,7 @@
       <c r="AB15" s="111"/>
       <c r="AC15" s="111"/>
       <c r="AD15" s="119" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AE15" s="119"/>
       <c r="AF15" s="119"/>
@@ -17749,7 +17752,7 @@
       </c>
       <c r="D17" s="118"/>
       <c r="E17" s="111" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F17" s="111"/>
       <c r="G17" s="111"/>
@@ -17776,7 +17779,7 @@
       <c r="AB17" s="111"/>
       <c r="AC17" s="111"/>
       <c r="AD17" s="119" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE17" s="119"/>
       <c r="AF17" s="119"/>
@@ -17911,7 +17914,7 @@
       </c>
       <c r="D21" s="118"/>
       <c r="E21" s="111" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F21" s="111"/>
       <c r="G21" s="111"/>
@@ -17938,7 +17941,7 @@
       <c r="AB21" s="111"/>
       <c r="AC21" s="111"/>
       <c r="AD21" s="119" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AE21" s="119"/>
       <c r="AF21" s="119"/>
@@ -18112,7 +18115,7 @@
       </c>
       <c r="D26" s="118"/>
       <c r="E26" s="111" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F26" s="111"/>
       <c r="G26" s="111"/>
@@ -18139,7 +18142,7 @@
       <c r="AB26" s="111"/>
       <c r="AC26" s="111"/>
       <c r="AD26" s="119" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AE26" s="119"/>
       <c r="AF26" s="119"/>
@@ -18231,7 +18234,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="118"/>
@@ -18362,7 +18365,7 @@
       </c>
       <c r="D32" s="118"/>
       <c r="E32" s="111" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F32" s="111"/>
       <c r="G32" s="111"/>
@@ -18389,7 +18392,7 @@
       <c r="AB32" s="111"/>
       <c r="AC32" s="111"/>
       <c r="AD32" s="119" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE32" s="119"/>
       <c r="AF32" s="119"/>
@@ -18526,7 +18529,7 @@
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" s="50"/>
       <c r="C36" s="118" t="n">
@@ -18534,7 +18537,7 @@
       </c>
       <c r="D36" s="118"/>
       <c r="E36" s="111" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F36" s="111"/>
       <c r="G36" s="111"/>
@@ -18561,7 +18564,7 @@
       <c r="AB36" s="111"/>
       <c r="AC36" s="111"/>
       <c r="AD36" s="119" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE36" s="119"/>
       <c r="AF36" s="119"/>
@@ -18663,7 +18666,7 @@
       </c>
       <c r="D39" s="118"/>
       <c r="E39" s="111" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F39" s="111"/>
       <c r="G39" s="111"/>
@@ -18690,7 +18693,7 @@
       <c r="AB39" s="111"/>
       <c r="AC39" s="111"/>
       <c r="AD39" s="119" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AE39" s="119"/>
       <c r="AF39" s="119"/>
@@ -18745,7 +18748,7 @@
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41" s="50"/>
       <c r="C41" s="118"/>
@@ -18835,7 +18838,7 @@
       </c>
       <c r="D43" s="118"/>
       <c r="E43" s="111" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F43" s="111"/>
       <c r="G43" s="111"/>
@@ -18862,7 +18865,7 @@
       <c r="AB43" s="111"/>
       <c r="AC43" s="111"/>
       <c r="AD43" s="119" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AE43" s="119"/>
       <c r="AF43" s="119"/>
@@ -18958,7 +18961,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B46" s="50"/>
       <c r="C46" s="118" t="n">
@@ -18966,7 +18969,7 @@
       </c>
       <c r="D46" s="118"/>
       <c r="E46" s="111" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F46" s="111"/>
       <c r="G46" s="111"/>
@@ -18993,7 +18996,7 @@
       <c r="AB46" s="111"/>
       <c r="AC46" s="111"/>
       <c r="AD46" s="119" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AE46" s="119"/>
       <c r="AF46" s="119"/>
@@ -19136,7 +19139,7 @@
       </c>
       <c r="D50" s="118"/>
       <c r="E50" s="111" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F50" s="111"/>
       <c r="G50" s="111"/>
@@ -19163,7 +19166,7 @@
       <c r="AB50" s="111"/>
       <c r="AC50" s="111"/>
       <c r="AD50" s="119" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AE50" s="119"/>
       <c r="AF50" s="119"/>
@@ -19259,7 +19262,7 @@
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B53" s="55"/>
       <c r="C53" s="118"/>
@@ -19381,7 +19384,7 @@
       <c r="AI55" s="89"/>
       <c r="AJ55" s="89"/>
       <c r="AK55" s="77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL55" s="77"/>
       <c r="AM55" s="77"/>
@@ -19431,30 +19434,30 @@
       <c r="A57" s="49"/>
       <c r="B57" s="55"/>
       <c r="C57" s="71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D57" s="71"/>
       <c r="E57" s="72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F57" s="72"/>
       <c r="G57" s="72"/>
       <c r="H57" s="73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I57" s="73"/>
       <c r="J57" s="74" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K57" s="74"/>
       <c r="L57" s="74"/>
       <c r="M57" s="73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N57" s="73"/>
       <c r="O57" s="73"/>
       <c r="P57" s="73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q57" s="73"/>
       <c r="R57" s="89"/>
@@ -19666,7 +19669,7 @@
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C2" s="51"/>
       <c r="D2" s="104" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E2" s="104"/>
       <c r="F2" s="104"/>
@@ -19784,7 +19787,7 @@
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="40"/>
       <c r="D5" s="124" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E5" s="124"/>
       <c r="F5" s="124"/>
@@ -20175,7 +20178,7 @@
     </row>
     <row r="15" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C15" s="125" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D15" s="125"/>
       <c r="E15" s="125"/>
@@ -20255,11 +20258,11 @@
     </row>
     <row r="17" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C17" s="107" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D17" s="107"/>
       <c r="E17" s="107" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F17" s="107"/>
       <c r="G17" s="107"/>
@@ -20277,7 +20280,7 @@
       <c r="S17" s="107"/>
       <c r="T17" s="107"/>
       <c r="U17" s="107" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V17" s="107"/>
       <c r="W17" s="107"/>
@@ -20588,7 +20591,7 @@
     </row>
     <row r="29" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="40"/>
@@ -20738,7 +20741,7 @@
     </row>
     <row r="36" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" s="50"/>
       <c r="C36" s="40"/>
@@ -20775,7 +20778,7 @@
     </row>
     <row r="41" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41" s="50"/>
       <c r="C41" s="40"/>
@@ -20812,7 +20815,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B46" s="50"/>
       <c r="C46" s="51"/>
@@ -21002,7 +21005,7 @@
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B53" s="55"/>
       <c r="C53" s="54"/>
@@ -21123,7 +21126,7 @@
       <c r="AI55" s="89"/>
       <c r="AJ55" s="89"/>
       <c r="AK55" s="77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL55" s="77"/>
       <c r="AM55" s="77"/>
@@ -21173,30 +21176,30 @@
       <c r="A57" s="49"/>
       <c r="B57" s="55"/>
       <c r="C57" s="71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D57" s="71"/>
       <c r="E57" s="72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F57" s="72"/>
       <c r="G57" s="72"/>
       <c r="H57" s="73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I57" s="73"/>
       <c r="J57" s="74" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K57" s="74"/>
       <c r="L57" s="74"/>
       <c r="M57" s="73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N57" s="73"/>
       <c r="O57" s="73"/>
       <c r="P57" s="73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q57" s="73"/>
       <c r="R57" s="89"/>

--- a/utils/report.xlsx
+++ b/utils/report.xlsx
@@ -1257,9 +1257,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>63720</xdr:colOff>
+      <xdr:colOff>63360</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>86040</xdr:rowOff>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1273,7 +1273,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="177840" y="68040"/>
-          <a:ext cx="1220040" cy="557280"/>
+          <a:ext cx="1219680" cy="556920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1299,9 +1299,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>26640</xdr:colOff>
+      <xdr:colOff>26280</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:rowOff>93600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1315,7 +1315,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="500040" y="75960"/>
-          <a:ext cx="1220040" cy="557280"/>
+          <a:ext cx="1219680" cy="556920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1341,9 +1341,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>108720</xdr:colOff>
+      <xdr:colOff>108360</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>141840</xdr:rowOff>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1357,7 +1357,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5842440" y="10004040"/>
-          <a:ext cx="632160" cy="288360"/>
+          <a:ext cx="631800" cy="288000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1485,8 +1485,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B56" activeCellId="0" sqref="B56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3135,7 +3135,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="X29" activeCellId="0" sqref="X29"/>
     </sheetView>
   </sheetViews>
@@ -4717,7 +4717,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Z15" activeCellId="0" sqref="Z15"/>
     </sheetView>
   </sheetViews>
@@ -6365,7 +6365,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -8080,7 +8080,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L18" activeCellId="0" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -9750,7 +9750,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AO25" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AO25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="U36" activeCellId="0" sqref="U36"/>
     </sheetView>
   </sheetViews>
@@ -12199,7 +12199,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -14668,7 +14668,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AS47" activeCellId="0" sqref="AS47"/>
     </sheetView>
   </sheetViews>
@@ -17086,7 +17086,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -19574,7 +19574,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P23" activeCellId="0" sqref="P23"/>
     </sheetView>
   </sheetViews>

--- a/utils/report.xlsx
+++ b/utils/report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="1" state="visible" r:id="rId3"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="124">
   <si>
     <t xml:space="preserve">ООО «Строительно-производственно объединение «УРАЛ»</t>
   </si>
@@ -41,7 +41,7 @@
     <t xml:space="preserve">Заказчик - {Заказчик}</t>
   </si>
   <si>
-    <t xml:space="preserve">{Тип помещения}, расположенный по адресу: {Адрес}</t>
+    <t xml:space="preserve">{Тип помещения}, {расположенный.род.тип помещения} по адресу: {Адрес}</t>
   </si>
   <si>
     <t xml:space="preserve">Заключение</t>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t xml:space="preserve">Екатеринбург</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{Тип помещения}, расположенный по адресу: {Адрес}</t>
   </si>
   <si>
     <t xml:space="preserve">Подп. и дата</t>
@@ -259,7 +262,7 @@
     <t xml:space="preserve">1. Введение</t>
   </si>
   <si>
-    <t xml:space="preserve">Работы по обследованию и оценке технического состояния строительных конструкции {Тип Помещения.Родительный}, расположенного по адресу: {Адрес}, выполнены на основании {Договора / Муниципального контракта} {№ Договора / Муниципального контракта}.
+    <t xml:space="preserve">Работы по обследованию и оценке технического состояния строительных конструкции {Тип Помещения.Родительный}, расположенного по адресу: {Адрес}, выполнены на основании {Договор/Муниципальный контракт.родительный} {№ Договора / Муниципального контракта}.
 Работы выполнены в соответствии с ГОСТ 31937-2011 «Здания и сооружения. Правила обследования и мониторинга технического состояния», СП 454.1325800.2019 «Здания жилые многоквартирные. Правила оценки аварийного и ограниченно-работоспособного технического состояния», действующими строительными нормами и правилами, с использованием приборов и оборудования, отвечающих требованиям действующих государственных стандартов. Сведения о приборах и оборудовании, применяемом в процессе обследования строительных конструкций дома, см. Таблица 1.
 Цель проведения обследования - определение фактического технического состояния элементов ограждающих и несущих конструкции {Тип помещения.Родительный}, расположенного по адресу: {Адрес}, с выявлением возможности дальнейшей безопасной эксплуатации</t>
   </si>
@@ -434,16 +437,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1080,11 +1086,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1116,15 +1122,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1160,7 +1166,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1251,9 +1257,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>64080</xdr:colOff>
+      <xdr:colOff>63360</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1267,7 +1273,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="177840" y="68040"/>
-          <a:ext cx="1220400" cy="557640"/>
+          <a:ext cx="1219680" cy="556920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1293,9 +1299,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>26280</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>93600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1309,7 +1315,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="500040" y="75960"/>
-          <a:ext cx="1220400" cy="557640"/>
+          <a:ext cx="1219680" cy="556920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1335,9 +1341,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>109080</xdr:colOff>
+      <xdr:colOff>108360</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1351,7 +1357,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5842440" y="10004040"/>
-          <a:ext cx="632520" cy="288720"/>
+          <a:ext cx="631800" cy="288000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1479,8 +1485,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3129,7 +3135,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="X29" activeCellId="0" sqref="X29"/>
     </sheetView>
   </sheetViews>
@@ -4022,7 +4028,7 @@
     </row>
     <row r="29" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="40"/>
@@ -4172,7 +4178,7 @@
     </row>
     <row r="36" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" s="50"/>
       <c r="C36" s="40"/>
@@ -4209,7 +4215,7 @@
     </row>
     <row r="41" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41" s="50"/>
       <c r="C41" s="40"/>
@@ -4246,7 +4252,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B46" s="50"/>
       <c r="C46" s="51"/>
@@ -4436,7 +4442,7 @@
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B53" s="55"/>
       <c r="C53" s="54"/>
@@ -4557,7 +4563,7 @@
       <c r="AI55" s="89"/>
       <c r="AJ55" s="89"/>
       <c r="AK55" s="77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL55" s="77"/>
       <c r="AM55" s="77"/>
@@ -4607,30 +4613,30 @@
       <c r="A57" s="49"/>
       <c r="B57" s="55"/>
       <c r="C57" s="71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D57" s="71"/>
       <c r="E57" s="72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F57" s="72"/>
       <c r="G57" s="72"/>
       <c r="H57" s="73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I57" s="73"/>
       <c r="J57" s="74" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K57" s="74"/>
       <c r="L57" s="74"/>
       <c r="M57" s="73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N57" s="73"/>
       <c r="O57" s="73"/>
       <c r="P57" s="73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q57" s="73"/>
       <c r="R57" s="89"/>
@@ -4711,8 +4717,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z15" activeCellId="0" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5258,7 +5264,7 @@
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C16" s="40"/>
       <c r="D16" s="19" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
@@ -5663,7 +5669,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="40"/>
@@ -5814,7 +5820,7 @@
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" s="50"/>
       <c r="C36" s="40"/>
@@ -5846,7 +5852,7 @@
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41" s="50"/>
       <c r="C41" s="40"/>
@@ -5937,7 +5943,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B46" s="50"/>
       <c r="C46" s="51"/>
@@ -6102,7 +6108,7 @@
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B53" s="55"/>
       <c r="C53" s="54"/>
@@ -6359,7 +6365,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -6377,7 +6383,7 @@
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="64" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="64"/>
       <c r="E1" s="64"/>
@@ -6571,14 +6577,14 @@
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="65" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="65"/>
       <c r="E5" s="65"/>
       <c r="F5" s="65"/>
       <c r="G5" s="65"/>
       <c r="H5" s="65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" s="65"/>
       <c r="J5" s="65"/>
@@ -6607,7 +6613,7 @@
       <c r="AG5" s="65"/>
       <c r="AH5" s="65"/>
       <c r="AI5" s="66" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ5" s="66"/>
       <c r="AK5" s="66"/>
@@ -7295,7 +7301,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="40"/>
@@ -7445,7 +7451,7 @@
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" s="50"/>
       <c r="C36" s="40"/>
@@ -7482,7 +7488,7 @@
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41" s="50"/>
       <c r="C41" s="40"/>
@@ -7519,7 +7525,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B46" s="50"/>
       <c r="C46" s="51"/>
@@ -7632,7 +7638,7 @@
       <c r="P50" s="68"/>
       <c r="Q50" s="68"/>
       <c r="R50" s="70" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S50" s="70"/>
       <c r="T50" s="70"/>
@@ -7701,30 +7707,30 @@
       <c r="A52" s="49"/>
       <c r="B52" s="50"/>
       <c r="C52" s="71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D52" s="71"/>
       <c r="E52" s="72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F52" s="72"/>
       <c r="G52" s="72"/>
       <c r="H52" s="73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I52" s="73"/>
       <c r="J52" s="74" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K52" s="74"/>
       <c r="L52" s="74"/>
       <c r="M52" s="73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N52" s="73"/>
       <c r="O52" s="73"/>
       <c r="P52" s="73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q52" s="73"/>
       <c r="R52" s="70"/>
@@ -7752,18 +7758,18 @@
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B53" s="55"/>
       <c r="C53" s="75" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D53" s="75"/>
       <c r="E53" s="75"/>
       <c r="F53" s="75"/>
       <c r="G53" s="75"/>
       <c r="H53" s="73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I53" s="73"/>
       <c r="J53" s="73"/>
@@ -7773,11 +7779,11 @@
       <c r="N53" s="68"/>
       <c r="O53" s="68"/>
       <c r="P53" s="73" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q53" s="73"/>
       <c r="R53" s="76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S53" s="76"/>
       <c r="T53" s="76"/>
@@ -7791,17 +7797,17 @@
       <c r="AB53" s="76"/>
       <c r="AC53" s="76"/>
       <c r="AD53" s="77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AE53" s="77"/>
       <c r="AF53" s="77"/>
       <c r="AG53" s="77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH53" s="77"/>
       <c r="AI53" s="77"/>
       <c r="AJ53" s="77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AK53" s="77"/>
       <c r="AL53" s="77"/>
@@ -7838,7 +7844,7 @@
       <c r="AB54" s="76"/>
       <c r="AC54" s="76"/>
       <c r="AD54" s="77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AE54" s="77"/>
       <c r="AF54" s="77"/>
@@ -7895,14 +7901,14 @@
       <c r="A56" s="49"/>
       <c r="B56" s="55"/>
       <c r="C56" s="78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D56" s="78"/>
       <c r="E56" s="78"/>
       <c r="F56" s="78"/>
       <c r="G56" s="78"/>
       <c r="H56" s="73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I56" s="73"/>
       <c r="J56" s="73"/>
@@ -7912,7 +7918,7 @@
       <c r="N56" s="79"/>
       <c r="O56" s="79"/>
       <c r="P56" s="73" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q56" s="73"/>
       <c r="R56" s="80" t="s">
@@ -7944,14 +7950,14 @@
       <c r="A57" s="49"/>
       <c r="B57" s="55"/>
       <c r="C57" s="78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D57" s="78"/>
       <c r="E57" s="78"/>
       <c r="F57" s="78"/>
       <c r="G57" s="78"/>
       <c r="H57" s="73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I57" s="73"/>
       <c r="J57" s="73"/>
@@ -7961,7 +7967,7 @@
       <c r="N57" s="79"/>
       <c r="O57" s="79"/>
       <c r="P57" s="73" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q57" s="73"/>
       <c r="R57" s="80"/>
@@ -8074,8 +8080,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L18" activeCellId="0" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8092,7 +8098,7 @@
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="64"/>
       <c r="E1" s="64"/>
@@ -8296,7 +8302,7 @@
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C6" s="42"/>
       <c r="D6" s="82" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" s="82"/>
       <c r="F6" s="82"/>
@@ -8685,7 +8691,7 @@
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C16" s="40"/>
       <c r="D16" s="83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E16" s="83"/>
       <c r="F16" s="83"/>
@@ -8715,7 +8721,7 @@
       <c r="AD16" s="25"/>
       <c r="AE16" s="25"/>
       <c r="AF16" s="26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG16" s="26"/>
       <c r="AH16" s="26"/>
@@ -9051,7 +9057,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="40"/>
@@ -9201,7 +9207,7 @@
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" s="50"/>
       <c r="C36" s="40"/>
@@ -9238,7 +9244,7 @@
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41" s="50"/>
       <c r="C41" s="40"/>
@@ -9275,7 +9281,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B46" s="50"/>
       <c r="C46" s="51"/>
@@ -9465,7 +9471,7 @@
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B53" s="55"/>
       <c r="C53" s="54"/>
@@ -9586,7 +9592,7 @@
       <c r="AI55" s="89"/>
       <c r="AJ55" s="89"/>
       <c r="AK55" s="77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL55" s="77"/>
       <c r="AM55" s="77"/>
@@ -9636,30 +9642,30 @@
       <c r="A57" s="49"/>
       <c r="B57" s="55"/>
       <c r="C57" s="71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D57" s="71"/>
       <c r="E57" s="72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F57" s="72"/>
       <c r="G57" s="72"/>
       <c r="H57" s="73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I57" s="73"/>
       <c r="J57" s="74" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K57" s="74"/>
       <c r="L57" s="74"/>
       <c r="M57" s="73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N57" s="73"/>
       <c r="O57" s="73"/>
       <c r="P57" s="73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q57" s="73"/>
       <c r="R57" s="89"/>
@@ -9744,8 +9750,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AQ20" activeCellId="0" sqref="AQ20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AO25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U36" activeCellId="0" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9762,7 +9768,7 @@
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="93" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="93"/>
       <c r="E1" s="93"/>
@@ -9956,7 +9962,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="94" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" s="94"/>
       <c r="E5" s="94"/>
@@ -9976,7 +9982,7 @@
       <c r="S5" s="94"/>
       <c r="T5" s="94"/>
       <c r="U5" s="95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V5" s="95"/>
       <c r="W5" s="95"/>
@@ -10078,7 +10084,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C8" s="94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
@@ -10098,7 +10104,7 @@
       <c r="S8" s="94"/>
       <c r="T8" s="94"/>
       <c r="U8" s="94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V8" s="94"/>
       <c r="W8" s="94"/>
@@ -10160,7 +10166,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C10" s="96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="96"/>
       <c r="E10" s="96"/>
@@ -10180,7 +10186,7 @@
       <c r="S10" s="96"/>
       <c r="T10" s="96"/>
       <c r="U10" s="94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V10" s="94"/>
       <c r="W10" s="94"/>
@@ -10281,7 +10287,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C13" s="97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" s="97"/>
       <c r="E13" s="97"/>
@@ -10301,7 +10307,7 @@
       <c r="S13" s="97"/>
       <c r="T13" s="97"/>
       <c r="U13" s="94" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V13" s="94"/>
       <c r="W13" s="94"/>
@@ -10402,7 +10408,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C16" s="94" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="94"/>
       <c r="E16" s="94"/>
@@ -10422,7 +10428,7 @@
       <c r="S16" s="94"/>
       <c r="T16" s="94"/>
       <c r="U16" s="98" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V16" s="98"/>
       <c r="W16" s="98"/>
@@ -10484,7 +10490,7 @@
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C18" s="97" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="97"/>
       <c r="E18" s="97"/>
@@ -10504,7 +10510,7 @@
       <c r="S18" s="97"/>
       <c r="T18" s="97"/>
       <c r="U18" s="94" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V18" s="94"/>
       <c r="W18" s="94"/>
@@ -10605,7 +10611,7 @@
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C21" s="94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D21" s="94"/>
       <c r="E21" s="94"/>
@@ -10625,7 +10631,7 @@
       <c r="S21" s="94"/>
       <c r="T21" s="94"/>
       <c r="U21" s="94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V21" s="94"/>
       <c r="W21" s="94"/>
@@ -10726,7 +10732,7 @@
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C24" s="94" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D24" s="94"/>
       <c r="E24" s="94"/>
@@ -10746,7 +10752,7 @@
       <c r="S24" s="94"/>
       <c r="T24" s="94"/>
       <c r="U24" s="94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V24" s="94"/>
       <c r="W24" s="94"/>
@@ -10808,7 +10814,7 @@
     </row>
     <row r="26" customFormat="false" ht="15.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C26" s="94" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D26" s="94"/>
       <c r="E26" s="94"/>
@@ -10828,7 +10834,7 @@
       <c r="S26" s="94"/>
       <c r="T26" s="94"/>
       <c r="U26" s="94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V26" s="94"/>
       <c r="W26" s="94"/>
@@ -10929,11 +10935,11 @@
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="94" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -10953,7 +10959,7 @@
       <c r="S29" s="94"/>
       <c r="T29" s="94"/>
       <c r="U29" s="94" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V29" s="94"/>
       <c r="W29" s="94"/>
@@ -11019,7 +11025,7 @@
       <c r="A31" s="49"/>
       <c r="B31" s="50"/>
       <c r="C31" s="94" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D31" s="94"/>
       <c r="E31" s="94"/>
@@ -11039,7 +11045,7 @@
       <c r="S31" s="94"/>
       <c r="T31" s="94"/>
       <c r="U31" s="94" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V31" s="94"/>
       <c r="W31" s="94"/>
@@ -11146,7 +11152,7 @@
       <c r="A34" s="49"/>
       <c r="B34" s="50"/>
       <c r="C34" s="94" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D34" s="94"/>
       <c r="E34" s="94"/>
@@ -11166,7 +11172,7 @@
       <c r="S34" s="94"/>
       <c r="T34" s="94"/>
       <c r="U34" s="94" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V34" s="94"/>
       <c r="W34" s="94"/>
@@ -11230,11 +11236,11 @@
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" s="50"/>
       <c r="C36" s="94" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D36" s="94"/>
       <c r="E36" s="94"/>
@@ -11254,7 +11260,7 @@
       <c r="S36" s="94"/>
       <c r="T36" s="94"/>
       <c r="U36" s="94" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="V36" s="94"/>
       <c r="W36" s="94"/>
@@ -11320,7 +11326,7 @@
       <c r="A38" s="49"/>
       <c r="B38" s="50"/>
       <c r="C38" s="94" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D38" s="94"/>
       <c r="E38" s="94"/>
@@ -11340,7 +11346,7 @@
       <c r="S38" s="94"/>
       <c r="T38" s="94"/>
       <c r="U38" s="94" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="V38" s="94"/>
       <c r="W38" s="94"/>
@@ -11445,7 +11451,7 @@
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41" s="50"/>
       <c r="C41" s="94"/>
@@ -11490,7 +11496,7 @@
       <c r="A42" s="49"/>
       <c r="B42" s="50"/>
       <c r="C42" s="96" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D42" s="96"/>
       <c r="E42" s="96"/>
@@ -11510,7 +11516,7 @@
       <c r="S42" s="96"/>
       <c r="T42" s="96"/>
       <c r="U42" s="94" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V42" s="94"/>
       <c r="W42" s="94"/>
@@ -11617,7 +11623,7 @@
       <c r="A45" s="49"/>
       <c r="B45" s="50"/>
       <c r="C45" s="96" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D45" s="96"/>
       <c r="E45" s="96"/>
@@ -11637,7 +11643,7 @@
       <c r="S45" s="96"/>
       <c r="T45" s="96"/>
       <c r="U45" s="96" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V45" s="96"/>
       <c r="W45" s="96"/>
@@ -11660,7 +11666,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B46" s="50"/>
       <c r="C46" s="96"/>
@@ -11885,7 +11891,7 @@
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B53" s="55"/>
       <c r="C53" s="54"/>
@@ -12006,7 +12012,7 @@
       <c r="AI55" s="89"/>
       <c r="AJ55" s="89"/>
       <c r="AK55" s="77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL55" s="77"/>
       <c r="AM55" s="77"/>
@@ -12056,30 +12062,30 @@
       <c r="A57" s="49"/>
       <c r="B57" s="55"/>
       <c r="C57" s="71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D57" s="71"/>
       <c r="E57" s="72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F57" s="72"/>
       <c r="G57" s="72"/>
       <c r="H57" s="73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I57" s="73"/>
       <c r="J57" s="74" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K57" s="74"/>
       <c r="L57" s="74"/>
       <c r="M57" s="73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N57" s="73"/>
       <c r="O57" s="73"/>
       <c r="P57" s="73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q57" s="73"/>
       <c r="R57" s="89"/>
@@ -12193,8 +12199,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12287,7 +12293,7 @@
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C2" s="51"/>
       <c r="D2" s="104" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E2" s="104"/>
       <c r="F2" s="104"/>
@@ -12405,7 +12411,7 @@
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="40"/>
       <c r="D5" s="105" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E5" s="105"/>
       <c r="F5" s="105"/>
@@ -13270,7 +13276,7 @@
     </row>
     <row r="28" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C28" s="106" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D28" s="106"/>
       <c r="E28" s="106"/>
@@ -13311,7 +13317,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="106"/>
@@ -13356,11 +13362,11 @@
       <c r="A30" s="49"/>
       <c r="B30" s="50"/>
       <c r="C30" s="107" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D30" s="107"/>
       <c r="E30" s="107" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F30" s="107"/>
       <c r="G30" s="107"/>
@@ -13375,14 +13381,14 @@
       <c r="P30" s="107"/>
       <c r="Q30" s="107"/>
       <c r="R30" s="108" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S30" s="108"/>
       <c r="T30" s="108"/>
       <c r="U30" s="108"/>
       <c r="V30" s="108"/>
       <c r="W30" s="107" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X30" s="107"/>
       <c r="Y30" s="107"/>
@@ -13491,7 +13497,7 @@
       </c>
       <c r="D33" s="109"/>
       <c r="E33" s="110" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F33" s="110"/>
       <c r="G33" s="110"/>
@@ -13513,7 +13519,7 @@
       <c r="U33" s="109"/>
       <c r="V33" s="109"/>
       <c r="W33" s="111" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X33" s="111"/>
       <c r="Y33" s="111"/>
@@ -13581,7 +13587,7 @@
       </c>
       <c r="D35" s="109"/>
       <c r="E35" s="110" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F35" s="110"/>
       <c r="G35" s="110"/>
@@ -13596,7 +13602,7 @@
       <c r="P35" s="110"/>
       <c r="Q35" s="110"/>
       <c r="R35" s="109" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S35" s="109"/>
       <c r="T35" s="109"/>
@@ -13622,7 +13628,7 @@
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" s="50"/>
       <c r="C36" s="109"/>
@@ -13671,7 +13677,7 @@
       </c>
       <c r="D37" s="109"/>
       <c r="E37" s="110" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F37" s="110"/>
       <c r="G37" s="110"/>
@@ -13691,7 +13697,7 @@
       <c r="U37" s="112"/>
       <c r="V37" s="112"/>
       <c r="W37" s="110" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X37" s="110"/>
       <c r="Y37" s="110"/>
@@ -13800,7 +13806,7 @@
       </c>
       <c r="D40" s="109"/>
       <c r="E40" s="110" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F40" s="110"/>
       <c r="G40" s="110"/>
@@ -13820,7 +13826,7 @@
       <c r="U40" s="112"/>
       <c r="V40" s="112"/>
       <c r="W40" s="111" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X40" s="111"/>
       <c r="Y40" s="111"/>
@@ -13841,7 +13847,7 @@
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41" s="50"/>
       <c r="C41" s="109"/>
@@ -13931,7 +13937,7 @@
       </c>
       <c r="D43" s="109"/>
       <c r="E43" s="110" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F43" s="110"/>
       <c r="G43" s="110"/>
@@ -14052,7 +14058,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B46" s="50"/>
       <c r="C46" s="109" t="n">
@@ -14060,7 +14066,7 @@
       </c>
       <c r="D46" s="109"/>
       <c r="E46" s="110" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F46" s="110"/>
       <c r="G46" s="110"/>
@@ -14080,7 +14086,7 @@
       <c r="U46" s="112"/>
       <c r="V46" s="112"/>
       <c r="W46" s="110" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X46" s="110"/>
       <c r="Y46" s="110"/>
@@ -14271,7 +14277,7 @@
       </c>
       <c r="D51" s="109"/>
       <c r="E51" s="110" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F51" s="110"/>
       <c r="G51" s="110"/>
@@ -14291,7 +14297,7 @@
       <c r="U51" s="112"/>
       <c r="V51" s="112"/>
       <c r="W51" s="110" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="X51" s="110"/>
       <c r="Y51" s="110"/>
@@ -14353,7 +14359,7 @@
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B53" s="55"/>
       <c r="C53" s="109"/>
@@ -14398,41 +14404,41 @@
       <c r="A54" s="49"/>
       <c r="B54" s="55"/>
       <c r="C54" s="113"/>
-      <c r="D54" s="0"/>
-      <c r="E54" s="0"/>
-      <c r="F54" s="0"/>
-      <c r="G54" s="0"/>
-      <c r="H54" s="0"/>
-      <c r="I54" s="0"/>
-      <c r="J54" s="0"/>
-      <c r="K54" s="0"/>
-      <c r="L54" s="0"/>
-      <c r="M54" s="0"/>
-      <c r="N54" s="0"/>
-      <c r="O54" s="0"/>
-      <c r="P54" s="0"/>
-      <c r="Q54" s="0"/>
-      <c r="R54" s="0"/>
-      <c r="S54" s="0"/>
-      <c r="T54" s="0"/>
-      <c r="U54" s="0"/>
-      <c r="V54" s="0"/>
-      <c r="W54" s="0"/>
-      <c r="X54" s="0"/>
-      <c r="Y54" s="0"/>
-      <c r="Z54" s="0"/>
-      <c r="AA54" s="0"/>
-      <c r="AB54" s="0"/>
-      <c r="AC54" s="0"/>
-      <c r="AD54" s="0"/>
-      <c r="AE54" s="0"/>
-      <c r="AF54" s="0"/>
-      <c r="AG54" s="0"/>
-      <c r="AH54" s="0"/>
-      <c r="AI54" s="0"/>
-      <c r="AJ54" s="0"/>
-      <c r="AK54" s="0"/>
-      <c r="AL54" s="0"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="8"/>
+      <c r="AD54" s="8"/>
+      <c r="AE54" s="8"/>
+      <c r="AF54" s="8"/>
+      <c r="AG54" s="8"/>
+      <c r="AH54" s="8"/>
+      <c r="AI54" s="8"/>
+      <c r="AJ54" s="8"/>
+      <c r="AK54" s="8"/>
+      <c r="AL54" s="8"/>
       <c r="AM54" s="114"/>
     </row>
     <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14475,7 +14481,7 @@
       <c r="AI55" s="89"/>
       <c r="AJ55" s="89"/>
       <c r="AK55" s="77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL55" s="77"/>
       <c r="AM55" s="77"/>
@@ -14525,30 +14531,30 @@
       <c r="A57" s="49"/>
       <c r="B57" s="55"/>
       <c r="C57" s="71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D57" s="71"/>
       <c r="E57" s="72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F57" s="72"/>
       <c r="G57" s="72"/>
       <c r="H57" s="73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I57" s="73"/>
       <c r="J57" s="74" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K57" s="74"/>
       <c r="L57" s="74"/>
       <c r="M57" s="73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N57" s="73"/>
       <c r="O57" s="73"/>
       <c r="P57" s="73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q57" s="73"/>
       <c r="R57" s="89"/>
@@ -14662,7 +14668,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AS47" activeCellId="0" sqref="AS47"/>
     </sheetView>
   </sheetViews>
@@ -14756,7 +14762,7 @@
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C2" s="51"/>
       <c r="D2" s="105" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E2" s="105"/>
       <c r="F2" s="105"/>
@@ -15811,7 +15817,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="40"/>
@@ -16100,7 +16106,7 @@
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" s="50"/>
       <c r="C36" s="40"/>
@@ -16307,7 +16313,7 @@
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41" s="50"/>
       <c r="C41" s="40"/>
@@ -16514,7 +16520,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B46" s="50"/>
       <c r="C46" s="51"/>
@@ -16803,7 +16809,7 @@
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B53" s="55"/>
       <c r="C53" s="54"/>
@@ -16925,7 +16931,7 @@
       <c r="AI55" s="89"/>
       <c r="AJ55" s="89"/>
       <c r="AK55" s="77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL55" s="77"/>
       <c r="AM55" s="77"/>
@@ -16975,30 +16981,30 @@
       <c r="A57" s="49"/>
       <c r="B57" s="55"/>
       <c r="C57" s="71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D57" s="71"/>
       <c r="E57" s="72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F57" s="72"/>
       <c r="G57" s="72"/>
       <c r="H57" s="73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I57" s="73"/>
       <c r="J57" s="74" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K57" s="74"/>
       <c r="L57" s="74"/>
       <c r="M57" s="73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N57" s="73"/>
       <c r="O57" s="73"/>
       <c r="P57" s="73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q57" s="73"/>
       <c r="R57" s="89"/>
@@ -17080,7 +17086,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -17174,7 +17180,7 @@
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C2" s="51"/>
       <c r="D2" s="115" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E2" s="115"/>
       <c r="F2" s="115"/>
@@ -17292,7 +17298,7 @@
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="40"/>
       <c r="D5" s="115" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E5" s="115"/>
       <c r="F5" s="115"/>
@@ -17416,7 +17422,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C9" s="116" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D9" s="116"/>
       <c r="E9" s="116"/>
@@ -17535,11 +17541,11 @@
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C12" s="80" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D12" s="80"/>
       <c r="E12" s="117" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F12" s="117"/>
       <c r="G12" s="117"/>
@@ -17566,7 +17572,7 @@
       <c r="AB12" s="117"/>
       <c r="AC12" s="117"/>
       <c r="AD12" s="117" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AE12" s="117"/>
       <c r="AF12" s="117"/>
@@ -17662,7 +17668,7 @@
       </c>
       <c r="D15" s="118"/>
       <c r="E15" s="111" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F15" s="111"/>
       <c r="G15" s="111"/>
@@ -17689,7 +17695,7 @@
       <c r="AB15" s="111"/>
       <c r="AC15" s="111"/>
       <c r="AD15" s="119" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AE15" s="119"/>
       <c r="AF15" s="119"/>
@@ -17746,7 +17752,7 @@
       </c>
       <c r="D17" s="118"/>
       <c r="E17" s="111" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F17" s="111"/>
       <c r="G17" s="111"/>
@@ -17773,7 +17779,7 @@
       <c r="AB17" s="111"/>
       <c r="AC17" s="111"/>
       <c r="AD17" s="119" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AE17" s="119"/>
       <c r="AF17" s="119"/>
@@ -17908,7 +17914,7 @@
       </c>
       <c r="D21" s="118"/>
       <c r="E21" s="111" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F21" s="111"/>
       <c r="G21" s="111"/>
@@ -17935,7 +17941,7 @@
       <c r="AB21" s="111"/>
       <c r="AC21" s="111"/>
       <c r="AD21" s="119" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AE21" s="119"/>
       <c r="AF21" s="119"/>
@@ -18109,7 +18115,7 @@
       </c>
       <c r="D26" s="118"/>
       <c r="E26" s="111" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F26" s="111"/>
       <c r="G26" s="111"/>
@@ -18136,7 +18142,7 @@
       <c r="AB26" s="111"/>
       <c r="AC26" s="111"/>
       <c r="AD26" s="119" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AE26" s="119"/>
       <c r="AF26" s="119"/>
@@ -18228,7 +18234,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="118"/>
@@ -18359,7 +18365,7 @@
       </c>
       <c r="D32" s="118"/>
       <c r="E32" s="111" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F32" s="111"/>
       <c r="G32" s="111"/>
@@ -18386,7 +18392,7 @@
       <c r="AB32" s="111"/>
       <c r="AC32" s="111"/>
       <c r="AD32" s="119" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AE32" s="119"/>
       <c r="AF32" s="119"/>
@@ -18523,7 +18529,7 @@
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" s="50"/>
       <c r="C36" s="118" t="n">
@@ -18531,7 +18537,7 @@
       </c>
       <c r="D36" s="118"/>
       <c r="E36" s="111" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F36" s="111"/>
       <c r="G36" s="111"/>
@@ -18558,7 +18564,7 @@
       <c r="AB36" s="111"/>
       <c r="AC36" s="111"/>
       <c r="AD36" s="119" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE36" s="119"/>
       <c r="AF36" s="119"/>
@@ -18660,7 +18666,7 @@
       </c>
       <c r="D39" s="118"/>
       <c r="E39" s="111" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F39" s="111"/>
       <c r="G39" s="111"/>
@@ -18687,7 +18693,7 @@
       <c r="AB39" s="111"/>
       <c r="AC39" s="111"/>
       <c r="AD39" s="119" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AE39" s="119"/>
       <c r="AF39" s="119"/>
@@ -18742,7 +18748,7 @@
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41" s="50"/>
       <c r="C41" s="118"/>
@@ -18832,7 +18838,7 @@
       </c>
       <c r="D43" s="118"/>
       <c r="E43" s="111" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F43" s="111"/>
       <c r="G43" s="111"/>
@@ -18859,7 +18865,7 @@
       <c r="AB43" s="111"/>
       <c r="AC43" s="111"/>
       <c r="AD43" s="119" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AE43" s="119"/>
       <c r="AF43" s="119"/>
@@ -18955,7 +18961,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B46" s="50"/>
       <c r="C46" s="118" t="n">
@@ -18963,7 +18969,7 @@
       </c>
       <c r="D46" s="118"/>
       <c r="E46" s="111" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F46" s="111"/>
       <c r="G46" s="111"/>
@@ -18990,7 +18996,7 @@
       <c r="AB46" s="111"/>
       <c r="AC46" s="111"/>
       <c r="AD46" s="119" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AE46" s="119"/>
       <c r="AF46" s="119"/>
@@ -19133,7 +19139,7 @@
       </c>
       <c r="D50" s="118"/>
       <c r="E50" s="111" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F50" s="111"/>
       <c r="G50" s="111"/>
@@ -19160,7 +19166,7 @@
       <c r="AB50" s="111"/>
       <c r="AC50" s="111"/>
       <c r="AD50" s="119" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AE50" s="119"/>
       <c r="AF50" s="119"/>
@@ -19256,7 +19262,7 @@
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B53" s="55"/>
       <c r="C53" s="118"/>
@@ -19378,7 +19384,7 @@
       <c r="AI55" s="89"/>
       <c r="AJ55" s="89"/>
       <c r="AK55" s="77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL55" s="77"/>
       <c r="AM55" s="77"/>
@@ -19428,30 +19434,30 @@
       <c r="A57" s="49"/>
       <c r="B57" s="55"/>
       <c r="C57" s="71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D57" s="71"/>
       <c r="E57" s="72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F57" s="72"/>
       <c r="G57" s="72"/>
       <c r="H57" s="73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I57" s="73"/>
       <c r="J57" s="74" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K57" s="74"/>
       <c r="L57" s="74"/>
       <c r="M57" s="73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N57" s="73"/>
       <c r="O57" s="73"/>
       <c r="P57" s="73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q57" s="73"/>
       <c r="R57" s="89"/>
@@ -19568,7 +19574,7 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P23" activeCellId="0" sqref="P23"/>
     </sheetView>
   </sheetViews>
@@ -19663,7 +19669,7 @@
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C2" s="51"/>
       <c r="D2" s="104" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E2" s="104"/>
       <c r="F2" s="104"/>
@@ -19781,7 +19787,7 @@
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="40"/>
       <c r="D5" s="124" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E5" s="124"/>
       <c r="F5" s="124"/>
@@ -20172,7 +20178,7 @@
     </row>
     <row r="15" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C15" s="125" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D15" s="125"/>
       <c r="E15" s="125"/>
@@ -20252,11 +20258,11 @@
     </row>
     <row r="17" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C17" s="107" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D17" s="107"/>
       <c r="E17" s="107" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F17" s="107"/>
       <c r="G17" s="107"/>
@@ -20274,7 +20280,7 @@
       <c r="S17" s="107"/>
       <c r="T17" s="107"/>
       <c r="U17" s="107" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V17" s="107"/>
       <c r="W17" s="107"/>
@@ -20585,7 +20591,7 @@
     </row>
     <row r="29" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="40"/>
@@ -20735,7 +20741,7 @@
     </row>
     <row r="36" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B36" s="50"/>
       <c r="C36" s="40"/>
@@ -20772,7 +20778,7 @@
     </row>
     <row r="41" s="1" customFormat="true" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41" s="50"/>
       <c r="C41" s="40"/>
@@ -20809,7 +20815,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B46" s="50"/>
       <c r="C46" s="51"/>
@@ -20999,7 +21005,7 @@
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B53" s="55"/>
       <c r="C53" s="54"/>
@@ -21120,7 +21126,7 @@
       <c r="AI55" s="89"/>
       <c r="AJ55" s="89"/>
       <c r="AK55" s="77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL55" s="77"/>
       <c r="AM55" s="77"/>
@@ -21170,30 +21176,30 @@
       <c r="A57" s="49"/>
       <c r="B57" s="55"/>
       <c r="C57" s="71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D57" s="71"/>
       <c r="E57" s="72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F57" s="72"/>
       <c r="G57" s="72"/>
       <c r="H57" s="73" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I57" s="73"/>
       <c r="J57" s="74" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K57" s="74"/>
       <c r="L57" s="74"/>
       <c r="M57" s="73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N57" s="73"/>
       <c r="O57" s="73"/>
       <c r="P57" s="73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q57" s="73"/>
       <c r="R57" s="89"/>

--- a/utils/report.xlsx
+++ b/utils/report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный" sheetId="1" state="visible" r:id="rId3"/>
@@ -1257,9 +1257,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>63360</xdr:colOff>
+      <xdr:colOff>63000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
+      <xdr:rowOff>85320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1273,7 +1273,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="177840" y="68040"/>
-          <a:ext cx="1219680" cy="556920"/>
+          <a:ext cx="1219320" cy="556560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1299,9 +1299,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>26280</xdr:colOff>
+      <xdr:colOff>25920</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>93600</xdr:rowOff>
+      <xdr:rowOff>93240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1315,7 +1315,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="500040" y="75960"/>
-          <a:ext cx="1219680" cy="556920"/>
+          <a:ext cx="1219320" cy="556560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1341,9 +1341,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>108360</xdr:colOff>
+      <xdr:colOff>108000</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
+      <xdr:rowOff>141120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1357,7 +1357,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5842440" y="10004040"/>
-          <a:ext cx="631800" cy="288000"/>
+          <a:ext cx="631440" cy="287640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1485,8 +1485,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4717,8 +4717,8 @@
   </sheetPr>
   <dimension ref="A1:BW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z15" activeCellId="0" sqref="Z15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5263,238 +5263,238 @@
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C16" s="40"/>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="19"/>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="19"/>
-      <c r="AF16" s="19"/>
-      <c r="AG16" s="19"/>
-      <c r="AH16" s="19"/>
-      <c r="AI16" s="19"/>
-      <c r="AJ16" s="19"/>
-      <c r="AK16" s="19"/>
-      <c r="AL16" s="19"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="17"/>
+      <c r="AK16" s="17"/>
+      <c r="AL16" s="17"/>
       <c r="AM16" s="41"/>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C17" s="40"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="19"/>
-      <c r="AD17" s="19"/>
-      <c r="AE17" s="19"/>
-      <c r="AF17" s="19"/>
-      <c r="AG17" s="19"/>
-      <c r="AH17" s="19"/>
-      <c r="AI17" s="19"/>
-      <c r="AJ17" s="19"/>
-      <c r="AK17" s="19"/>
-      <c r="AL17" s="19"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="17"/>
+      <c r="AK17" s="17"/>
+      <c r="AL17" s="17"/>
       <c r="AM17" s="41"/>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C18" s="40"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="19"/>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="19"/>
-      <c r="AH18" s="19"/>
-      <c r="AI18" s="19"/>
-      <c r="AJ18" s="19"/>
-      <c r="AK18" s="19"/>
-      <c r="AL18" s="19"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="17"/>
+      <c r="AK18" s="17"/>
+      <c r="AL18" s="17"/>
       <c r="AM18" s="41"/>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C19" s="40"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="19"/>
-      <c r="AC19" s="19"/>
-      <c r="AD19" s="19"/>
-      <c r="AE19" s="19"/>
-      <c r="AF19" s="19"/>
-      <c r="AG19" s="19"/>
-      <c r="AH19" s="19"/>
-      <c r="AI19" s="19"/>
-      <c r="AJ19" s="19"/>
-      <c r="AK19" s="19"/>
-      <c r="AL19" s="19"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="17"/>
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="17"/>
+      <c r="AL19" s="17"/>
       <c r="AM19" s="41"/>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C20" s="40"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="19"/>
-      <c r="AD20" s="19"/>
-      <c r="AE20" s="19"/>
-      <c r="AF20" s="19"/>
-      <c r="AG20" s="19"/>
-      <c r="AH20" s="19"/>
-      <c r="AI20" s="19"/>
-      <c r="AJ20" s="19"/>
-      <c r="AK20" s="19"/>
-      <c r="AL20" s="19"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="17"/>
+      <c r="AL20" s="17"/>
       <c r="AM20" s="41"/>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C21" s="40"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="19"/>
-      <c r="AD21" s="19"/>
-      <c r="AE21" s="19"/>
-      <c r="AF21" s="19"/>
-      <c r="AG21" s="19"/>
-      <c r="AH21" s="19"/>
-      <c r="AI21" s="19"/>
-      <c r="AJ21" s="19"/>
-      <c r="AK21" s="19"/>
-      <c r="AL21" s="19"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
+      <c r="AL21" s="17"/>
       <c r="AM21" s="41"/>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
